--- a/datafiles/21-11 Demand Sheet Puyallup.xlsx
+++ b/datafiles/21-11 Demand Sheet Puyallup.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STORPUYALLUP1-W10\The Stor-House Self Storage\Team Stor-House - Documents\Stores Files\Puyallup Files\Demand\"/>
     </mc:Choice>
@@ -1720,26 +1720,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" style="6" customWidth="1"/>
-    <col min="9" max="11" width="7.140625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" style="6" customWidth="1"/>
-    <col min="13" max="14" width="6.85546875" style="6" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="8" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="1"/>
-    <col min="21" max="21" width="7.5703125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="7.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="7.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="6" width="10.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="6" width="5.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="6" width="6.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="6" width="6.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="6" width="6.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="6" width="6.42578125" collapsed="true"/>
+    <col min="9" max="11" customWidth="true" style="6" width="7.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="6" width="7.5703125" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" style="6" width="6.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="7.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="7.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="18" max="18" style="1" width="9.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="20" max="20" style="1" width="9.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="23" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
@@ -5751,18 +5751,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="5.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" style="1" customWidth="1"/>
-    <col min="11" max="12" width="7.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="7.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="6.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="6.140625" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="1" width="5.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="7.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="7.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="6.85546875" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="1" width="7.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="6.85546875" collapsed="true"/>
+    <col min="14" max="14" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -7381,26 +7381,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="6" customWidth="1"/>
-    <col min="11" max="13" width="7.140625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" style="6" customWidth="1"/>
-    <col min="15" max="16" width="6.85546875" style="6" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="8" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="1"/>
-    <col min="21" max="21" width="7.5703125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="7.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="8.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="6" width="5.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="6" width="6.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="6" width="7.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="6" width="6.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="6" width="5.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="6" width="6.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="6" width="5.7109375" collapsed="true"/>
+    <col min="11" max="13" customWidth="true" style="6" width="7.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="6" width="7.5703125" collapsed="true"/>
+    <col min="15" max="16" customWidth="true" style="6" width="6.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="7.28515625" collapsed="true"/>
+    <col min="18" max="18" style="1" width="9.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="20" max="20" style="1" width="9.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="23" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
@@ -8195,8 +8195,8 @@
       <c r="D18" s="16">
         <v>136</v>
       </c>
-      <c r="E18" s="91">
-        <v>111</v>
+      <c r="E18" s="91" t="n">
+        <v>113.0</v>
       </c>
       <c r="F18" s="31">
         <f t="shared" si="0"/>
@@ -8206,8 +8206,8 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="H18" s="91">
-        <v>7</v>
+      <c r="H18" s="91" t="n">
+        <v>9.0</v>
       </c>
       <c r="I18" s="74">
         <v>2</v>

--- a/datafiles/21-11 Demand Sheet Puyallup.xlsx
+++ b/datafiles/21-11 Demand Sheet Puyallup.xlsx
@@ -1909,54 +1909,54 @@
       <c r="C6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="23" t="n">
         <f>'Input Tab'!D6</f>
-        <v>2</v>
-      </c>
-      <c r="E6" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="E6" s="22" t="n">
         <f>+'Input Tab'!E6</f>
-        <v>2</v>
-      </c>
-      <c r="F6" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="F6" s="31" t="n">
         <f t="shared" ref="F6:F29" si="0">E6/D6</f>
-        <v>1</v>
-      </c>
-      <c r="G6" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="21" t="n">
         <f>'Input Tab'!H6</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="27" t="n">
         <f>'Input Tab'!I6</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I6" s="30"/>
-      <c r="J6" s="27">
+      <c r="J6" s="27" t="n">
         <f>'Input Tab'!K6</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="27" t="n">
         <f>'Input Tab'!L6</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="85">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="85" t="n">
         <f>+'Input Tab'!M6</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="M6" s="28" t="n">
         <f t="shared" ref="M6:M28" si="1">H6+I6+J6+K6+L6+G6</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="N6" s="22" t="n">
         <f>'Input Tab'!O6</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="O6" s="22" t="n">
         <f>'Input Tab'!P6</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="P6" s="22" t="n">
         <f>'Input Tab'!Q6</f>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q6" s="34" t="e">
         <f t="shared" ref="Q6:Q29" si="2">N6/M6</f>
@@ -1973,58 +1973,58 @@
       <c r="C7" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="38" t="n">
         <f>'Input Tab'!D7</f>
-        <v>23</v>
-      </c>
-      <c r="E7" s="39">
+        <v>23.0</v>
+      </c>
+      <c r="E7" s="39" t="n">
         <f>+'Input Tab'!E7</f>
-        <v>20</v>
-      </c>
-      <c r="F7" s="40">
+        <v>20.0</v>
+      </c>
+      <c r="F7" s="40" t="n">
         <f t="shared" si="0"/>
-        <v>0.86956521739130432</v>
-      </c>
-      <c r="G7" s="39">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="G7" s="39" t="n">
         <f>'Input Tab'!H7</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="39" t="n">
         <f>'Input Tab'!I7</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I7" s="39"/>
-      <c r="J7" s="39">
+      <c r="J7" s="39" t="n">
         <f>'Input Tab'!K7</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="39" t="n">
         <f>'Input Tab'!L7</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="41" t="n">
         <f>+'Input Tab'!M7</f>
-        <v>1</v>
-      </c>
-      <c r="M7" s="42">
+        <v>1.0</v>
+      </c>
+      <c r="M7" s="42" t="n">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N7" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="N7" s="38" t="n">
         <f>'Input Tab'!O7</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="O7" s="39" t="n">
         <f>'Input Tab'!P7</f>
-        <v>2</v>
-      </c>
-      <c r="P7" s="38">
+        <v>2.0</v>
+      </c>
+      <c r="P7" s="38" t="n">
         <f>'Input Tab'!Q7</f>
-        <v>3</v>
-      </c>
-      <c r="Q7" s="34">
+        <v>3.0</v>
+      </c>
+      <c r="Q7" s="34" t="n">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
@@ -2035,54 +2035,54 @@
       <c r="C8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="15" t="n">
         <f>'Input Tab'!D8+'Input Tab'!D9</f>
-        <v>4</v>
-      </c>
-      <c r="E8" s="30">
+        <v>4.0</v>
+      </c>
+      <c r="E8" s="30" t="n">
         <f>'Input Tab'!E8+'Input Tab'!E9</f>
-        <v>3</v>
-      </c>
-      <c r="F8" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="F8" s="31" t="n">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="30" t="n">
         <f>'Input Tab'!H8+'Input Tab'!H9</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="30" t="n">
         <f>'Input Tab'!I8+'Input Tab'!I9</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I8" s="30"/>
-      <c r="J8" s="30">
+      <c r="J8" s="30" t="n">
         <f>'Input Tab'!K8+'Input Tab'!K9</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="30" t="n">
         <f>'Input Tab'!L8+'Input Tab'!L9</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="32" t="n">
         <f>+'Input Tab'!M8+'Input Tab'!M9</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="28" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="N8" s="23" t="n">
         <f>'Input Tab'!O8+'Input Tab'!O9</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="O8" s="30" t="n">
         <f>'Input Tab'!P8+'Input Tab'!P9</f>
-        <v>1</v>
-      </c>
-      <c r="P8" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="P8" s="22" t="n">
         <f>'Input Tab'!Q8+'Input Tab'!Q9</f>
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="Q8" s="44" t="e">
         <f t="shared" si="2"/>
@@ -2097,58 +2097,58 @@
       <c r="C9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="23" t="n">
         <f>+'Input Tab'!D11</f>
-        <v>23</v>
-      </c>
-      <c r="E9" s="30">
+        <v>23.0</v>
+      </c>
+      <c r="E9" s="30" t="n">
         <f>+'Input Tab'!E11</f>
-        <v>23</v>
-      </c>
-      <c r="F9" s="31">
+        <v>23.0</v>
+      </c>
+      <c r="F9" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G9" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="30" t="n">
         <f>'Input Tab'!H11</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="30" t="n">
         <f>'Input Tab'!I11</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I9" s="30"/>
-      <c r="J9" s="30">
+      <c r="J9" s="30" t="n">
         <f>'Input Tab'!K11</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="K9" s="30" t="n">
         <f>'Input Tab'!L11</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="32" t="n">
         <f>+'Input Tab'!M11</f>
-        <v>2</v>
-      </c>
-      <c r="M9" s="33">
+        <v>2.0</v>
+      </c>
+      <c r="M9" s="33" t="n">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N9" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="N9" s="23" t="n">
         <f>'Input Tab'!O11</f>
-        <v>2</v>
-      </c>
-      <c r="O9" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="O9" s="30" t="n">
         <f>'Input Tab'!P11</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="P9" s="23" t="n">
         <f>'Input Tab'!Q11</f>
-        <v>3</v>
-      </c>
-      <c r="Q9" s="34">
+        <v>3.0</v>
+      </c>
+      <c r="Q9" s="34" t="n">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="10" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2161,58 +2161,58 @@
       <c r="C10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="23" t="n">
         <f>'Input Tab'!D10</f>
-        <v>48</v>
-      </c>
-      <c r="E10" s="30">
+        <v>48.0</v>
+      </c>
+      <c r="E10" s="30" t="n">
         <f>+'Input Tab'!E10</f>
-        <v>39</v>
-      </c>
-      <c r="F10" s="31">
+        <v>39.0</v>
+      </c>
+      <c r="F10" s="31" t="n">
         <f t="shared" si="0"/>
         <v>0.8125</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="30" t="n">
         <f>'Input Tab'!H10</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="30" t="n">
         <f>'Input Tab'!I10</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I10" s="30"/>
-      <c r="J10" s="30">
+      <c r="J10" s="30" t="n">
         <f>'Input Tab'!K10</f>
-        <v>2</v>
-      </c>
-      <c r="K10" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="K10" s="30" t="n">
         <f>'Input Tab'!L10</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="32" t="n">
         <f>+'Input Tab'!M10</f>
-        <v>1</v>
-      </c>
-      <c r="M10" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="M10" s="33" t="n">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="N10" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="N10" s="23" t="n">
         <f>'Input Tab'!O10</f>
-        <v>3</v>
-      </c>
-      <c r="O10" s="30">
+        <v>3.0</v>
+      </c>
+      <c r="O10" s="30" t="n">
         <f>'Input Tab'!P10</f>
-        <v>2</v>
-      </c>
-      <c r="P10" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="P10" s="23" t="n">
         <f>'Input Tab'!Q10</f>
-        <v>3</v>
-      </c>
-      <c r="Q10" s="34">
+        <v>3.0</v>
+      </c>
+      <c r="Q10" s="34" t="n">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -2242,58 +2242,58 @@
       <c r="C11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="15" t="n">
         <f>'Input Tab'!D12+'Input Tab'!D13+'Input Tab'!D14+'Input Tab'!D15+'Input Tab'!D16</f>
-        <v>60</v>
-      </c>
-      <c r="E11" s="30">
+        <v>60.0</v>
+      </c>
+      <c r="E11" s="30" t="n">
         <f>+'Input Tab'!E12+'Input Tab'!E13+'Input Tab'!E14+'Input Tab'!E15+'Input Tab'!E16</f>
-        <v>45</v>
-      </c>
-      <c r="F11" s="31">
+        <v>49.0</v>
+      </c>
+      <c r="F11" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="G11" s="30">
+        <v>0.8166666666666667</v>
+      </c>
+      <c r="G11" s="30" t="n">
         <f>'Input Tab'!H12+'Input Tab'!H13+'Input Tab'!H14+'Input Tab'!H15+'Input Tab'!H16</f>
-        <v>1</v>
-      </c>
-      <c r="H11" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H11" s="30" t="n">
         <f>'Input Tab'!I12+'Input Tab'!I13+'Input Tab'!I14+'Input Tab'!I15+'Input Tab'!I16</f>
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="I11" s="30"/>
-      <c r="J11" s="30">
+      <c r="J11" s="30" t="n">
         <f>'Input Tab'!K12+'Input Tab'!K13+'Input Tab'!K14+'Input Tab'!K15+'Input Tab'!K16</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="30">
+        <v>5.0</v>
+      </c>
+      <c r="K11" s="30" t="n">
         <f>'Input Tab'!L12+'Input Tab'!L13+'Input Tab'!L14+'Input Tab'!L15+'Input Tab'!L16</f>
-        <v>1</v>
-      </c>
-      <c r="L11" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="L11" s="41" t="n">
         <f>'Input Tab'!M12+'Input Tab'!M13+'Input Tab'!M14+'Input Tab'!M15+'Input Tab'!M16</f>
-        <v>3</v>
-      </c>
-      <c r="M11" s="42">
+        <v>3.0</v>
+      </c>
+      <c r="M11" s="42" t="n">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="N11" s="23">
+        <v>12.0</v>
+      </c>
+      <c r="N11" s="23" t="n">
         <f>'Input Tab'!O12+'Input Tab'!O13+'Input Tab'!O14+'Input Tab'!O15+'Input Tab'!O16</f>
-        <v>7</v>
-      </c>
-      <c r="O11" s="30">
+        <v>12.0</v>
+      </c>
+      <c r="O11" s="30" t="n">
         <f>'Input Tab'!P12+'Input Tab'!P13+'Input Tab'!P14+'Input Tab'!P15+'Input Tab'!P16</f>
-        <v>3</v>
-      </c>
-      <c r="P11" s="38">
+        <v>4.0</v>
+      </c>
+      <c r="P11" s="38" t="n">
         <f>'Input Tab'!Q12+'Input Tab'!Q13+'Input Tab'!Q14+'Input Tab'!Q15+'Input Tab'!Q16</f>
-        <v>5</v>
-      </c>
-      <c r="Q11" s="34">
+        <v>5.0</v>
+      </c>
+      <c r="Q11" s="34" t="n">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -2325,54 +2325,54 @@
       <c r="C12" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="14" t="n">
         <f>'Input Tab'!D17</f>
-        <v>4</v>
-      </c>
-      <c r="E12" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="E12" s="14" t="n">
         <f>+'Input Tab'!E17</f>
-        <v>4</v>
-      </c>
-      <c r="F12" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="F12" s="26" t="n">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G12" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="25" t="n">
         <f>'Input Tab'!H17</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="25" t="n">
         <f>'Input Tab'!I17</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I12" s="25"/>
-      <c r="J12" s="25">
+      <c r="J12" s="25" t="n">
         <f>'Input Tab'!K17</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="25" t="n">
         <f>'Input Tab'!L17</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="32" t="n">
         <f>+'Input Tab'!M17</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="M12" s="28" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="N12" s="14" t="n">
         <f>'Input Tab'!O17</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="O12" s="14" t="n">
         <f>'Input Tab'!P17</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="P12" s="14" t="n">
         <f>'Input Tab'!Q17</f>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q12" s="44" t="e">
         <f t="shared" si="2"/>
@@ -2408,58 +2408,58 @@
       <c r="C13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="15" t="n">
         <f>'Input Tab'!D18</f>
-        <v>136</v>
-      </c>
-      <c r="E13" s="30">
+        <v>136.0</v>
+      </c>
+      <c r="E13" s="30" t="n">
         <f>+'Input Tab'!E18</f>
-        <v>111</v>
-      </c>
-      <c r="F13" s="31">
+        <v>114.0</v>
+      </c>
+      <c r="F13" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="G13" s="30">
+        <v>0.8382352941176471</v>
+      </c>
+      <c r="G13" s="30" t="n">
         <f>'Input Tab'!H18</f>
-        <v>7</v>
-      </c>
-      <c r="H13" s="30">
+        <v>9.0</v>
+      </c>
+      <c r="H13" s="30" t="n">
         <f>'Input Tab'!I18</f>
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="I13" s="30"/>
-      <c r="J13" s="30">
+      <c r="J13" s="30" t="n">
         <f>'Input Tab'!K18</f>
-        <v>3</v>
-      </c>
-      <c r="K13" s="30">
+        <v>4.0</v>
+      </c>
+      <c r="K13" s="30" t="n">
         <f>'Input Tab'!L18</f>
-        <v>1</v>
-      </c>
-      <c r="L13" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="L13" s="32" t="n">
         <f>+'Input Tab'!M18</f>
-        <v>1</v>
-      </c>
-      <c r="M13" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="M13" s="33" t="n">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="N13" s="23">
+        <v>17.0</v>
+      </c>
+      <c r="N13" s="23" t="n">
         <f>'Input Tab'!O18</f>
-        <v>12</v>
-      </c>
-      <c r="O13" s="30">
+        <v>12.0</v>
+      </c>
+      <c r="O13" s="30" t="n">
         <f>'Input Tab'!P18</f>
-        <v>5</v>
-      </c>
-      <c r="P13" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="P13" s="23" t="n">
         <f>'Input Tab'!Q18</f>
-        <v>5</v>
-      </c>
-      <c r="Q13" s="34">
+        <v>5.0</v>
+      </c>
+      <c r="Q13" s="34" t="n">
         <f t="shared" si="2"/>
-        <v>0.8571428571428571</v>
+        <v>0.7058823529411765</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.2">
@@ -2472,54 +2472,54 @@
       <c r="C14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="15" t="n">
         <f>'Input Tab'!D19</f>
-        <v>2</v>
-      </c>
-      <c r="E14" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="E14" s="30" t="n">
         <f>'Input Tab'!E19</f>
-        <v>2</v>
-      </c>
-      <c r="F14" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="F14" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G14" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="G14" s="30" t="n">
         <f>'Input Tab'!H19</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H14" s="30" t="n">
         <f>'Input Tab'!I19</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I14" s="30"/>
-      <c r="J14" s="30">
+      <c r="J14" s="30" t="n">
         <f>'Input Tab'!K19</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="30" t="n">
         <f>'Input Tab'!L19</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="32" t="n">
         <f>+'Input Tab'!M19</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="33" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="N14" s="23" t="n">
         <f>'Input Tab'!O19</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="O14" s="30" t="n">
         <f>'Input Tab'!P19</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="P14" s="23" t="n">
         <f>'Input Tab'!Q19</f>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q14" s="34" t="e">
         <f t="shared" si="2"/>
@@ -2534,54 +2534,54 @@
       <c r="C15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="15" t="n">
         <f>'Input Tab'!D20</f>
-        <v>4</v>
-      </c>
-      <c r="E15" s="30">
+        <v>4.0</v>
+      </c>
+      <c r="E15" s="30" t="n">
         <f>'Input Tab'!E20</f>
-        <v>3</v>
-      </c>
-      <c r="F15" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="F15" s="31" t="n">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="30" t="n">
         <f>'Input Tab'!H20</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H15" s="30" t="n">
         <f>'Input Tab'!I20</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I15" s="30"/>
-      <c r="J15" s="30">
+      <c r="J15" s="30" t="n">
         <f>'Input Tab'!K20</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="K15" s="30" t="n">
         <f>'Input Tab'!L20</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="32" t="n">
         <f>+'Input Tab'!M20</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="M15" s="33" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="N15" s="23" t="n">
         <f>'Input Tab'!O20</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="O15" s="30" t="n">
         <f>'Input Tab'!P20</f>
-        <v>1</v>
-      </c>
-      <c r="P15" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="P15" s="23" t="n">
         <f>'Input Tab'!Q20</f>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q15" s="34" t="e">
         <f t="shared" si="2"/>
@@ -2598,54 +2598,54 @@
       <c r="C16" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="36" t="n">
         <f>'Input Tab'!D21</f>
-        <v>10</v>
-      </c>
-      <c r="E16" s="39">
+        <v>10.0</v>
+      </c>
+      <c r="E16" s="39" t="n">
         <f>'Input Tab'!E21</f>
-        <v>5</v>
-      </c>
-      <c r="F16" s="40">
+        <v>5.0</v>
+      </c>
+      <c r="F16" s="40" t="n">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="30" t="n">
         <f>'Input Tab'!H21</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="30" t="n">
         <f>'Input Tab'!I21</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I16" s="30"/>
-      <c r="J16" s="30">
+      <c r="J16" s="30" t="n">
         <f>'Input Tab'!K21</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="30" t="n">
         <f>'Input Tab'!L21</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="41" t="n">
         <f>+'Input Tab'!M21</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="42" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="N16" s="38" t="n">
         <f>'Input Tab'!O21</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="O16" s="39" t="n">
         <f>'Input Tab'!P21</f>
-        <v>1</v>
-      </c>
-      <c r="P16" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="P16" s="23" t="n">
         <f>'Input Tab'!Q21</f>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q16" s="34" t="e">
         <f t="shared" si="2"/>
@@ -2681,58 +2681,58 @@
       <c r="C17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="15" t="n">
         <f>+'Input Tab'!D22</f>
-        <v>24</v>
-      </c>
-      <c r="E17" s="15">
+        <v>24.0</v>
+      </c>
+      <c r="E17" s="15" t="n">
         <f>+'Input Tab'!E22</f>
-        <v>22</v>
-      </c>
-      <c r="F17" s="31">
+        <v>22.0</v>
+      </c>
+      <c r="F17" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="G17" s="25">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="G17" s="25" t="n">
         <f>'Input Tab'!H22</f>
-        <v>1</v>
-      </c>
-      <c r="H17" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="H17" s="25" t="n">
         <f>'Input Tab'!I22</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I17" s="25"/>
-      <c r="J17" s="25">
+      <c r="J17" s="25" t="n">
         <f>'Input Tab'!K22</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="K17" s="25" t="n">
         <f>'Input Tab'!L22</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="32" t="n">
         <f>+'Input Tab'!M22</f>
-        <v>1</v>
-      </c>
-      <c r="M17" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="M17" s="28" t="n">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N17" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="N17" s="15" t="n">
         <f>'Input Tab'!O22</f>
-        <v>2</v>
-      </c>
-      <c r="O17" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="O17" s="15" t="n">
         <f>'Input Tab'!P22</f>
-        <v>2</v>
-      </c>
-      <c r="P17" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="P17" s="22" t="n">
         <f>'Input Tab'!Q22</f>
-        <v>1</v>
-      </c>
-      <c r="Q17" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="Q17" s="44" t="n">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -2764,58 +2764,58 @@
       <c r="C18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="15" t="n">
         <f>'Input Tab'!D23</f>
-        <v>28</v>
-      </c>
-      <c r="E18" s="30">
+        <v>28.0</v>
+      </c>
+      <c r="E18" s="30" t="n">
         <f>'Input Tab'!E23</f>
-        <v>18</v>
-      </c>
-      <c r="F18" s="31">
+        <v>18.0</v>
+      </c>
+      <c r="F18" s="31" t="n">
         <f t="shared" si="0"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="30" t="n">
         <f>'Input Tab'!H23</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H18" s="30" t="n">
         <f>'Input Tab'!I23</f>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I18" s="30"/>
-      <c r="J18" s="30">
+      <c r="J18" s="30" t="n">
         <f>'Input Tab'!K23</f>
-        <v>1</v>
-      </c>
-      <c r="K18" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="K18" s="30" t="n">
         <f>'Input Tab'!L23</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="32" t="n">
         <f>+'Input Tab'!M23</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="M18" s="33" t="n">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N18" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="N18" s="23" t="n">
         <f>'Input Tab'!O23</f>
-        <v>2</v>
-      </c>
-      <c r="O18" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="O18" s="30" t="n">
         <f>'Input Tab'!P23</f>
-        <v>5</v>
-      </c>
-      <c r="P18" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="P18" s="23" t="n">
         <f>'Input Tab'!Q23</f>
-        <v>3</v>
-      </c>
-      <c r="Q18" s="34">
+        <v>3.0</v>
+      </c>
+      <c r="Q18" s="34" t="n">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -2847,58 +2847,58 @@
       <c r="C19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="23" t="n">
         <f>+'Input Tab'!D24</f>
-        <v>10</v>
-      </c>
-      <c r="E19" s="23">
+        <v>10.0</v>
+      </c>
+      <c r="E19" s="23" t="n">
         <f>+'Input Tab'!E24</f>
-        <v>9</v>
-      </c>
-      <c r="F19" s="31">
+        <v>9.0</v>
+      </c>
+      <c r="F19" s="31" t="n">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="30" t="n">
         <f>'Input Tab'!H24</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H19" s="30" t="n">
         <f>'Input Tab'!I24</f>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I19" s="30"/>
-      <c r="J19" s="30">
+      <c r="J19" s="30" t="n">
         <f>'Input Tab'!K24</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="30" t="n">
         <f>'Input Tab'!L24</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="L19" s="32" t="n">
         <f>+'Input Tab'!M24</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="M19" s="33" t="n">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N19" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="N19" s="23" t="n">
         <f>'Input Tab'!O24</f>
-        <v>1</v>
-      </c>
-      <c r="O19" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="O19" s="23" t="n">
         <f>'Input Tab'!P24</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="P19" s="23" t="n">
         <f>'Input Tab'!Q24</f>
-        <v>1</v>
-      </c>
-      <c r="Q19" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="Q19" s="34" t="n">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -2928,54 +2928,54 @@
       <c r="C20" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="23" t="n">
         <f>+'Input Tab'!D25</f>
-        <v>10</v>
-      </c>
-      <c r="E20" s="23">
+        <v>10.0</v>
+      </c>
+      <c r="E20" s="23" t="n">
         <f>+'Input Tab'!E25</f>
-        <v>5</v>
-      </c>
-      <c r="F20" s="31">
+        <v>5.0</v>
+      </c>
+      <c r="F20" s="31" t="n">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="30" t="n">
         <f>'Input Tab'!H25</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H20" s="30" t="n">
         <f>'Input Tab'!I25</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I20" s="30"/>
-      <c r="J20" s="30">
+      <c r="J20" s="30" t="n">
         <f>'Input Tab'!K25</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="K20" s="30" t="n">
         <f>'Input Tab'!L25</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="L20" s="32" t="n">
         <f>+'Input Tab'!M25</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="M20" s="33" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="N20" s="23" t="n">
         <f>'Input Tab'!O25</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="O20" s="23" t="n">
         <f>'Input Tab'!P25</f>
-        <v>1</v>
-      </c>
-      <c r="P20" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="P20" s="23" t="n">
         <f>'Input Tab'!Q25</f>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q20" s="34" t="e">
         <f t="shared" si="2"/>
@@ -3008,58 +3008,58 @@
       <c r="C21" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="23" t="n">
         <f>+'Input Tab'!D26</f>
-        <v>1</v>
-      </c>
-      <c r="E21" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="E21" s="23" t="n">
         <f>+'Input Tab'!E26</f>
-        <v>1</v>
-      </c>
-      <c r="F21" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="F21" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G21" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="G21" s="30" t="n">
         <f>'Input Tab'!H26</f>
-        <v>1</v>
-      </c>
-      <c r="H21" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H21" s="30" t="n">
         <f>'Input Tab'!I26</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I21" s="30"/>
-      <c r="J21" s="30">
+      <c r="J21" s="30" t="n">
         <f>'Input Tab'!K26</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="K21" s="30" t="n">
         <f>'Input Tab'!L26</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="L21" s="32" t="n">
         <f>+'Input Tab'!M26</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="M21" s="33" t="n">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N21" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="N21" s="23" t="n">
         <f>'Input Tab'!O26</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="O21" s="23" t="n">
         <f>'Input Tab'!P26</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="P21" s="23" t="n">
         <f>'Input Tab'!Q26</f>
-        <v>1</v>
-      </c>
-      <c r="Q21" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="Q21" s="34" t="n">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -3088,58 +3088,58 @@
       <c r="C22" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="15" t="n">
         <f>'Input Tab'!D27</f>
-        <v>20</v>
-      </c>
-      <c r="E22" s="23">
+        <v>20.0</v>
+      </c>
+      <c r="E22" s="23" t="n">
         <f>+'Input Tab'!E27</f>
-        <v>16</v>
-      </c>
-      <c r="F22" s="31">
+        <v>16.0</v>
+      </c>
+      <c r="F22" s="31" t="n">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="30" t="n">
         <f>'Input Tab'!H27</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H22" s="30" t="n">
         <f>'Input Tab'!I27</f>
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="I22" s="30"/>
-      <c r="J22" s="30">
+      <c r="J22" s="30" t="n">
         <f>'Input Tab'!K27</f>
-        <v>1</v>
-      </c>
-      <c r="K22" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="K22" s="30" t="n">
         <f>'Input Tab'!L27</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="32" t="n">
         <f>+'Input Tab'!M27</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="M22" s="33" t="n">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="N22" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="N22" s="23" t="n">
         <f>'Input Tab'!O27</f>
-        <v>2</v>
-      </c>
-      <c r="O22" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="O22" s="30" t="n">
         <f>'Input Tab'!P27</f>
-        <v>2</v>
-      </c>
-      <c r="P22" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="P22" s="23" t="n">
         <f>'Input Tab'!Q27</f>
-        <v>3</v>
-      </c>
-      <c r="Q22" s="34">
+        <v>3.0</v>
+      </c>
+      <c r="Q22" s="34" t="n">
         <f t="shared" si="2"/>
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -3168,58 +3168,58 @@
       <c r="C23" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="36" t="n">
         <f>'Input Tab'!D28</f>
-        <v>74</v>
-      </c>
-      <c r="E23" s="39">
+        <v>74.0</v>
+      </c>
+      <c r="E23" s="39" t="n">
         <f>'Input Tab'!E28</f>
-        <v>56</v>
-      </c>
-      <c r="F23" s="40">
+        <v>56.0</v>
+      </c>
+      <c r="F23" s="40" t="n">
         <f t="shared" si="0"/>
         <v>0.7567567567567568</v>
       </c>
-      <c r="G23" s="39">
+      <c r="G23" s="39" t="n">
         <f>'Input Tab'!H28</f>
-        <v>2</v>
-      </c>
-      <c r="H23" s="39">
+        <v>2.0</v>
+      </c>
+      <c r="H23" s="39" t="n">
         <f>'Input Tab'!I28</f>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I23" s="39"/>
-      <c r="J23" s="39">
+      <c r="J23" s="39" t="n">
         <f>'Input Tab'!K28</f>
-        <v>1</v>
-      </c>
-      <c r="K23" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="K23" s="39" t="n">
         <f>'Input Tab'!L28</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="L23" s="41" t="n">
         <f>+'Input Tab'!M28</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="M23" s="42" t="n">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="N23" s="38">
+        <v>4.0</v>
+      </c>
+      <c r="N23" s="38" t="n">
         <f>'Input Tab'!O28</f>
-        <v>4</v>
-      </c>
-      <c r="O23" s="39">
+        <v>4.0</v>
+      </c>
+      <c r="O23" s="39" t="n">
         <f>'Input Tab'!P28</f>
-        <v>3</v>
-      </c>
-      <c r="P23" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="P23" s="23" t="n">
         <f>'Input Tab'!Q28</f>
-        <v>3</v>
-      </c>
-      <c r="Q23" s="51">
+        <v>3.0</v>
+      </c>
+      <c r="Q23" s="51" t="n">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -3250,58 +3250,58 @@
       <c r="C24" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="15" t="n">
         <f>'Input Tab'!D29</f>
-        <v>17</v>
-      </c>
-      <c r="E24" s="30">
+        <v>17.0</v>
+      </c>
+      <c r="E24" s="30" t="n">
         <f>'Input Tab'!E29</f>
-        <v>15</v>
-      </c>
-      <c r="F24" s="31">
+        <v>15.0</v>
+      </c>
+      <c r="F24" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="G24" s="30">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="G24" s="30" t="n">
         <f>'Input Tab'!H29</f>
-        <v>1</v>
-      </c>
-      <c r="H24" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H24" s="30" t="n">
         <f>'Input Tab'!I29</f>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I24" s="30"/>
-      <c r="J24" s="30">
+      <c r="J24" s="30" t="n">
         <f>'Input Tab'!K29</f>
-        <v>1</v>
-      </c>
-      <c r="K24" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="K24" s="30" t="n">
         <f>'Input Tab'!L29</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="32" t="n">
         <f>+'Input Tab'!M29</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="33" t="n">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="N24" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="N24" s="23" t="n">
         <f>'Input Tab'!O29</f>
-        <v>3</v>
-      </c>
-      <c r="O24" s="30">
+        <v>3.0</v>
+      </c>
+      <c r="O24" s="30" t="n">
         <f>'Input Tab'!P29</f>
-        <v>2</v>
-      </c>
-      <c r="P24" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="P24" s="22" t="n">
         <f>'Input Tab'!Q29</f>
-        <v>2</v>
-      </c>
-      <c r="Q24" s="34">
+        <v>2.0</v>
+      </c>
+      <c r="Q24" s="34" t="n">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -3330,56 +3330,56 @@
       <c r="C25" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="15" t="n">
         <f>'Input Tab'!D30</f>
-        <v>15</v>
-      </c>
-      <c r="E25" s="30">
+        <v>15.0</v>
+      </c>
+      <c r="E25" s="30" t="n">
         <f>'Input Tab'!E30</f>
-        <v>15</v>
-      </c>
-      <c r="F25" s="31">
+        <v>15.0</v>
+      </c>
+      <c r="F25" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G25" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="G25" s="30" t="n">
         <f>'Input Tab'!H30</f>
-        <v>1</v>
-      </c>
-      <c r="H25" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H25" s="30" t="n">
         <f>'Input Tab'!I30</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I25" s="30"/>
-      <c r="J25" s="30">
+      <c r="J25" s="30" t="n">
         <f>'Input Tab'!K30</f>
-        <v>1</v>
-      </c>
-      <c r="K25" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="K25" s="30" t="n">
         <f>'Input Tab'!L30</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="L25" s="32" t="n">
         <f>+'Input Tab'!M30</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="M25" s="33" t="n">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N25" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="N25" s="23" t="n">
         <f>'Input Tab'!O30</f>
-        <v>1</v>
-      </c>
-      <c r="O25" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="O25" s="30" t="n">
         <f>'Input Tab'!P30</f>
-        <v>1</v>
-      </c>
-      <c r="P25" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="P25" s="23" t="n">
         <f>'Input Tab'!Q30</f>
-        <v>1</v>
-      </c>
-      <c r="Q25" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="Q25" s="34" t="n">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
@@ -3412,54 +3412,54 @@
       <c r="C26" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="15" t="n">
         <f>'Input Tab'!D31</f>
-        <v>2</v>
-      </c>
-      <c r="E26" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="E26" s="15" t="n">
         <f>'Input Tab'!E31</f>
-        <v>2</v>
-      </c>
-      <c r="F26" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="F26" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G26" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G26" s="7" t="n">
         <f>+'Input Tab'!H31</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H26" s="7" t="n">
         <f>+'Input Tab'!I31</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I26" s="7"/>
-      <c r="J26" s="7">
+      <c r="J26" s="7" t="n">
         <f>'Input Tab'!K31</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="K26" s="7" t="n">
         <f>+'Input Tab'!L31</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="L26" s="32" t="n">
         <f>+'Input Tab'!M31</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="M26" s="33" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="N26" s="15" t="n">
         <f>+'Input Tab'!O31</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="O26" s="15" t="n">
         <f>'Input Tab'!P31</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="P26" s="23" t="n">
         <f>'Input Tab'!Q31</f>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q26" s="34" t="e">
         <f t="shared" si="2"/>
@@ -3492,58 +3492,58 @@
       <c r="C27" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="15" t="n">
         <f>'Input Tab'!D32</f>
-        <v>17</v>
-      </c>
-      <c r="E27" s="15">
+        <v>17.0</v>
+      </c>
+      <c r="E27" s="15" t="n">
         <f>'Input Tab'!E32</f>
-        <v>17</v>
-      </c>
-      <c r="F27" s="31">
+        <v>17.0</v>
+      </c>
+      <c r="F27" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G27" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="G27" s="30" t="n">
         <f>'Input Tab'!H32</f>
-        <v>4</v>
-      </c>
-      <c r="H27" s="30">
+        <v>4.0</v>
+      </c>
+      <c r="H27" s="30" t="n">
         <f>'Input Tab'!I32</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I27" s="30"/>
-      <c r="J27" s="30">
+      <c r="J27" s="30" t="n">
         <f>'Input Tab'!K32</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="K27" s="30" t="n">
         <f>'Input Tab'!L32</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="L27" s="32" t="n">
         <f>+'Input Tab'!M32</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="M27" s="33" t="n">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="N27" s="23">
+        <v>4.0</v>
+      </c>
+      <c r="N27" s="23" t="n">
         <f>'Input Tab'!O32</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="O27" s="30" t="n">
         <f>'Input Tab'!P32</f>
-        <v>0</v>
-      </c>
-      <c r="P27" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="P27" s="23" t="n">
         <f>'Input Tab'!Q32</f>
-        <v>1</v>
-      </c>
-      <c r="Q27" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="Q27" s="34" t="n">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -3573,54 +3573,54 @@
       <c r="C28" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="15" t="n">
         <f>'Input Tab'!D33</f>
-        <v>8</v>
-      </c>
-      <c r="E28" s="39">
+        <v>8.0</v>
+      </c>
+      <c r="E28" s="39" t="n">
         <f>'Input Tab'!E33</f>
-        <v>8</v>
-      </c>
-      <c r="F28" s="40">
+        <v>8.0</v>
+      </c>
+      <c r="F28" s="40" t="n">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G28" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="G28" s="39" t="n">
         <f>'Input Tab'!H33</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="H28" s="39" t="n">
         <f>'Input Tab'!I33</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="39">
+      <c r="J28" s="39" t="n">
         <f>'Input Tab'!K33</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="K28" s="39" t="n">
         <f>'Input Tab'!L33</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="L28" s="41" t="n">
         <f>+'Input Tab'!M33</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="M28" s="42" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="N28" s="38" t="n">
         <f>'Input Tab'!O33</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="O28" s="39" t="n">
         <f>'Input Tab'!P33</f>
-        <v>0</v>
-      </c>
-      <c r="P28" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="P28" s="23" t="n">
         <f>'Input Tab'!Q33</f>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q28" s="51" t="e">
         <f t="shared" si="2"/>
@@ -3635,58 +3635,58 @@
         <v>28</v>
       </c>
       <c r="C29" s="53"/>
-      <c r="D29" s="47">
+      <c r="D29" s="47" t="n">
         <f>SUM(D6:D28)</f>
-        <v>542</v>
-      </c>
-      <c r="E29" s="50">
+        <v>542.0</v>
+      </c>
+      <c r="E29" s="50" t="n">
         <f>SUM(E6:E28)</f>
-        <v>441</v>
-      </c>
-      <c r="F29" s="54">
+        <v>448.0</v>
+      </c>
+      <c r="F29" s="54" t="n">
         <f t="shared" si="0"/>
-        <v>0.81365313653136528</v>
-      </c>
-      <c r="G29" s="42">
+        <v>0.8265682656826568</v>
+      </c>
+      <c r="G29" s="42" t="n">
         <f>SUM(G6:G28)</f>
-        <v>18</v>
-      </c>
-      <c r="H29" s="42">
+        <v>20.0</v>
+      </c>
+      <c r="H29" s="42" t="n">
         <f>SUM(H6:H28)</f>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="I29" s="42"/>
-      <c r="J29" s="42">
+      <c r="J29" s="42" t="n">
         <f>SUM(J6:J28)</f>
-        <v>10</v>
-      </c>
-      <c r="K29" s="50">
+        <v>17.0</v>
+      </c>
+      <c r="K29" s="50" t="n">
         <f>SUM(K6:K28)</f>
-        <v>2</v>
-      </c>
-      <c r="L29" s="42">
+        <v>2.0</v>
+      </c>
+      <c r="L29" s="42" t="n">
         <f>SUM(L6:L28)</f>
-        <v>9</v>
-      </c>
-      <c r="M29" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="M29" s="42" t="n">
         <f>SUM(G29:L29)</f>
-        <v>49</v>
-      </c>
-      <c r="N29" s="42">
+        <v>58.0</v>
+      </c>
+      <c r="N29" s="42" t="n">
         <f>SUM(N6:N28)</f>
-        <v>39</v>
-      </c>
-      <c r="O29" s="50">
+        <v>44.0</v>
+      </c>
+      <c r="O29" s="50" t="n">
         <f>SUM(O6:O28)</f>
-        <v>31</v>
-      </c>
-      <c r="P29" s="191">
+        <v>32.0</v>
+      </c>
+      <c r="P29" s="191" t="n">
         <f>+N29-O3:O29</f>
-        <v>8</v>
-      </c>
-      <c r="Q29" s="55">
+        <v>12.0</v>
+      </c>
+      <c r="Q29" s="55" t="n">
         <f t="shared" si="2"/>
-        <v>0.79591836734693877</v>
+        <v>0.7586206896551724</v>
       </c>
     </row>
     <row r="30" spans="1:36" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3795,64 +3795,64 @@
         <v>22</v>
       </c>
       <c r="B33" s="210"/>
-      <c r="C33" s="16">
+      <c r="C33" s="16" t="n">
         <f>+D6+D7</f>
-        <v>25</v>
-      </c>
-      <c r="D33" s="16">
+        <v>25.0</v>
+      </c>
+      <c r="D33" s="16" t="n">
         <f>E6+E7</f>
-        <v>22</v>
-      </c>
-      <c r="E33" s="31">
+        <v>22.0</v>
+      </c>
+      <c r="E33" s="31" t="n">
         <f t="shared" ref="E33:E38" si="3">D33/C33</f>
         <v>0.88</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="7" t="n">
         <f>C33-D33</f>
-        <v>3</v>
-      </c>
-      <c r="G33" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="G33" s="16" t="n">
         <f>G6+G7</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="H33" s="16" t="n">
         <f>H6+H7</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="I33" s="16" t="n">
         <f>J6+J7</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="J33" s="16" t="n">
         <f>K6+K7</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="K33" s="16" t="n">
         <f>L6+L7</f>
-        <v>1</v>
-      </c>
-      <c r="L33" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="L33" s="15" t="n">
         <f>SUM(G33:K33)</f>
-        <v>1</v>
-      </c>
-      <c r="M33" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="M33" s="16" t="n">
         <f>N6+N7</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="N33" s="16" t="n">
         <f>O6+O7</f>
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="O33" s="16">
         <v>4</v>
       </c>
-      <c r="P33" s="64">
+      <c r="P33" s="64" t="n">
         <f t="shared" ref="P33:P38" si="4">M33/L33</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="Q33" s="44" t="n">
         <f t="shared" ref="Q33:Q38" si="5">L33/F33</f>
-        <v>0.33333333333333331</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -3860,64 +3860,64 @@
         <v>24</v>
       </c>
       <c r="B34" s="210"/>
-      <c r="C34" s="16">
+      <c r="C34" s="16" t="n">
         <f>D8+D9+D10+D11</f>
-        <v>135</v>
-      </c>
-      <c r="D34" s="16">
+        <v>135.0</v>
+      </c>
+      <c r="D34" s="16" t="n">
         <f>E8+E9+E10+E11</f>
-        <v>110</v>
-      </c>
-      <c r="E34" s="31">
+        <v>114.0</v>
+      </c>
+      <c r="E34" s="31" t="n">
         <f t="shared" si="3"/>
-        <v>0.81481481481481477</v>
-      </c>
-      <c r="F34" s="7">
+        <v>0.8444444444444444</v>
+      </c>
+      <c r="F34" s="7" t="n">
         <f>C34-D34</f>
-        <v>25</v>
-      </c>
-      <c r="G34" s="16">
+        <v>21.0</v>
+      </c>
+      <c r="G34" s="16" t="n">
         <f>G8+G9+G10+G11</f>
-        <v>1</v>
-      </c>
-      <c r="H34" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="H34" s="16" t="n">
         <f>H8+H9+H10+H11</f>
-        <v>2</v>
-      </c>
-      <c r="I34" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="I34" s="16" t="n">
         <f>+J8+J9+J10+J11</f>
-        <v>2</v>
-      </c>
-      <c r="J34" s="16">
+        <v>8.0</v>
+      </c>
+      <c r="J34" s="16" t="n">
         <f>K8+K9+K10+K11</f>
-        <v>1</v>
-      </c>
-      <c r="K34" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="K34" s="16" t="n">
         <f>L8+L9+L10+L11</f>
-        <v>6</v>
-      </c>
-      <c r="L34" s="15">
+        <v>6.0</v>
+      </c>
+      <c r="L34" s="15" t="n">
         <f>SUM(G34:K34)</f>
-        <v>12</v>
-      </c>
-      <c r="M34" s="16">
+        <v>18.0</v>
+      </c>
+      <c r="M34" s="16" t="n">
         <f>N8+N9+N10+N11</f>
-        <v>12</v>
-      </c>
-      <c r="N34" s="16">
+        <v>17.0</v>
+      </c>
+      <c r="N34" s="16" t="n">
         <f>O8+O9+O10+O11</f>
-        <v>6</v>
+        <v>7.0</v>
       </c>
       <c r="O34" s="16">
         <v>13</v>
       </c>
-      <c r="P34" s="64">
+      <c r="P34" s="64" t="n">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Q34" s="34">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="Q34" s="34" t="n">
         <f t="shared" si="5"/>
-        <v>0.48</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -3925,64 +3925,64 @@
         <v>23</v>
       </c>
       <c r="B35" s="210"/>
-      <c r="C35" s="16">
+      <c r="C35" s="16" t="n">
         <f>D12+D13+D14+D15+D16</f>
-        <v>156</v>
-      </c>
-      <c r="D35" s="16">
+        <v>156.0</v>
+      </c>
+      <c r="D35" s="16" t="n">
         <f>E12+E13+E14+E15+E16</f>
-        <v>125</v>
-      </c>
-      <c r="E35" s="31">
+        <v>128.0</v>
+      </c>
+      <c r="E35" s="31" t="n">
         <f t="shared" si="3"/>
-        <v>0.80128205128205132</v>
-      </c>
-      <c r="F35" s="7">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="F35" s="7" t="n">
         <f>C35-D35</f>
-        <v>31</v>
-      </c>
-      <c r="G35" s="16">
+        <v>28.0</v>
+      </c>
+      <c r="G35" s="16" t="n">
         <f>G12+G13+G14+G15+G16</f>
-        <v>7</v>
-      </c>
-      <c r="H35" s="16">
+        <v>9.0</v>
+      </c>
+      <c r="H35" s="16" t="n">
         <f>H12+H13+H14+H15+H16</f>
-        <v>2</v>
-      </c>
-      <c r="I35" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="I35" s="16" t="n">
         <f>+J12+J13+J14+J16+J15</f>
-        <v>3</v>
-      </c>
-      <c r="J35" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="J35" s="16" t="n">
         <f>K12+K13+K14+K15+K16</f>
-        <v>1</v>
-      </c>
-      <c r="K35" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="K35" s="16" t="n">
         <f>L12+L13+L14+L15+L16</f>
-        <v>1</v>
-      </c>
-      <c r="L35" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="L35" s="15" t="n">
         <f>SUM(G35:K35)</f>
-        <v>14</v>
-      </c>
-      <c r="M35" s="16">
+        <v>17.0</v>
+      </c>
+      <c r="M35" s="16" t="n">
         <f>N12+N13+N14+N15+N16</f>
-        <v>12</v>
-      </c>
-      <c r="N35" s="16">
+        <v>12.0</v>
+      </c>
+      <c r="N35" s="16" t="n">
         <f>O12+O13+O14+O15+O16</f>
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="O35" s="16">
         <v>9</v>
       </c>
-      <c r="P35" s="64">
+      <c r="P35" s="64" t="n">
         <f t="shared" si="4"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="Q35" s="34">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="Q35" s="34" t="n">
         <f t="shared" si="5"/>
-        <v>0.45161290322580644</v>
+        <v>0.6071428571428571</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
@@ -3990,64 +3990,64 @@
         <v>26</v>
       </c>
       <c r="B36" s="210"/>
-      <c r="C36" s="16">
+      <c r="C36" s="16" t="n">
         <f>D17+D18+D19+D20+D21+D22+D23</f>
-        <v>167</v>
-      </c>
-      <c r="D36" s="16">
+        <v>167.0</v>
+      </c>
+      <c r="D36" s="16" t="n">
         <f>E17+E18+E19+E20+E21+E22+E23</f>
-        <v>127</v>
-      </c>
-      <c r="E36" s="31">
+        <v>127.0</v>
+      </c>
+      <c r="E36" s="31" t="n">
         <f t="shared" si="3"/>
-        <v>0.76047904191616766</v>
-      </c>
-      <c r="F36" s="7">
+        <v>0.7604790419161677</v>
+      </c>
+      <c r="F36" s="7" t="n">
         <f>C36-D36</f>
-        <v>40</v>
-      </c>
-      <c r="G36" s="16">
+        <v>40.0</v>
+      </c>
+      <c r="G36" s="16" t="n">
         <f>+G17+G18+G19+G20+G21+G22+G23</f>
-        <v>4</v>
-      </c>
-      <c r="H36" s="116">
+        <v>4.0</v>
+      </c>
+      <c r="H36" s="116" t="n">
         <f>+H17+H18+H19+H20+H21+H22+H23</f>
-        <v>5</v>
-      </c>
-      <c r="I36" s="116">
+        <v>5.0</v>
+      </c>
+      <c r="I36" s="116" t="n">
         <f>+J17+J18+J19+J20+J21+J22+J23</f>
-        <v>3</v>
-      </c>
-      <c r="J36" s="116">
+        <v>3.0</v>
+      </c>
+      <c r="J36" s="116" t="n">
         <f>+K17+K18+K19+K20+K21+K22+K23</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="116">
+        <v>0.0</v>
+      </c>
+      <c r="K36" s="116" t="n">
         <f>+L17+L18+L19+L20+L21+L22+L23</f>
-        <v>1</v>
-      </c>
-      <c r="L36" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="L36" s="15" t="n">
         <f>SUM(G36:K36)</f>
-        <v>13</v>
-      </c>
-      <c r="M36" s="16">
+        <v>13.0</v>
+      </c>
+      <c r="M36" s="16" t="n">
         <f>N17+N18+N19+N20+N21+N22+N23</f>
-        <v>11</v>
-      </c>
-      <c r="N36" s="16">
+        <v>11.0</v>
+      </c>
+      <c r="N36" s="16" t="n">
         <f>O17+O18+O19+O20+O21+O22+O23</f>
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="O36" s="16">
         <v>13</v>
       </c>
-      <c r="P36" s="64">
+      <c r="P36" s="64" t="n">
         <f t="shared" si="4"/>
-        <v>0.84615384615384615</v>
-      </c>
-      <c r="Q36" s="34">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="Q36" s="34" t="n">
         <f t="shared" si="5"/>
-        <v>0.32500000000000001</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
@@ -4055,62 +4055,62 @@
         <v>27</v>
       </c>
       <c r="B37" s="210"/>
-      <c r="C37" s="43">
+      <c r="C37" s="43" t="n">
         <f>D24+D25+D26+D27+D28</f>
-        <v>59</v>
-      </c>
-      <c r="D37" s="43">
+        <v>59.0</v>
+      </c>
+      <c r="D37" s="43" t="n">
         <f>E24+E25+E26+E27+E28</f>
-        <v>57</v>
-      </c>
-      <c r="E37" s="31">
+        <v>57.0</v>
+      </c>
+      <c r="E37" s="31" t="n">
         <f t="shared" si="3"/>
-        <v>0.96610169491525422</v>
-      </c>
-      <c r="F37" s="7">
+        <v>0.9661016949152542</v>
+      </c>
+      <c r="F37" s="7" t="n">
         <f>C37-D37</f>
-        <v>2</v>
-      </c>
-      <c r="G37" s="43">
+        <v>2.0</v>
+      </c>
+      <c r="G37" s="43" t="n">
         <f>G24+G25+G26+G27+G28</f>
-        <v>6</v>
-      </c>
-      <c r="H37" s="117">
+        <v>6.0</v>
+      </c>
+      <c r="H37" s="117" t="n">
         <f>H24+H25+H26+H27+H28</f>
-        <v>1</v>
-      </c>
-      <c r="I37" s="117">
+        <v>1.0</v>
+      </c>
+      <c r="I37" s="117" t="n">
         <f>J24+J25+J26+J27+J28</f>
-        <v>2</v>
-      </c>
-      <c r="J37" s="117">
+        <v>2.0</v>
+      </c>
+      <c r="J37" s="117" t="n">
         <f>K24+K25+K26+K27+K28</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="117">
+        <v>0.0</v>
+      </c>
+      <c r="K37" s="117" t="n">
         <f>L24+L25+L26+L27+L28</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="L37" s="36" t="n">
         <f>SUM(G37:K37)</f>
-        <v>9</v>
-      </c>
-      <c r="M37" s="43">
+        <v>9.0</v>
+      </c>
+      <c r="M37" s="43" t="n">
         <f>N24+N25+N26+N27+N28</f>
-        <v>4</v>
-      </c>
-      <c r="N37" s="43">
+        <v>4.0</v>
+      </c>
+      <c r="N37" s="43" t="n">
         <f>O24+O25+O26+O27+O28</f>
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="O37" s="43">
         <v>6</v>
       </c>
-      <c r="P37" s="64">
+      <c r="P37" s="64" t="n">
         <f t="shared" si="4"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="Q37" s="51">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="Q37" s="51" t="n">
         <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
@@ -4120,65 +4120,65 @@
         <v>6</v>
       </c>
       <c r="B38" s="216"/>
-      <c r="C38" s="12">
+      <c r="C38" s="12" t="n">
         <f>SUM(C33:C37)</f>
-        <v>542</v>
-      </c>
-      <c r="D38" s="12">
+        <v>542.0</v>
+      </c>
+      <c r="D38" s="12" t="n">
         <f>SUM(D33:D37)</f>
-        <v>441</v>
-      </c>
-      <c r="E38" s="49">
+        <v>448.0</v>
+      </c>
+      <c r="E38" s="49" t="n">
         <f t="shared" si="3"/>
-        <v>0.81365313653136528</v>
-      </c>
-      <c r="F38" s="12">
+        <v>0.8265682656826568</v>
+      </c>
+      <c r="F38" s="12" t="n">
         <f t="shared" ref="F38:O38" si="6">SUM(F33:F37)</f>
-        <v>101</v>
-      </c>
-      <c r="G38" s="65">
+        <v>94.0</v>
+      </c>
+      <c r="G38" s="65" t="n">
         <f t="shared" ref="G38:L38" si="7">SUM(G33:G37)</f>
-        <v>18</v>
-      </c>
-      <c r="H38" s="65">
+        <v>20.0</v>
+      </c>
+      <c r="H38" s="65" t="n">
         <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="I38" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="I38" s="12" t="n">
         <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J38" s="12">
+        <v>17.0</v>
+      </c>
+      <c r="J38" s="12" t="n">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="K38" s="37">
+        <v>2.0</v>
+      </c>
+      <c r="K38" s="37" t="n">
         <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="L38" s="36">
+        <v>9.0</v>
+      </c>
+      <c r="L38" s="36" t="n">
         <f t="shared" si="7"/>
-        <v>49</v>
-      </c>
-      <c r="M38" s="12">
+        <v>58.0</v>
+      </c>
+      <c r="M38" s="12" t="n">
         <f t="shared" si="6"/>
-        <v>39</v>
-      </c>
-      <c r="N38" s="12">
+        <v>44.0</v>
+      </c>
+      <c r="N38" s="12" t="n">
         <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="O38" s="12">
+        <v>32.0</v>
+      </c>
+      <c r="O38" s="12" t="n">
         <f t="shared" si="6"/>
-        <v>45</v>
-      </c>
-      <c r="P38" s="55">
+        <v>45.0</v>
+      </c>
+      <c r="P38" s="55" t="n">
         <f t="shared" si="4"/>
-        <v>0.79591836734693877</v>
-      </c>
-      <c r="Q38" s="55">
+        <v>0.7586206896551724</v>
+      </c>
+      <c r="Q38" s="55" t="n">
         <f t="shared" si="5"/>
-        <v>0.48514851485148514</v>
+        <v>0.6170212765957447</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -4188,29 +4188,29 @@
       <c r="D39" s="7"/>
       <c r="E39" s="66"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="59">
+      <c r="G39" s="59" t="n">
         <f>G38/L38</f>
-        <v>0.36734693877551022</v>
-      </c>
-      <c r="H39" s="59">
+        <v>0.3448275862068966</v>
+      </c>
+      <c r="H39" s="59" t="n">
         <f>H38/L38</f>
-        <v>0.20408163265306123</v>
-      </c>
-      <c r="I39" s="59">
+        <v>0.1724137931034483</v>
+      </c>
+      <c r="I39" s="59" t="n">
         <f>I38/L38</f>
-        <v>0.20408163265306123</v>
-      </c>
-      <c r="J39" s="59">
+        <v>0.29310344827586204</v>
+      </c>
+      <c r="J39" s="59" t="n">
         <f>J38/L38</f>
-        <v>4.0816326530612242E-2</v>
-      </c>
-      <c r="K39" s="59">
+        <v>0.034482758620689655</v>
+      </c>
+      <c r="K39" s="59" t="n">
         <f>K38/L38</f>
-        <v>0.18367346938775511</v>
-      </c>
-      <c r="L39" s="67">
+        <v>0.15517241379310345</v>
+      </c>
+      <c r="L39" s="67" t="n">
         <f>L38/L38</f>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
@@ -4347,56 +4347,56 @@
       <c r="C45" s="132" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="122">
+      <c r="D45" s="122" t="n">
         <f>'Input Tab'!D41</f>
-        <v>16</v>
-      </c>
-      <c r="E45" s="122">
+        <v>16.0</v>
+      </c>
+      <c r="E45" s="122" t="n">
         <f>'Input Tab'!E41</f>
-        <v>16</v>
-      </c>
-      <c r="F45" s="131">
+        <v>16.0</v>
+      </c>
+      <c r="F45" s="131" t="n">
         <f t="shared" ref="F45:F58" si="8">E45/D45</f>
-        <v>1</v>
-      </c>
-      <c r="G45" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="G45" s="21" t="n">
         <f>'Input Tab'!H41</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="H45" s="27" t="n">
         <f>'Input Tab'!I41</f>
-        <v>3</v>
-      </c>
-      <c r="I45" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="I45" s="27" t="n">
         <f>'Input Tab'!J41</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="J45" s="27" t="n">
         <f>'Input Tab'!K41</f>
-        <v>0</v>
-      </c>
-      <c r="K45" s="85">
+        <v>0.0</v>
+      </c>
+      <c r="K45" s="85" t="n">
         <f>'Input Tab'!M41</f>
-        <v>1</v>
-      </c>
-      <c r="L45" s="189">
+        <v>1.0</v>
+      </c>
+      <c r="L45" s="189" t="n">
         <f>G45+H45+J45+K45+I45</f>
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="M45" s="122"/>
-      <c r="N45" s="22">
+      <c r="N45" s="22" t="n">
         <f>'Input Tab'!O41</f>
-        <v>1</v>
-      </c>
-      <c r="O45" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="O45" s="22" t="n">
         <f>'Input Tab'!P41</f>
-        <v>1</v>
-      </c>
-      <c r="P45" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="P45" s="22" t="n">
         <f>'Input Tab'!Q41</f>
-        <v>1</v>
-      </c>
-      <c r="Q45" s="131">
+        <v>1.0</v>
+      </c>
+      <c r="Q45" s="131" t="n">
         <f t="shared" ref="Q45:Q58" si="9">N45/L45</f>
         <v>0.25</v>
       </c>
@@ -4409,54 +4409,54 @@
       <c r="C46" s="180" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="122">
+      <c r="D46" s="122" t="n">
         <f>'Input Tab'!D42</f>
-        <v>2</v>
-      </c>
-      <c r="E46" s="122">
+        <v>2.0</v>
+      </c>
+      <c r="E46" s="122" t="n">
         <f>'Input Tab'!E42</f>
-        <v>2</v>
-      </c>
-      <c r="F46" s="134">
+        <v>2.0</v>
+      </c>
+      <c r="F46" s="134" t="n">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="G46" s="188">
+        <v>1.0</v>
+      </c>
+      <c r="G46" s="188" t="n">
         <f>'Input Tab'!H42</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H46" s="30" t="n">
         <f>'Input Tab'!I42</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="I46" s="30" t="n">
         <f>'Input Tab'!J42</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="J46" s="30" t="n">
         <f>'Input Tab'!K42</f>
-        <v>0</v>
-      </c>
-      <c r="K46" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="K46" s="32" t="n">
         <f>'Input Tab'!M42</f>
-        <v>0</v>
-      </c>
-      <c r="L46" s="190">
+        <v>0.0</v>
+      </c>
+      <c r="L46" s="190" t="n">
         <f>G46+H46+J46+K46+I46</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M46" s="133"/>
-      <c r="N46" s="23">
+      <c r="N46" s="23" t="n">
         <f>'Input Tab'!O42</f>
-        <v>0</v>
-      </c>
-      <c r="O46" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="O46" s="30" t="n">
         <f>'Input Tab'!P42</f>
-        <v>0</v>
-      </c>
-      <c r="P46" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="P46" s="23" t="n">
         <f>'Input Tab'!Q42</f>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q46" s="173" t="e">
         <f t="shared" si="9"/>
@@ -4473,58 +4473,58 @@
       <c r="C47" s="180" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="122">
+      <c r="D47" s="122" t="n">
         <f>'Input Tab'!D43</f>
-        <v>2</v>
-      </c>
-      <c r="E47" s="122">
+        <v>2.0</v>
+      </c>
+      <c r="E47" s="122" t="n">
         <f>'Input Tab'!E43</f>
-        <v>2</v>
-      </c>
-      <c r="F47" s="134">
+        <v>2.0</v>
+      </c>
+      <c r="F47" s="134" t="n">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="G47" s="188">
+        <v>1.0</v>
+      </c>
+      <c r="G47" s="188" t="n">
         <f>'Input Tab'!H43</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H47" s="30" t="n">
         <f>'Input Tab'!I43</f>
-        <v>2</v>
-      </c>
-      <c r="I47" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="I47" s="30" t="n">
         <f>'Input Tab'!J43</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="J47" s="30" t="n">
         <f>'Input Tab'!K43</f>
-        <v>0</v>
-      </c>
-      <c r="K47" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="K47" s="32" t="n">
         <f>'Input Tab'!M43</f>
-        <v>0</v>
-      </c>
-      <c r="L47" s="190">
+        <v>0.0</v>
+      </c>
+      <c r="L47" s="190" t="n">
         <f t="shared" ref="L47:L57" si="10">G47+H47+J47+K47+I47</f>
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="M47" s="133"/>
-      <c r="N47" s="23">
+      <c r="N47" s="23" t="n">
         <f>'Input Tab'!O43</f>
-        <v>0</v>
-      </c>
-      <c r="O47" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="O47" s="30" t="n">
         <f>'Input Tab'!P43</f>
-        <v>0</v>
-      </c>
-      <c r="P47" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="P47" s="23" t="n">
         <f>'Input Tab'!Q43</f>
-        <v>1</v>
-      </c>
-      <c r="Q47" s="173">
+        <v>1.0</v>
+      </c>
+      <c r="Q47" s="173" t="n">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
@@ -4537,54 +4537,54 @@
       <c r="C48" s="180" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="122">
+      <c r="D48" s="122" t="n">
         <f>'Input Tab'!D44</f>
-        <v>1</v>
-      </c>
-      <c r="E48" s="122">
+        <v>1.0</v>
+      </c>
+      <c r="E48" s="122" t="n">
         <f>'Input Tab'!E44</f>
-        <v>1</v>
-      </c>
-      <c r="F48" s="134">
+        <v>1.0</v>
+      </c>
+      <c r="F48" s="134" t="n">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="G48" s="188">
+        <v>1.0</v>
+      </c>
+      <c r="G48" s="188" t="n">
         <f>'Input Tab'!H44</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H48" s="30" t="n">
         <f>'Input Tab'!I44</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="I48" s="30" t="n">
         <f>'Input Tab'!J44</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="J48" s="30" t="n">
         <f>'Input Tab'!K44</f>
-        <v>0</v>
-      </c>
-      <c r="K48" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="K48" s="32" t="n">
         <f>'Input Tab'!M44</f>
-        <v>0</v>
-      </c>
-      <c r="L48" s="190">
+        <v>0.0</v>
+      </c>
+      <c r="L48" s="190" t="n">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M48" s="133"/>
-      <c r="N48" s="23">
+      <c r="N48" s="23" t="n">
         <f>'Input Tab'!O44</f>
-        <v>0</v>
-      </c>
-      <c r="O48" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="O48" s="30" t="n">
         <f>'Input Tab'!P44</f>
-        <v>0</v>
-      </c>
-      <c r="P48" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="P48" s="23" t="n">
         <f>'Input Tab'!Q44</f>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q48" s="173" t="e">
         <f t="shared" si="9"/>
@@ -4601,56 +4601,56 @@
       <c r="C49" s="180" t="s">
         <v>86</v>
       </c>
-      <c r="D49" s="122">
+      <c r="D49" s="122" t="n">
         <f>'Input Tab'!D45</f>
-        <v>49</v>
-      </c>
-      <c r="E49" s="122">
+        <v>49.0</v>
+      </c>
+      <c r="E49" s="122" t="n">
         <f>'Input Tab'!E45</f>
-        <v>49</v>
-      </c>
-      <c r="F49" s="134">
+        <v>49.0</v>
+      </c>
+      <c r="F49" s="134" t="n">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="G49" s="188">
+        <v>1.0</v>
+      </c>
+      <c r="G49" s="188" t="n">
         <f>'Input Tab'!H45</f>
-        <v>1</v>
-      </c>
-      <c r="H49" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="H49" s="30" t="n">
         <f>'Input Tab'!I45</f>
-        <v>4</v>
-      </c>
-      <c r="I49" s="30">
+        <v>4.0</v>
+      </c>
+      <c r="I49" s="30" t="n">
         <f>'Input Tab'!J45</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="J49" s="30" t="n">
         <f>'Input Tab'!K45</f>
-        <v>1</v>
-      </c>
-      <c r="K49" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="K49" s="32" t="n">
         <f>'Input Tab'!M45</f>
-        <v>0</v>
-      </c>
-      <c r="L49" s="190">
+        <v>0.0</v>
+      </c>
+      <c r="L49" s="190" t="n">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="M49" s="133"/>
-      <c r="N49" s="23">
+      <c r="N49" s="23" t="n">
         <f>'Input Tab'!O45</f>
-        <v>1</v>
-      </c>
-      <c r="O49" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="O49" s="30" t="n">
         <f>'Input Tab'!P45</f>
-        <v>0</v>
-      </c>
-      <c r="P49" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="P49" s="23" t="n">
         <f>'Input Tab'!Q45</f>
-        <v>1</v>
-      </c>
-      <c r="Q49" s="173">
+        <v>1.0</v>
+      </c>
+      <c r="Q49" s="173" t="n">
         <f t="shared" si="9"/>
         <v>0.16666666666666666</v>
       </c>
@@ -4665,54 +4665,54 @@
       <c r="C50" s="180" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="122">
+      <c r="D50" s="122" t="n">
         <f>'Input Tab'!D46</f>
-        <v>1</v>
-      </c>
-      <c r="E50" s="122">
+        <v>1.0</v>
+      </c>
+      <c r="E50" s="122" t="n">
         <f>'Input Tab'!E46</f>
-        <v>1</v>
-      </c>
-      <c r="F50" s="134">
+        <v>1.0</v>
+      </c>
+      <c r="F50" s="134" t="n">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="G50" s="188">
+        <v>1.0</v>
+      </c>
+      <c r="G50" s="188" t="n">
         <f>'Input Tab'!H46</f>
-        <v>0</v>
-      </c>
-      <c r="H50" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H50" s="30" t="n">
         <f>'Input Tab'!I46</f>
-        <v>0</v>
-      </c>
-      <c r="I50" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="I50" s="30" t="n">
         <f>'Input Tab'!J46</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="J50" s="30" t="n">
         <f>'Input Tab'!K46</f>
-        <v>0</v>
-      </c>
-      <c r="K50" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="K50" s="32" t="n">
         <f>'Input Tab'!M46</f>
-        <v>0</v>
-      </c>
-      <c r="L50" s="190">
+        <v>0.0</v>
+      </c>
+      <c r="L50" s="190" t="n">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M50" s="133"/>
-      <c r="N50" s="23">
+      <c r="N50" s="23" t="n">
         <f>'Input Tab'!O46</f>
-        <v>0</v>
-      </c>
-      <c r="O50" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="O50" s="30" t="n">
         <f>'Input Tab'!P46</f>
-        <v>0</v>
-      </c>
-      <c r="P50" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="P50" s="23" t="n">
         <f>'Input Tab'!Q46</f>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q50" s="173" t="e">
         <f t="shared" si="9"/>
@@ -4729,54 +4729,54 @@
       <c r="C51" s="180" t="s">
         <v>86</v>
       </c>
-      <c r="D51" s="122">
+      <c r="D51" s="122" t="n">
         <f>'Input Tab'!D47</f>
-        <v>1</v>
-      </c>
-      <c r="E51" s="122">
+        <v>1.0</v>
+      </c>
+      <c r="E51" s="122" t="n">
         <f>'Input Tab'!E47</f>
-        <v>1</v>
-      </c>
-      <c r="F51" s="134">
+        <v>1.0</v>
+      </c>
+      <c r="F51" s="134" t="n">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="G51" s="188">
+        <v>1.0</v>
+      </c>
+      <c r="G51" s="188" t="n">
         <f>'Input Tab'!H47</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H51" s="30" t="n">
         <f>'Input Tab'!I47</f>
-        <v>0</v>
-      </c>
-      <c r="I51" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="I51" s="30" t="n">
         <f>'Input Tab'!J47</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="J51" s="30" t="n">
         <f>'Input Tab'!K47</f>
-        <v>0</v>
-      </c>
-      <c r="K51" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="K51" s="32" t="n">
         <f>'Input Tab'!M47</f>
-        <v>0</v>
-      </c>
-      <c r="L51" s="190">
+        <v>0.0</v>
+      </c>
+      <c r="L51" s="190" t="n">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M51" s="133"/>
-      <c r="N51" s="23">
+      <c r="N51" s="23" t="n">
         <f>'Input Tab'!O47</f>
-        <v>0</v>
-      </c>
-      <c r="O51" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="O51" s="30" t="n">
         <f>'Input Tab'!P47</f>
-        <v>0</v>
-      </c>
-      <c r="P51" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="P51" s="23" t="n">
         <f>'Input Tab'!Q47</f>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q51" s="173" t="e">
         <f t="shared" si="9"/>
@@ -4793,56 +4793,56 @@
       <c r="C52" s="180" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="122">
+      <c r="D52" s="122" t="n">
         <f>'Input Tab'!D48</f>
-        <v>11</v>
-      </c>
-      <c r="E52" s="122">
+        <v>11.0</v>
+      </c>
+      <c r="E52" s="122" t="n">
         <f>'Input Tab'!E48</f>
-        <v>11</v>
-      </c>
-      <c r="F52" s="134">
+        <v>11.0</v>
+      </c>
+      <c r="F52" s="134" t="n">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="G52" s="188">
+        <v>1.0</v>
+      </c>
+      <c r="G52" s="188" t="n">
         <f>'Input Tab'!H48</f>
-        <v>0</v>
-      </c>
-      <c r="H52" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H52" s="30" t="n">
         <f>'Input Tab'!I48</f>
-        <v>0</v>
-      </c>
-      <c r="I52" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="I52" s="30" t="n">
         <f>'Input Tab'!J48</f>
-        <v>0</v>
-      </c>
-      <c r="J52" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="J52" s="30" t="n">
         <f>'Input Tab'!K48</f>
-        <v>2</v>
-      </c>
-      <c r="K52" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="K52" s="32" t="n">
         <f>'Input Tab'!M48</f>
-        <v>0</v>
-      </c>
-      <c r="L52" s="190">
+        <v>0.0</v>
+      </c>
+      <c r="L52" s="190" t="n">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="M52" s="133"/>
-      <c r="N52" s="23">
+      <c r="N52" s="23" t="n">
         <f>'Input Tab'!O48</f>
-        <v>1</v>
-      </c>
-      <c r="O52" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="O52" s="30" t="n">
         <f>'Input Tab'!P48</f>
-        <v>1</v>
-      </c>
-      <c r="P52" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="P52" s="23" t="n">
         <f>'Input Tab'!Q48</f>
-        <v>1</v>
-      </c>
-      <c r="Q52" s="173">
+        <v>1.0</v>
+      </c>
+      <c r="Q52" s="173" t="n">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
@@ -4857,58 +4857,58 @@
       <c r="C53" s="180" t="s">
         <v>86</v>
       </c>
-      <c r="D53" s="122">
+      <c r="D53" s="122" t="n">
         <f>'Input Tab'!D49</f>
-        <v>17</v>
-      </c>
-      <c r="E53" s="122">
+        <v>17.0</v>
+      </c>
+      <c r="E53" s="122" t="n">
         <f>'Input Tab'!E49</f>
-        <v>17</v>
-      </c>
-      <c r="F53" s="134">
+        <v>17.0</v>
+      </c>
+      <c r="F53" s="134" t="n">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="G53" s="188">
+        <v>1.0</v>
+      </c>
+      <c r="G53" s="188" t="n">
         <f>'Input Tab'!H49</f>
-        <v>0</v>
-      </c>
-      <c r="H53" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H53" s="30" t="n">
         <f>'Input Tab'!I49</f>
-        <v>4</v>
-      </c>
-      <c r="I53" s="30">
+        <v>4.0</v>
+      </c>
+      <c r="I53" s="30" t="n">
         <f>'Input Tab'!J49</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="J53" s="30" t="n">
         <f>'Input Tab'!K49</f>
-        <v>0</v>
-      </c>
-      <c r="K53" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="K53" s="32" t="n">
         <f>'Input Tab'!M49</f>
-        <v>0</v>
-      </c>
-      <c r="L53" s="190">
+        <v>0.0</v>
+      </c>
+      <c r="L53" s="190" t="n">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="M53" s="133"/>
-      <c r="N53" s="23">
+      <c r="N53" s="23" t="n">
         <f>'Input Tab'!O49</f>
-        <v>0</v>
-      </c>
-      <c r="O53" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="O53" s="30" t="n">
         <f>'Input Tab'!P49</f>
-        <v>0</v>
-      </c>
-      <c r="P53" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="P53" s="23" t="n">
         <f>'Input Tab'!Q49</f>
-        <v>1</v>
-      </c>
-      <c r="Q53" s="173">
+        <v>1.0</v>
+      </c>
+      <c r="Q53" s="173" t="n">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
@@ -4919,54 +4919,54 @@
       <c r="C54" s="180" t="s">
         <v>86</v>
       </c>
-      <c r="D54" s="122">
+      <c r="D54" s="122" t="n">
         <f>'Input Tab'!D50</f>
-        <v>4</v>
-      </c>
-      <c r="E54" s="122">
+        <v>4.0</v>
+      </c>
+      <c r="E54" s="122" t="n">
         <f>'Input Tab'!E50</f>
-        <v>4</v>
-      </c>
-      <c r="F54" s="134">
+        <v>4.0</v>
+      </c>
+      <c r="F54" s="134" t="n">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="G54" s="188">
+        <v>1.0</v>
+      </c>
+      <c r="G54" s="188" t="n">
         <f>'Input Tab'!H50</f>
-        <v>0</v>
-      </c>
-      <c r="H54" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H54" s="30" t="n">
         <f>'Input Tab'!I50</f>
-        <v>0</v>
-      </c>
-      <c r="I54" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="I54" s="30" t="n">
         <f>'Input Tab'!J50</f>
-        <v>0</v>
-      </c>
-      <c r="J54" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="J54" s="30" t="n">
         <f>'Input Tab'!K50</f>
-        <v>0</v>
-      </c>
-      <c r="K54" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="K54" s="32" t="n">
         <f>'Input Tab'!M50</f>
-        <v>0</v>
-      </c>
-      <c r="L54" s="190">
+        <v>0.0</v>
+      </c>
+      <c r="L54" s="190" t="n">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M54" s="133"/>
-      <c r="N54" s="23">
+      <c r="N54" s="23" t="n">
         <f>'Input Tab'!O50</f>
-        <v>0</v>
-      </c>
-      <c r="O54" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="O54" s="30" t="n">
         <f>'Input Tab'!P50</f>
-        <v>0</v>
-      </c>
-      <c r="P54" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="P54" s="23" t="n">
         <f>'Input Tab'!Q50</f>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q54" s="173" t="e">
         <f t="shared" si="9"/>
@@ -4981,54 +4981,54 @@
       <c r="C55" s="180" t="s">
         <v>86</v>
       </c>
-      <c r="D55" s="122">
+      <c r="D55" s="122" t="n">
         <f>'Input Tab'!D51</f>
-        <v>1</v>
-      </c>
-      <c r="E55" s="122">
+        <v>1.0</v>
+      </c>
+      <c r="E55" s="122" t="n">
         <f>'Input Tab'!E51</f>
-        <v>1</v>
-      </c>
-      <c r="F55" s="134">
+        <v>1.0</v>
+      </c>
+      <c r="F55" s="134" t="n">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="G55" s="188">
+        <v>1.0</v>
+      </c>
+      <c r="G55" s="188" t="n">
         <f>'Input Tab'!H51</f>
-        <v>0</v>
-      </c>
-      <c r="H55" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H55" s="30" t="n">
         <f>'Input Tab'!I51</f>
-        <v>0</v>
-      </c>
-      <c r="I55" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="I55" s="30" t="n">
         <f>'Input Tab'!J51</f>
-        <v>0</v>
-      </c>
-      <c r="J55" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="J55" s="30" t="n">
         <f>'Input Tab'!K51</f>
-        <v>0</v>
-      </c>
-      <c r="K55" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="K55" s="32" t="n">
         <f>'Input Tab'!M51</f>
-        <v>0</v>
-      </c>
-      <c r="L55" s="190">
+        <v>0.0</v>
+      </c>
+      <c r="L55" s="190" t="n">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M55" s="133"/>
-      <c r="N55" s="23">
+      <c r="N55" s="23" t="n">
         <f>'Input Tab'!O51</f>
-        <v>0</v>
-      </c>
-      <c r="O55" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="O55" s="30" t="n">
         <f>'Input Tab'!P51</f>
-        <v>0</v>
-      </c>
-      <c r="P55" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="P55" s="23" t="n">
         <f>'Input Tab'!Q51</f>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q55" s="173" t="e">
         <f t="shared" si="9"/>
@@ -5043,54 +5043,54 @@
       <c r="C56" s="180" t="s">
         <v>86</v>
       </c>
-      <c r="D56" s="122">
+      <c r="D56" s="122" t="n">
         <f>'Input Tab'!D52</f>
-        <v>1</v>
-      </c>
-      <c r="E56" s="122">
+        <v>1.0</v>
+      </c>
+      <c r="E56" s="122" t="n">
         <f>'Input Tab'!E52</f>
-        <v>1</v>
-      </c>
-      <c r="F56" s="134">
+        <v>1.0</v>
+      </c>
+      <c r="F56" s="134" t="n">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="G56" s="188">
+        <v>1.0</v>
+      </c>
+      <c r="G56" s="188" t="n">
         <f>'Input Tab'!H52</f>
-        <v>0</v>
-      </c>
-      <c r="H56" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H56" s="30" t="n">
         <f>'Input Tab'!I52</f>
-        <v>0</v>
-      </c>
-      <c r="I56" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="I56" s="30" t="n">
         <f>'Input Tab'!J52</f>
-        <v>0</v>
-      </c>
-      <c r="J56" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="J56" s="30" t="n">
         <f>'Input Tab'!K52</f>
-        <v>0</v>
-      </c>
-      <c r="K56" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="K56" s="32" t="n">
         <f>'Input Tab'!M52</f>
-        <v>0</v>
-      </c>
-      <c r="L56" s="190">
+        <v>0.0</v>
+      </c>
+      <c r="L56" s="190" t="n">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M56" s="133"/>
-      <c r="N56" s="23">
+      <c r="N56" s="23" t="n">
         <f>'Input Tab'!O52</f>
-        <v>0</v>
-      </c>
-      <c r="O56" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="O56" s="30" t="n">
         <f>'Input Tab'!P52</f>
-        <v>0</v>
-      </c>
-      <c r="P56" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="P56" s="23" t="n">
         <f>'Input Tab'!Q52</f>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q56" s="173" t="e">
         <f t="shared" si="9"/>
@@ -5105,54 +5105,54 @@
       <c r="C57" s="181" t="s">
         <v>86</v>
       </c>
-      <c r="D57" s="122">
+      <c r="D57" s="122" t="n">
         <f>'Input Tab'!D53</f>
-        <v>20</v>
-      </c>
-      <c r="E57" s="122">
+        <v>20.0</v>
+      </c>
+      <c r="E57" s="122" t="n">
         <f>'Input Tab'!E53</f>
-        <v>20</v>
-      </c>
-      <c r="F57" s="143">
+        <v>20.0</v>
+      </c>
+      <c r="F57" s="143" t="n">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="G57" s="188">
+        <v>1.0</v>
+      </c>
+      <c r="G57" s="188" t="n">
         <f>'Input Tab'!H53</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="H57" s="30" t="n">
         <f>'Input Tab'!I53</f>
-        <v>0</v>
-      </c>
-      <c r="I57" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="I57" s="30" t="n">
         <f>'Input Tab'!J53</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="J57" s="30" t="n">
         <f>'Input Tab'!K53</f>
-        <v>0</v>
-      </c>
-      <c r="K57" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="K57" s="41" t="n">
         <f>'Input Tab'!M53</f>
-        <v>0</v>
-      </c>
-      <c r="L57" s="190">
+        <v>0.0</v>
+      </c>
+      <c r="L57" s="190" t="n">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M57" s="126"/>
-      <c r="N57" s="23">
+      <c r="N57" s="23" t="n">
         <f>'Input Tab'!O53</f>
-        <v>0</v>
-      </c>
-      <c r="O57" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="O57" s="30" t="n">
         <f>'Input Tab'!P53</f>
-        <v>0</v>
-      </c>
-      <c r="P57" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="P57" s="23" t="n">
         <f>'Input Tab'!Q53</f>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="Q57" s="173" t="e">
         <f t="shared" si="9"/>
@@ -5167,56 +5167,56 @@
         <v>28</v>
       </c>
       <c r="C58" s="183"/>
-      <c r="D58" s="146">
+      <c r="D58" s="146" t="n">
         <f>SUM(D45:D57)</f>
-        <v>126</v>
-      </c>
-      <c r="E58" s="146">
+        <v>126.0</v>
+      </c>
+      <c r="E58" s="146" t="n">
         <f>SUM(E45:E57)</f>
-        <v>126</v>
-      </c>
-      <c r="F58" s="184">
+        <v>126.0</v>
+      </c>
+      <c r="F58" s="184" t="n">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="G58" s="146">
+        <v>1.0</v>
+      </c>
+      <c r="G58" s="146" t="n">
         <f>SUM(G45:G57)</f>
-        <v>1</v>
-      </c>
-      <c r="H58" s="146">
+        <v>1.0</v>
+      </c>
+      <c r="H58" s="146" t="n">
         <f>SUM(H45:H57)</f>
-        <v>13</v>
-      </c>
-      <c r="I58" s="146">
+        <v>13.0</v>
+      </c>
+      <c r="I58" s="146" t="n">
         <f>SUM(I45:I57)</f>
-        <v>0</v>
-      </c>
-      <c r="J58" s="146">
+        <v>0.0</v>
+      </c>
+      <c r="J58" s="146" t="n">
         <f>SUM(J45:J57)</f>
-        <v>3</v>
-      </c>
-      <c r="K58" s="146">
+        <v>3.0</v>
+      </c>
+      <c r="K58" s="146" t="n">
         <f>SUM(K45:K57)</f>
-        <v>1</v>
-      </c>
-      <c r="L58" s="146">
+        <v>1.0</v>
+      </c>
+      <c r="L58" s="146" t="n">
         <f>SUM(G58:K58)</f>
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="M58" s="144"/>
-      <c r="N58" s="146">
+      <c r="N58" s="146" t="n">
         <f>SUM(N45:N57)</f>
-        <v>3</v>
-      </c>
-      <c r="O58" s="146">
+        <v>3.0</v>
+      </c>
+      <c r="O58" s="146" t="n">
         <f>SUM(O45:O57)</f>
-        <v>2</v>
-      </c>
-      <c r="P58" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="P58" s="148" t="n">
         <f>SUM(P45:P57)</f>
-        <v>13</v>
-      </c>
-      <c r="Q58" s="167">
+        <v>13.0</v>
+      </c>
+      <c r="Q58" s="167" t="n">
         <f t="shared" si="9"/>
         <v>0.16666666666666666</v>
       </c>
@@ -5320,59 +5320,59 @@
       <c r="B62" s="171" t="s">
         <v>99</v>
       </c>
-      <c r="C62" s="116">
+      <c r="C62" s="116" t="n">
         <f>+D45+D46</f>
-        <v>18</v>
-      </c>
-      <c r="D62" s="116">
+        <v>18.0</v>
+      </c>
+      <c r="D62" s="116" t="n">
         <f>+E45+E46</f>
-        <v>18</v>
-      </c>
-      <c r="E62" s="134">
+        <v>18.0</v>
+      </c>
+      <c r="E62" s="134" t="n">
         <f>D62/C62</f>
-        <v>1</v>
-      </c>
-      <c r="F62" s="139">
+        <v>1.0</v>
+      </c>
+      <c r="F62" s="139" t="n">
         <f>C62-D62</f>
-        <v>0</v>
-      </c>
-      <c r="G62" s="116">
+        <v>0.0</v>
+      </c>
+      <c r="G62" s="116" t="n">
         <f>G45+G46</f>
-        <v>0</v>
-      </c>
-      <c r="H62" s="116">
+        <v>0.0</v>
+      </c>
+      <c r="H62" s="116" t="n">
         <f>H45+H46</f>
-        <v>3</v>
-      </c>
-      <c r="I62" s="116">
+        <v>3.0</v>
+      </c>
+      <c r="I62" s="116" t="n">
         <f>I45+I46</f>
-        <v>0</v>
-      </c>
-      <c r="J62" s="116">
+        <v>0.0</v>
+      </c>
+      <c r="J62" s="116" t="n">
         <f>J45+J46</f>
-        <v>0</v>
-      </c>
-      <c r="K62" s="116">
+        <v>0.0</v>
+      </c>
+      <c r="K62" s="116" t="n">
         <f>K45+K46</f>
-        <v>1</v>
-      </c>
-      <c r="L62" s="133">
+        <v>1.0</v>
+      </c>
+      <c r="L62" s="133" t="n">
         <f>SUM(G62:K62)</f>
-        <v>4</v>
-      </c>
-      <c r="M62" s="116">
+        <v>4.0</v>
+      </c>
+      <c r="M62" s="116" t="n">
         <f>N45+N46</f>
-        <v>1</v>
-      </c>
-      <c r="N62" s="116">
+        <v>1.0</v>
+      </c>
+      <c r="N62" s="116" t="n">
         <f>O45+O46</f>
-        <v>1</v>
-      </c>
-      <c r="O62" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="O62" s="14" t="n">
         <f>P45+P46</f>
-        <v>2</v>
-      </c>
-      <c r="P62" s="156">
+        <v>2.0</v>
+      </c>
+      <c r="P62" s="156" t="n">
         <f>M62/L62</f>
         <v>0.25</v>
       </c>
@@ -5386,61 +5386,61 @@
       <c r="B63" s="172" t="s">
         <v>100</v>
       </c>
-      <c r="C63" s="116">
+      <c r="C63" s="116" t="n">
         <f>+D47+D48</f>
-        <v>3</v>
-      </c>
-      <c r="D63" s="116">
+        <v>3.0</v>
+      </c>
+      <c r="D63" s="116" t="n">
         <f>+E47+E48</f>
-        <v>3</v>
-      </c>
-      <c r="E63" s="134">
+        <v>3.0</v>
+      </c>
+      <c r="E63" s="134" t="n">
         <f>D63/C63</f>
-        <v>1</v>
-      </c>
-      <c r="F63" s="139">
+        <v>1.0</v>
+      </c>
+      <c r="F63" s="139" t="n">
         <f>C63-D63</f>
-        <v>0</v>
-      </c>
-      <c r="G63" s="116">
+        <v>0.0</v>
+      </c>
+      <c r="G63" s="116" t="n">
         <f>G47+G48</f>
-        <v>0</v>
-      </c>
-      <c r="H63" s="116">
+        <v>0.0</v>
+      </c>
+      <c r="H63" s="116" t="n">
         <f>H47+H48</f>
-        <v>2</v>
-      </c>
-      <c r="I63" s="116">
+        <v>2.0</v>
+      </c>
+      <c r="I63" s="116" t="n">
         <f>I47+I48</f>
-        <v>0</v>
-      </c>
-      <c r="J63" s="116">
+        <v>0.0</v>
+      </c>
+      <c r="J63" s="116" t="n">
         <f>J47+J48</f>
-        <v>0</v>
-      </c>
-      <c r="K63" s="116">
+        <v>0.0</v>
+      </c>
+      <c r="K63" s="116" t="n">
         <f>K47+K48</f>
-        <v>0</v>
-      </c>
-      <c r="L63" s="133">
+        <v>0.0</v>
+      </c>
+      <c r="L63" s="133" t="n">
         <f>SUM(G63:K63)</f>
-        <v>2</v>
-      </c>
-      <c r="M63" s="116">
+        <v>2.0</v>
+      </c>
+      <c r="M63" s="116" t="n">
         <f>N47+N48</f>
-        <v>0</v>
-      </c>
-      <c r="N63" s="116">
+        <v>0.0</v>
+      </c>
+      <c r="N63" s="116" t="n">
         <f>O47+O48</f>
-        <v>0</v>
-      </c>
-      <c r="O63" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="O63" s="15" t="n">
         <f>P47+P48</f>
-        <v>2</v>
-      </c>
-      <c r="P63" s="156">
+        <v>2.0</v>
+      </c>
+      <c r="P63" s="156" t="n">
         <f>M63/L63</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q63" s="173" t="e">
         <f>L63/F63</f>
@@ -5452,59 +5452,59 @@
       <c r="B64" s="133" t="s">
         <v>101</v>
       </c>
-      <c r="C64" s="116">
+      <c r="C64" s="116" t="n">
         <f>+D49+D50+D51+D52+D53+D54+D55+D56+D57</f>
-        <v>105</v>
-      </c>
-      <c r="D64" s="116">
+        <v>105.0</v>
+      </c>
+      <c r="D64" s="116" t="n">
         <f>+E49+E50+E51+E52+E53+E54+E55+E56+E57</f>
-        <v>105</v>
-      </c>
-      <c r="E64" s="134">
+        <v>105.0</v>
+      </c>
+      <c r="E64" s="134" t="n">
         <f>D64/C64</f>
-        <v>1</v>
-      </c>
-      <c r="F64" s="139">
+        <v>1.0</v>
+      </c>
+      <c r="F64" s="139" t="n">
         <f>C64-D64</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="116">
+        <v>0.0</v>
+      </c>
+      <c r="G64" s="116" t="n">
         <f t="shared" ref="G64:L64" si="11">G49+G50+G51+G52+G53+G54+G55+G56+G57</f>
-        <v>1</v>
-      </c>
-      <c r="H64" s="116">
+        <v>1.0</v>
+      </c>
+      <c r="H64" s="116" t="n">
         <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="I64" s="116">
+        <v>8.0</v>
+      </c>
+      <c r="I64" s="116" t="n">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="116">
+        <v>0.0</v>
+      </c>
+      <c r="J64" s="116" t="n">
         <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="K64" s="116">
+        <v>3.0</v>
+      </c>
+      <c r="K64" s="116" t="n">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L64" s="116">
+        <v>0.0</v>
+      </c>
+      <c r="L64" s="116" t="n">
         <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="M64" s="116">
+        <v>12.0</v>
+      </c>
+      <c r="M64" s="116" t="n">
         <f>N49+N50+N51+N52+N53+N54+N55+N56+N57</f>
-        <v>2</v>
-      </c>
-      <c r="N64" s="116">
+        <v>2.0</v>
+      </c>
+      <c r="N64" s="116" t="n">
         <f>O49+O50+O51+O52+O53+O54+O55+O56+O57</f>
-        <v>1</v>
-      </c>
-      <c r="O64" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="O64" s="36" t="n">
         <f>P49+P50+P51+P52+P53+P54+P55+P56+P57</f>
-        <v>9</v>
-      </c>
-      <c r="P64" s="156">
+        <v>9.0</v>
+      </c>
+      <c r="P64" s="156" t="n">
         <f>M64/L64</f>
         <v>0.16666666666666666</v>
       </c>
@@ -5520,59 +5520,59 @@
       <c r="B65" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="146">
+      <c r="C65" s="146" t="n">
         <f>SUM(C62:C64)</f>
-        <v>126</v>
-      </c>
-      <c r="D65" s="146">
+        <v>126.0</v>
+      </c>
+      <c r="D65" s="146" t="n">
         <f>SUM(D62:D64)</f>
-        <v>126</v>
-      </c>
-      <c r="E65" s="147">
+        <v>126.0</v>
+      </c>
+      <c r="E65" s="147" t="n">
         <f>D65/C65</f>
-        <v>1</v>
-      </c>
-      <c r="F65" s="174">
+        <v>1.0</v>
+      </c>
+      <c r="F65" s="174" t="n">
         <f>C65-D65</f>
-        <v>0</v>
-      </c>
-      <c r="G65" s="146">
+        <v>0.0</v>
+      </c>
+      <c r="G65" s="146" t="n">
         <f t="shared" ref="G65:O65" si="12">SUM(G62:G64)</f>
-        <v>1</v>
-      </c>
-      <c r="H65" s="146">
+        <v>1.0</v>
+      </c>
+      <c r="H65" s="146" t="n">
         <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="I65" s="146">
+        <v>13.0</v>
+      </c>
+      <c r="I65" s="146" t="n">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J65" s="146">
+        <v>0.0</v>
+      </c>
+      <c r="J65" s="146" t="n">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="K65" s="146">
+        <v>3.0</v>
+      </c>
+      <c r="K65" s="146" t="n">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="L65" s="146">
+        <v>1.0</v>
+      </c>
+      <c r="L65" s="146" t="n">
         <f t="shared" si="12"/>
-        <v>18</v>
-      </c>
-      <c r="M65" s="175">
+        <v>18.0</v>
+      </c>
+      <c r="M65" s="175" t="n">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="N65" s="146">
+        <v>3.0</v>
+      </c>
+      <c r="N65" s="146" t="n">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="O65" s="146">
+        <v>2.0</v>
+      </c>
+      <c r="O65" s="146" t="n">
         <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="P65" s="176">
+        <v>13.0</v>
+      </c>
+      <c r="P65" s="176" t="n">
         <f>M65/L65</f>
         <v>0.16666666666666666</v>
       </c>
@@ -5830,55 +5830,55 @@
       <c r="A4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="79">
+      <c r="B4" s="79" t="n">
         <f t="shared" ref="B4:M4" si="0">B10/B16</f>
         <v>1.6538461538461537</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="57" t="n">
         <f t="shared" si="0"/>
         <v>1.9523809523809523</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="57" t="n">
         <f t="shared" si="0"/>
         <v>4.916666666666667</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="57" t="n">
         <f t="shared" si="0"/>
-        <v>5.1111111111111107</v>
-      </c>
-      <c r="F4" s="57">
+        <v>5.111111111111111</v>
+      </c>
+      <c r="F4" s="57" t="n">
         <f t="shared" si="0"/>
         <v>1.84375</v>
       </c>
-      <c r="G4" s="57">
+      <c r="G4" s="57" t="n">
         <f t="shared" si="0"/>
         <v>2.375</v>
       </c>
-      <c r="H4" s="57">
+      <c r="H4" s="57" t="n">
         <f t="shared" si="0"/>
-        <v>2.7575757575757578</v>
-      </c>
-      <c r="I4" s="57">
+        <v>2.757575757575758</v>
+      </c>
+      <c r="I4" s="57" t="n">
         <f t="shared" si="0"/>
-        <v>2.0263157894736841</v>
-      </c>
-      <c r="J4" s="57">
+        <v>2.026315789473684</v>
+      </c>
+      <c r="J4" s="57" t="n">
         <f t="shared" si="0"/>
         <v>1.1395348837209303</v>
       </c>
-      <c r="K4" s="57">
+      <c r="K4" s="57" t="n">
         <f t="shared" si="0"/>
-        <v>0.77192982456140347</v>
-      </c>
-      <c r="L4" s="57">
+        <v>0.7719298245614035</v>
+      </c>
+      <c r="L4" s="57" t="n">
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="M4" s="57">
+      <c r="M4" s="57" t="n">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="80">
+        <v>0.0</v>
+      </c>
+      <c r="N4" s="80" t="n">
         <f t="shared" ref="N4" si="1">N10/N16</f>
         <v>1.695187165775401</v>
       </c>
@@ -5887,55 +5887,55 @@
       <c r="A5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5" s="64" t="n">
         <f t="shared" ref="B5:M5" si="2">B11/B17</f>
         <v>1.7272727272727273</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="68" t="n">
         <f t="shared" si="2"/>
         <v>1.5263157894736843</v>
       </c>
-      <c r="D5" s="68">
+      <c r="D5" s="68" t="n">
         <f t="shared" si="2"/>
-        <v>4.6363636363636367</v>
-      </c>
-      <c r="E5" s="68">
+        <v>4.636363636363637</v>
+      </c>
+      <c r="E5" s="68" t="n">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F5" s="68">
+        <v>4.0</v>
+      </c>
+      <c r="F5" s="68" t="n">
         <f t="shared" si="2"/>
         <v>1.6551724137931034</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="68" t="n">
         <f t="shared" si="2"/>
         <v>2.1379310344827585</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="68" t="n">
         <f t="shared" si="2"/>
         <v>2.6551724137931036</v>
       </c>
-      <c r="I5" s="68">
+      <c r="I5" s="68" t="n">
         <f t="shared" si="2"/>
         <v>1.84375</v>
       </c>
-      <c r="J5" s="68">
+      <c r="J5" s="68" t="n">
         <f t="shared" si="2"/>
         <v>1.2333333333333334</v>
       </c>
-      <c r="K5" s="68">
+      <c r="K5" s="68" t="n">
         <f t="shared" si="2"/>
-        <v>0.76086956521739135</v>
-      </c>
-      <c r="L5" s="68">
+        <v>0.7608695652173914</v>
+      </c>
+      <c r="L5" s="68" t="n">
         <f t="shared" si="2"/>
         <v>1.1470588235294117</v>
       </c>
-      <c r="M5" s="68">
+      <c r="M5" s="68" t="n">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="81">
+        <v>0.0</v>
+      </c>
+      <c r="N5" s="81" t="n">
         <f t="shared" ref="N5" si="3">N11/N17</f>
         <v>1.6325878594249201</v>
       </c>
@@ -5944,55 +5944,55 @@
       <c r="A6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="82">
+      <c r="B6" s="82" t="n">
         <f t="shared" ref="B6:N6" si="4">B13/B19</f>
-        <v>10</v>
-      </c>
-      <c r="C6" s="83">
+        <v>10.0</v>
+      </c>
+      <c r="C6" s="83" t="n">
         <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="D6" s="83">
+        <v>14.0</v>
+      </c>
+      <c r="D6" s="83" t="n">
         <f t="shared" si="4"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="E6" s="83">
+      <c r="E6" s="83" t="n">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="F6" s="83">
+        <v>5.0</v>
+      </c>
+      <c r="F6" s="83" t="n">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="G6" s="83">
+        <v>10.0</v>
+      </c>
+      <c r="G6" s="83" t="n">
         <f t="shared" si="4"/>
         <v>2.9</v>
       </c>
-      <c r="H6" s="83">
+      <c r="H6" s="83" t="n">
         <f t="shared" si="4"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="I6" s="83">
+      <c r="I6" s="83" t="n">
         <f t="shared" si="4"/>
-        <v>5.5714285714285712</v>
-      </c>
-      <c r="J6" s="83">
+        <v>5.571428571428571</v>
+      </c>
+      <c r="J6" s="83" t="n">
         <f t="shared" si="4"/>
         <v>2.1875</v>
       </c>
-      <c r="K6" s="83">
+      <c r="K6" s="83" t="n">
         <f t="shared" si="4"/>
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="L6" s="83">
+        <v>2.05</v>
+      </c>
+      <c r="L6" s="83" t="n">
         <f t="shared" si="4"/>
         <v>1.55</v>
       </c>
-      <c r="M6" s="83">
+      <c r="M6" s="83" t="n">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="84">
+        <v>0.0</v>
+      </c>
+      <c r="N6" s="84" t="n">
         <f t="shared" si="4"/>
         <v>2.314516129032258</v>
       </c>
@@ -6111,9 +6111,9 @@
         <v>49</v>
       </c>
       <c r="M10" s="71"/>
-      <c r="N10" s="85">
+      <c r="N10" s="85" t="n">
         <f>SUM(B10:M10)</f>
-        <v>634</v>
+        <v>634.0</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -6154,64 +6154,64 @@
         <v>39</v>
       </c>
       <c r="M11" s="73"/>
-      <c r="N11" s="20">
+      <c r="N11" s="20" t="n">
         <f>SUM(B11:M11)</f>
-        <v>511</v>
+        <v>511.0</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="64">
+      <c r="B12" s="64" t="n">
         <f t="shared" ref="B12:M12" si="5">B11/B10</f>
-        <v>0.88372093023255816</v>
-      </c>
-      <c r="C12" s="68">
+        <v>0.8837209302325582</v>
+      </c>
+      <c r="C12" s="68" t="n">
         <f t="shared" si="5"/>
-        <v>0.70731707317073167</v>
-      </c>
-      <c r="D12" s="68">
+        <v>0.7073170731707317</v>
+      </c>
+      <c r="D12" s="68" t="n">
         <f t="shared" si="5"/>
-        <v>0.86440677966101698</v>
-      </c>
-      <c r="E12" s="68">
+        <v>0.864406779661017</v>
+      </c>
+      <c r="E12" s="68" t="n">
         <f t="shared" si="5"/>
-        <v>0.78260869565217395</v>
-      </c>
-      <c r="F12" s="68">
+        <v>0.782608695652174</v>
+      </c>
+      <c r="F12" s="68" t="n">
         <f t="shared" si="5"/>
-        <v>0.81355932203389836</v>
-      </c>
-      <c r="G12" s="68">
+        <v>0.8135593220338984</v>
+      </c>
+      <c r="G12" s="68" t="n">
         <f t="shared" si="5"/>
-        <v>0.81578947368421051</v>
-      </c>
-      <c r="H12" s="68">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="H12" s="68" t="n">
         <f t="shared" si="5"/>
-        <v>0.84615384615384615</v>
-      </c>
-      <c r="I12" s="68">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="I12" s="68" t="n">
         <f t="shared" si="5"/>
-        <v>0.76623376623376627</v>
-      </c>
-      <c r="J12" s="68">
+        <v>0.7662337662337663</v>
+      </c>
+      <c r="J12" s="68" t="n">
         <f t="shared" si="5"/>
-        <v>0.75510204081632648</v>
-      </c>
-      <c r="K12" s="68">
+        <v>0.7551020408163265</v>
+      </c>
+      <c r="K12" s="68" t="n">
         <f t="shared" si="5"/>
-        <v>0.79545454545454541</v>
-      </c>
-      <c r="L12" s="68">
+        <v>0.7954545454545454</v>
+      </c>
+      <c r="L12" s="68" t="n">
         <f t="shared" si="5"/>
-        <v>0.79591836734693877</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="M12" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N12" s="81">
+      <c r="N12" s="81" t="n">
         <f t="shared" ref="N12" si="6">N11/N10</f>
         <v>0.805993690851735</v>
       </c>
@@ -6254,66 +6254,66 @@
         <v>31</v>
       </c>
       <c r="M13" s="76"/>
-      <c r="N13" s="65">
+      <c r="N13" s="65" t="n">
         <f>SUM(B13:M13)</f>
-        <v>287</v>
+        <v>287.0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="12" t="n">
         <f t="shared" ref="B14:M14" si="7">B11-B13</f>
-        <v>18</v>
-      </c>
-      <c r="C14" s="12">
+        <v>18.0</v>
+      </c>
+      <c r="C14" s="12" t="n">
         <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="D14" s="12">
+        <v>15.0</v>
+      </c>
+      <c r="D14" s="12" t="n">
         <f t="shared" si="7"/>
-        <v>37</v>
-      </c>
-      <c r="E14" s="12">
+        <v>37.0</v>
+      </c>
+      <c r="E14" s="12" t="n">
         <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="F14" s="12">
+        <v>16.0</v>
+      </c>
+      <c r="F14" s="12" t="n">
         <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
-      <c r="G14" s="12">
+        <v>28.0</v>
+      </c>
+      <c r="G14" s="12" t="n">
         <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-      <c r="H14" s="12">
+        <v>33.0</v>
+      </c>
+      <c r="H14" s="12" t="n">
         <f t="shared" si="7"/>
-        <v>53</v>
-      </c>
-      <c r="I14" s="12">
+        <v>53.0</v>
+      </c>
+      <c r="I14" s="12" t="n">
         <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="J14" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="J14" s="12" t="n">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="K14" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="K14" s="12" t="n">
         <f t="shared" si="7"/>
-        <v>-6</v>
-      </c>
-      <c r="L14" s="12">
+        <v>-6.0</v>
+      </c>
+      <c r="L14" s="12" t="n">
         <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="M14" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="M14" s="12" t="n">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="65">
+        <v>0.0</v>
+      </c>
+      <c r="N14" s="65" t="n">
         <f>SUM(B14:M14)</f>
-        <v>224</v>
+        <v>224.0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -6376,9 +6376,9 @@
       <c r="M16" s="71">
         <v>29</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16" s="20" t="n">
         <f>SUM(B16:M16)</f>
-        <v>374</v>
+        <v>374.0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -6421,66 +6421,66 @@
       <c r="M17" s="73">
         <v>23</v>
       </c>
-      <c r="N17" s="20">
+      <c r="N17" s="20" t="n">
         <f>SUM(B17:M17)</f>
-        <v>313</v>
+        <v>313.0</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="86">
+      <c r="B18" s="86" t="n">
         <f t="shared" ref="B18:M18" si="8">B17/B16</f>
-        <v>0.84615384615384615</v>
-      </c>
-      <c r="C18" s="87">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="C18" s="87" t="n">
         <f t="shared" si="8"/>
-        <v>0.90476190476190477</v>
-      </c>
-      <c r="D18" s="87">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="D18" s="87" t="n">
         <f t="shared" si="8"/>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E18" s="87">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="E18" s="87" t="n">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="F18" s="87">
+        <v>1.0</v>
+      </c>
+      <c r="F18" s="87" t="n">
         <f t="shared" si="8"/>
         <v>0.90625</v>
       </c>
-      <c r="G18" s="87">
+      <c r="G18" s="87" t="n">
         <f t="shared" si="8"/>
         <v>0.90625</v>
       </c>
-      <c r="H18" s="87">
+      <c r="H18" s="87" t="n">
         <f t="shared" si="8"/>
-        <v>0.87878787878787878</v>
-      </c>
-      <c r="I18" s="87">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="I18" s="87" t="n">
         <f t="shared" si="8"/>
-        <v>0.84210526315789469</v>
-      </c>
-      <c r="J18" s="87">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="J18" s="87" t="n">
         <f t="shared" si="8"/>
-        <v>0.69767441860465118</v>
-      </c>
-      <c r="K18" s="87">
+        <v>0.6976744186046512</v>
+      </c>
+      <c r="K18" s="87" t="n">
         <f t="shared" si="8"/>
-        <v>0.80701754385964908</v>
-      </c>
-      <c r="L18" s="87">
+        <v>0.8070175438596491</v>
+      </c>
+      <c r="L18" s="87" t="n">
         <f t="shared" si="8"/>
-        <v>0.80952380952380953</v>
-      </c>
-      <c r="M18" s="87">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="M18" s="87" t="n">
         <f t="shared" si="8"/>
         <v>0.7931034482758621</v>
       </c>
-      <c r="N18" s="81">
+      <c r="N18" s="81" t="n">
         <f t="shared" ref="N18" si="9">N17/N16</f>
-        <v>0.83689839572192515</v>
+        <v>0.8368983957219251</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -6523,66 +6523,66 @@
       <c r="M19" s="76">
         <v>15</v>
       </c>
-      <c r="N19" s="65">
+      <c r="N19" s="65" t="n">
         <f>SUM(B19:M19)</f>
-        <v>124</v>
+        <v>124.0</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="13" t="n">
         <f t="shared" ref="B20:M20" si="10">B17-B19</f>
-        <v>20</v>
-      </c>
-      <c r="C20" s="88">
+        <v>20.0</v>
+      </c>
+      <c r="C20" s="88" t="n">
         <f t="shared" si="10"/>
-        <v>18</v>
-      </c>
-      <c r="D20" s="88">
+        <v>18.0</v>
+      </c>
+      <c r="D20" s="88" t="n">
         <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="E20" s="88">
+        <v>5.0</v>
+      </c>
+      <c r="E20" s="88" t="n">
         <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="F20" s="88">
+        <v>5.0</v>
+      </c>
+      <c r="F20" s="88" t="n">
         <f t="shared" si="10"/>
-        <v>27</v>
-      </c>
-      <c r="G20" s="88">
+        <v>27.0</v>
+      </c>
+      <c r="G20" s="88" t="n">
         <f t="shared" si="10"/>
-        <v>19</v>
-      </c>
-      <c r="H20" s="88">
+        <v>19.0</v>
+      </c>
+      <c r="H20" s="88" t="n">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="I20" s="88">
+        <v>8.0</v>
+      </c>
+      <c r="I20" s="88" t="n">
         <f t="shared" si="10"/>
-        <v>25</v>
-      </c>
-      <c r="J20" s="88">
+        <v>25.0</v>
+      </c>
+      <c r="J20" s="88" t="n">
         <f t="shared" si="10"/>
-        <v>14</v>
-      </c>
-      <c r="K20" s="88">
+        <v>14.0</v>
+      </c>
+      <c r="K20" s="88" t="n">
         <f t="shared" si="10"/>
-        <v>26</v>
-      </c>
-      <c r="L20" s="88">
+        <v>26.0</v>
+      </c>
+      <c r="L20" s="88" t="n">
         <f t="shared" si="10"/>
-        <v>14</v>
-      </c>
-      <c r="M20" s="88">
+        <v>14.0</v>
+      </c>
+      <c r="M20" s="88" t="n">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="N20" s="89">
+        <v>8.0</v>
+      </c>
+      <c r="N20" s="89" t="n">
         <f t="shared" ref="N20" si="11">N17-N19</f>
-        <v>189</v>
+        <v>189.0</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -6613,55 +6613,55 @@
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="152">
+      <c r="B24" s="152" t="n">
         <f t="shared" ref="B24:N25" si="12">B30/B36</f>
         <v>1.3076923076923077</v>
       </c>
-      <c r="C24" s="153">
+      <c r="C24" s="153" t="n">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="D24" s="153">
+        <v>3.0</v>
+      </c>
+      <c r="D24" s="153" t="n">
         <f t="shared" si="12"/>
         <v>3.8</v>
       </c>
-      <c r="E24" s="153">
+      <c r="E24" s="153" t="n">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="F24" s="153">
+        <v>4.0</v>
+      </c>
+      <c r="F24" s="153" t="n">
         <f t="shared" si="12"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G24" s="153">
+      <c r="G24" s="153" t="n">
         <f t="shared" si="12"/>
         <v>3.25</v>
       </c>
-      <c r="H24" s="153">
+      <c r="H24" s="153" t="n">
         <f t="shared" si="12"/>
         <v>1.2</v>
       </c>
-      <c r="I24" s="153">
+      <c r="I24" s="153" t="n">
         <f t="shared" si="12"/>
         <v>1.4</v>
       </c>
-      <c r="J24" s="153">
+      <c r="J24" s="153" t="n">
         <f t="shared" si="12"/>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="K24" s="153">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="K24" s="153" t="n">
         <f t="shared" si="12"/>
-        <v>0.94117647058823528</v>
-      </c>
-      <c r="L24" s="153">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="L24" s="153" t="n">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="M24" s="153">
+        <v>1.0</v>
+      </c>
+      <c r="M24" s="153" t="n">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="154">
+        <v>0.0</v>
+      </c>
+      <c r="N24" s="154" t="n">
         <f t="shared" si="12"/>
         <v>1.2781456953642385</v>
       </c>
@@ -6670,55 +6670,55 @@
       <c r="A25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="155">
+      <c r="B25" s="155" t="n">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="C25" s="156">
+        <v>1.0</v>
+      </c>
+      <c r="C25" s="156" t="n">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="D25" s="156">
+        <v>1.0</v>
+      </c>
+      <c r="D25" s="156" t="n">
         <f t="shared" si="12"/>
         <v>1.25</v>
       </c>
-      <c r="E25" s="156">
+      <c r="E25" s="156" t="n">
         <f t="shared" si="12"/>
         <v>1.25</v>
       </c>
-      <c r="F25" s="156">
+      <c r="F25" s="156" t="n">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="G25" s="156">
+        <v>2.0</v>
+      </c>
+      <c r="G25" s="156" t="n">
         <f t="shared" si="12"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="H25" s="156">
+      <c r="H25" s="156" t="n">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="I25" s="156">
+        <v>2.0</v>
+      </c>
+      <c r="I25" s="156" t="n">
         <f t="shared" si="12"/>
         <v>0.8</v>
       </c>
-      <c r="J25" s="156">
+      <c r="J25" s="156" t="n">
         <f t="shared" si="12"/>
         <v>0.375</v>
       </c>
-      <c r="K25" s="156">
+      <c r="K25" s="156" t="n">
         <f t="shared" si="12"/>
         <v>0.6</v>
       </c>
-      <c r="L25" s="156">
+      <c r="L25" s="156" t="n">
         <f t="shared" si="12"/>
         <v>0.6</v>
       </c>
-      <c r="M25" s="156">
+      <c r="M25" s="156" t="n">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="157">
+        <v>0.0</v>
+      </c>
+      <c r="N25" s="157" t="n">
         <f t="shared" si="12"/>
         <v>0.8571428571428571</v>
       </c>
@@ -6727,15 +6727,15 @@
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="158">
+      <c r="B26" s="158" t="n">
         <f t="shared" ref="B26:N26" si="13">B33/B39</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C26" s="159">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C26" s="159" t="n">
         <f t="shared" si="13"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D26" s="159">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D26" s="159" t="n">
         <f t="shared" si="13"/>
         <v>2.3333333333333335</v>
       </c>
@@ -6743,41 +6743,41 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="159">
+      <c r="F26" s="159" t="n">
         <f t="shared" si="13"/>
         <v>0.8</v>
       </c>
-      <c r="G26" s="159">
+      <c r="G26" s="159" t="n">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="H26" s="159">
+        <v>1.0</v>
+      </c>
+      <c r="H26" s="159" t="n">
         <f t="shared" si="13"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="I26" s="159">
+      <c r="I26" s="159" t="n">
         <f t="shared" si="13"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J26" s="159">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J26" s="159" t="n">
         <f>J33/J39</f>
         <v>0.6</v>
       </c>
-      <c r="K26" s="159">
+      <c r="K26" s="159" t="n">
         <f t="shared" si="13"/>
         <v>0.6</v>
       </c>
-      <c r="L26" s="159">
+      <c r="L26" s="159" t="n">
         <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
-      <c r="M26" s="159">
+      <c r="M26" s="159" t="n">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="160">
+        <v>0.0</v>
+      </c>
+      <c r="N26" s="160" t="n">
         <f t="shared" si="13"/>
-        <v>0.78181818181818186</v>
+        <v>0.7818181818181819</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -6876,9 +6876,9 @@
         <v>18</v>
       </c>
       <c r="M30" s="78"/>
-      <c r="N30" s="161">
+      <c r="N30" s="161" t="n">
         <f>SUM(B30:M30)</f>
-        <v>193</v>
+        <v>193.0</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -6919,56 +6919,56 @@
         <v>3</v>
       </c>
       <c r="M31" s="162"/>
-      <c r="N31" s="163">
+      <c r="N31" s="163" t="n">
         <f>SUM(B31:M31)</f>
-        <v>48</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="155">
+      <c r="B32" s="155" t="n">
         <f>B31/B30</f>
         <v>0.23529411764705882</v>
       </c>
-      <c r="C32" s="156">
+      <c r="C32" s="156" t="n">
         <f t="shared" ref="C32:N32" si="14">C31/C30</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D32" s="156">
+      <c r="D32" s="156" t="n">
         <f t="shared" si="14"/>
-        <v>0.26315789473684209</v>
-      </c>
-      <c r="E32" s="156">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="E32" s="156" t="n">
         <f t="shared" si="14"/>
         <v>0.25</v>
       </c>
-      <c r="F32" s="156">
+      <c r="F32" s="156" t="n">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="G32" s="156">
+        <v>1.0</v>
+      </c>
+      <c r="G32" s="156" t="n">
         <f t="shared" si="14"/>
         <v>0.19230769230769232</v>
       </c>
-      <c r="H32" s="156">
+      <c r="H32" s="156" t="n">
         <f t="shared" si="14"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="I32" s="156">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="I32" s="156" t="n">
         <f t="shared" si="14"/>
         <v>0.19047619047619047</v>
       </c>
-      <c r="J32" s="156">
+      <c r="J32" s="156" t="n">
         <f t="shared" si="14"/>
         <v>0.15</v>
       </c>
-      <c r="K32" s="156">
+      <c r="K32" s="156" t="n">
         <f t="shared" si="14"/>
         <v>0.1875</v>
       </c>
-      <c r="L32" s="156">
+      <c r="L32" s="156" t="n">
         <f t="shared" si="14"/>
         <v>0.16666666666666666</v>
       </c>
@@ -6976,7 +6976,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N32" s="157">
+      <c r="N32" s="157" t="n">
         <f t="shared" si="14"/>
         <v>0.24870466321243523</v>
       </c>
@@ -7019,66 +7019,66 @@
         <v>2</v>
       </c>
       <c r="M33" s="76"/>
-      <c r="N33" s="129">
+      <c r="N33" s="129" t="n">
         <f>SUM(B33:M33)</f>
-        <v>43</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="130">
+      <c r="B34" s="130" t="n">
         <f t="shared" ref="B34:M34" si="15">B31-B33</f>
-        <v>2</v>
-      </c>
-      <c r="C34" s="130">
+        <v>2.0</v>
+      </c>
+      <c r="C34" s="130" t="n">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="130">
+        <v>0.0</v>
+      </c>
+      <c r="D34" s="130" t="n">
         <f t="shared" si="15"/>
-        <v>-2</v>
-      </c>
-      <c r="E34" s="130">
+        <v>-2.0</v>
+      </c>
+      <c r="E34" s="130" t="n">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="F34" s="130">
+        <v>1.0</v>
+      </c>
+      <c r="F34" s="130" t="n">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="G34" s="130">
+        <v>2.0</v>
+      </c>
+      <c r="G34" s="130" t="n">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="130">
+        <v>0.0</v>
+      </c>
+      <c r="H34" s="130" t="n">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="I34" s="130">
+        <v>1.0</v>
+      </c>
+      <c r="I34" s="130" t="n">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="130">
+        <v>0.0</v>
+      </c>
+      <c r="J34" s="130" t="n">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="130">
+        <v>0.0</v>
+      </c>
+      <c r="K34" s="130" t="n">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="130">
+        <v>0.0</v>
+      </c>
+      <c r="L34" s="130" t="n">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="M34" s="130">
+        <v>1.0</v>
+      </c>
+      <c r="M34" s="130" t="n">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="129">
+        <v>0.0</v>
+      </c>
+      <c r="N34" s="129" t="n">
         <f>SUM(B34:M34)</f>
-        <v>5</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -7141,9 +7141,9 @@
       <c r="M36" s="78">
         <v>22</v>
       </c>
-      <c r="N36" s="163">
+      <c r="N36" s="163" t="n">
         <f>SUM(B36:M36)</f>
-        <v>151</v>
+        <v>151.0</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -7186,66 +7186,66 @@
       <c r="M37" s="162">
         <v>5</v>
       </c>
-      <c r="N37" s="163">
+      <c r="N37" s="163" t="n">
         <f>SUM(B37:M37)</f>
-        <v>56</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="155">
+      <c r="B38" s="155" t="n">
         <f t="shared" ref="B38:N38" si="16">B37/B36</f>
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="C38" s="156">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="C38" s="156" t="n">
         <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
-      <c r="D38" s="156">
+      <c r="D38" s="156" t="n">
         <f t="shared" si="16"/>
         <v>0.8</v>
       </c>
-      <c r="E38" s="156">
+      <c r="E38" s="156" t="n">
         <f t="shared" si="16"/>
         <v>0.8</v>
       </c>
-      <c r="F38" s="156">
+      <c r="F38" s="156" t="n">
         <f t="shared" si="16"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="G38" s="156">
+      <c r="G38" s="156" t="n">
         <f t="shared" si="16"/>
         <v>0.875</v>
       </c>
-      <c r="H38" s="156">
+      <c r="H38" s="156" t="n">
         <f t="shared" si="16"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="I38" s="156">
+      <c r="I38" s="156" t="n">
         <f t="shared" si="16"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J38" s="156">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J38" s="156" t="n">
         <f t="shared" si="16"/>
         <v>0.36363636363636365</v>
       </c>
-      <c r="K38" s="156">
+      <c r="K38" s="156" t="n">
         <f t="shared" si="16"/>
         <v>0.29411764705882354</v>
       </c>
-      <c r="L38" s="156">
+      <c r="L38" s="156" t="n">
         <f t="shared" si="16"/>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="M38" s="156">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="M38" s="156" t="n">
         <f t="shared" si="16"/>
         <v>0.22727272727272727</v>
       </c>
-      <c r="N38" s="157">
+      <c r="N38" s="157" t="n">
         <f t="shared" si="16"/>
-        <v>0.37086092715231789</v>
+        <v>0.3708609271523179</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -7288,66 +7288,66 @@
       <c r="M39" s="76">
         <v>7</v>
       </c>
-      <c r="N39" s="129">
+      <c r="N39" s="129" t="n">
         <f>SUM(B39:M39)</f>
-        <v>55</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="149">
+      <c r="B40" s="149" t="n">
         <f t="shared" ref="B40:M40" si="17">B37-B39</f>
-        <v>1</v>
-      </c>
-      <c r="C40" s="150">
+        <v>1.0</v>
+      </c>
+      <c r="C40" s="150" t="n">
         <f t="shared" si="17"/>
-        <v>-4</v>
-      </c>
-      <c r="D40" s="150">
+        <v>-4.0</v>
+      </c>
+      <c r="D40" s="150" t="n">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="E40" s="150">
+        <v>1.0</v>
+      </c>
+      <c r="E40" s="150" t="n">
         <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="F40" s="150">
+        <v>4.0</v>
+      </c>
+      <c r="F40" s="150" t="n">
         <f t="shared" si="17"/>
-        <v>-2</v>
-      </c>
-      <c r="G40" s="150">
+        <v>-2.0</v>
+      </c>
+      <c r="G40" s="150" t="n">
         <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="H40" s="150">
+        <v>2.0</v>
+      </c>
+      <c r="H40" s="150" t="n">
         <f t="shared" si="17"/>
-        <v>-2</v>
-      </c>
-      <c r="I40" s="150">
+        <v>-2.0</v>
+      </c>
+      <c r="I40" s="150" t="n">
         <f t="shared" si="17"/>
-        <v>-1</v>
-      </c>
-      <c r="J40" s="150">
+        <v>-1.0</v>
+      </c>
+      <c r="J40" s="150" t="n">
         <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="K40" s="150">
+        <v>3.0</v>
+      </c>
+      <c r="K40" s="150" t="n">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="150">
+        <v>0.0</v>
+      </c>
+      <c r="L40" s="150" t="n">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="M40" s="151">
+        <v>1.0</v>
+      </c>
+      <c r="M40" s="151" t="n">
         <f t="shared" si="17"/>
-        <v>-2</v>
-      </c>
-      <c r="N40" s="151">
+        <v>-2.0</v>
+      </c>
+      <c r="N40" s="151" t="n">
         <f>N37-N39</f>
-        <v>1</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -7569,13 +7569,13 @@
       <c r="E6" s="71">
         <v>2</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="26" t="n">
         <f t="shared" ref="F6:F34" si="0">E6/D6</f>
-        <v>1</v>
-      </c>
-      <c r="G6" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="14" t="n">
         <f t="shared" ref="G6:G33" si="1">D6-E6</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H6" s="70"/>
       <c r="I6" s="71"/>
@@ -7583,9 +7583,9 @@
       <c r="K6" s="71"/>
       <c r="L6" s="71"/>
       <c r="M6" s="71"/>
-      <c r="N6" s="28">
+      <c r="N6" s="28" t="n">
         <f t="shared" ref="N6:N33" si="2">SUM(H6:M6)</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O6" s="90"/>
       <c r="P6" s="90"/>
@@ -7609,13 +7609,13 @@
       <c r="E7" s="93">
         <v>20</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="40" t="n">
         <f t="shared" si="0"/>
-        <v>0.86956521739130432</v>
-      </c>
-      <c r="G7" s="36">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="G7" s="36" t="n">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="H7" s="94"/>
       <c r="I7" s="93"/>
@@ -7625,9 +7625,9 @@
       <c r="M7" s="93">
         <v>1</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="33" t="n">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O7" s="92"/>
       <c r="P7" s="95">
@@ -7653,13 +7653,13 @@
       <c r="E8" s="74">
         <v>1</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="31" t="n">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H8" s="91"/>
       <c r="I8" s="74"/>
@@ -7667,9 +7667,9 @@
       <c r="K8" s="74"/>
       <c r="L8" s="74"/>
       <c r="M8" s="74"/>
-      <c r="N8" s="28">
+      <c r="N8" s="28" t="n">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O8" s="90"/>
       <c r="P8" s="92">
@@ -7693,13 +7693,13 @@
       <c r="E9" s="74">
         <v>2</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G9" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H9" s="91"/>
       <c r="I9" s="74"/>
@@ -7707,9 +7707,9 @@
       <c r="K9" s="74"/>
       <c r="L9" s="74"/>
       <c r="M9" s="74"/>
-      <c r="N9" s="33">
+      <c r="N9" s="33" t="n">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O9" s="92"/>
       <c r="P9" s="92"/>
@@ -7731,13 +7731,13 @@
       <c r="E10" s="74">
         <v>39</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="31" t="n">
         <f t="shared" si="0"/>
         <v>0.8125</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="H10" s="91"/>
       <c r="I10" s="74"/>
@@ -7749,9 +7749,9 @@
       <c r="M10" s="74">
         <v>1</v>
       </c>
-      <c r="N10" s="33">
+      <c r="N10" s="33" t="n">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="O10" s="92">
         <v>3</v>
@@ -7779,25 +7779,27 @@
       <c r="E11" s="74">
         <v>23</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G11" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="G11" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H11" s="91"/>
       <c r="I11" s="74"/>
       <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
+      <c r="K11" s="74" t="n">
+        <v>1.0</v>
+      </c>
       <c r="L11" s="74"/>
       <c r="M11" s="74">
         <v>2</v>
       </c>
-      <c r="N11" s="33">
+      <c r="N11" s="33" t="n">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3.0</v>
       </c>
       <c r="O11" s="92">
         <v>2</v>
@@ -7840,13 +7842,13 @@
       <c r="E12" s="74">
         <v>1</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G12" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H12" s="91"/>
       <c r="I12" s="74"/>
@@ -7854,9 +7856,9 @@
       <c r="K12" s="74"/>
       <c r="L12" s="74"/>
       <c r="M12" s="74"/>
-      <c r="N12" s="33">
+      <c r="N12" s="33" t="n">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O12" s="92"/>
       <c r="P12" s="92"/>
@@ -7894,16 +7896,16 @@
       <c r="D13" s="15">
         <v>2</v>
       </c>
-      <c r="E13" s="74">
-        <v>1</v>
-      </c>
-      <c r="F13" s="31">
+      <c r="E13" s="74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2.0</v>
       </c>
       <c r="H13" s="91"/>
       <c r="I13" s="74"/>
@@ -7911,12 +7913,14 @@
       <c r="K13" s="74"/>
       <c r="L13" s="74"/>
       <c r="M13" s="74"/>
-      <c r="N13" s="33">
+      <c r="N13" s="33" t="n">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
+      <c r="P13" s="92" t="n">
+        <v>1.0</v>
+      </c>
       <c r="Q13" s="112">
         <v>1</v>
       </c>
@@ -7954,13 +7958,13 @@
       <c r="E14" s="74">
         <v>1</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G14" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="G14" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H14" s="91"/>
       <c r="I14" s="74"/>
@@ -7968,9 +7972,9 @@
       <c r="K14" s="74"/>
       <c r="L14" s="74"/>
       <c r="M14" s="74"/>
-      <c r="N14" s="33">
+      <c r="N14" s="33" t="n">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O14" s="92"/>
       <c r="P14" s="92"/>
@@ -8011,13 +8015,13 @@
       <c r="E15" s="74">
         <v>6</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="31" t="n">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="H15" s="91"/>
       <c r="I15" s="74"/>
@@ -8025,9 +8029,9 @@
       <c r="K15" s="74"/>
       <c r="L15" s="74"/>
       <c r="M15" s="74"/>
-      <c r="N15" s="33">
+      <c r="N15" s="33" t="n">
         <f>SUM(H15:M15)</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O15" s="92"/>
       <c r="P15" s="92"/>
@@ -8065,16 +8069,16 @@
       <c r="D16" s="36">
         <v>48</v>
       </c>
-      <c r="E16" s="93">
-        <v>36</v>
-      </c>
-      <c r="F16" s="40">
+      <c r="E16" s="93" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="F16" s="40" t="n">
         <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="G16" s="36">
+        <v>0.8541666666666666</v>
+      </c>
+      <c r="G16" s="36" t="n">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>7.0</v>
       </c>
       <c r="H16" s="94">
         <v>1</v>
@@ -8083,19 +8087,21 @@
         <v>2</v>
       </c>
       <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
+      <c r="K16" s="93" t="n">
+        <v>5.0</v>
+      </c>
       <c r="L16" s="93">
         <v>1</v>
       </c>
       <c r="M16" s="93">
         <v>3</v>
       </c>
-      <c r="N16" s="42">
+      <c r="N16" s="42" t="n">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="O16" s="95">
-        <v>7</v>
+        <v>12.0</v>
+      </c>
+      <c r="O16" s="95" t="n">
+        <v>12.0</v>
       </c>
       <c r="P16" s="95">
         <v>3</v>
@@ -8139,13 +8145,13 @@
       <c r="E17" s="70">
         <v>4</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="26" t="n">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G17" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="G17" s="18" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H17" s="70"/>
       <c r="I17" s="71"/>
@@ -8153,9 +8159,9 @@
       <c r="K17" s="71"/>
       <c r="L17" s="71"/>
       <c r="M17" s="71"/>
-      <c r="N17" s="28">
+      <c r="N17" s="28" t="n">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O17" s="90"/>
       <c r="P17" s="71"/>
@@ -8196,15 +8202,15 @@
         <v>136</v>
       </c>
       <c r="E18" s="91" t="n">
-        <v>113.0</v>
-      </c>
-      <c r="F18" s="31">
+        <v>114.0</v>
+      </c>
+      <c r="F18" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="G18" s="20">
+        <v>0.8382352941176471</v>
+      </c>
+      <c r="G18" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>22.0</v>
       </c>
       <c r="H18" s="91" t="n">
         <v>9.0</v>
@@ -8213,8 +8219,8 @@
         <v>2</v>
       </c>
       <c r="J18" s="74"/>
-      <c r="K18" s="74">
-        <v>3</v>
+      <c r="K18" s="74" t="n">
+        <v>4.0</v>
       </c>
       <c r="L18" s="74">
         <v>1</v>
@@ -8222,9 +8228,9 @@
       <c r="M18" s="74">
         <v>1</v>
       </c>
-      <c r="N18" s="33">
+      <c r="N18" s="33" t="n">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17.0</v>
       </c>
       <c r="O18" s="92">
         <v>12</v>
@@ -8252,13 +8258,13 @@
       <c r="E19" s="91">
         <v>2</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G19" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="G19" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H19" s="91"/>
       <c r="I19" s="74"/>
@@ -8266,9 +8272,9 @@
       <c r="K19" s="74"/>
       <c r="L19" s="74"/>
       <c r="M19" s="74"/>
-      <c r="N19" s="33">
+      <c r="N19" s="33" t="n">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O19" s="92"/>
       <c r="P19" s="74"/>
@@ -8290,13 +8296,13 @@
       <c r="E20" s="91">
         <v>3</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="31" t="n">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H20" s="91"/>
       <c r="I20" s="74"/>
@@ -8304,9 +8310,9 @@
       <c r="K20" s="74"/>
       <c r="L20" s="74"/>
       <c r="M20" s="74"/>
-      <c r="N20" s="33">
+      <c r="N20" s="33" t="n">
         <f>SUM(H20:M20)</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O20" s="92"/>
       <c r="P20" s="74">
@@ -8330,13 +8336,13 @@
       <c r="E21" s="91">
         <v>5</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="31" t="n">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="H21" s="91"/>
       <c r="I21" s="74"/>
@@ -8344,9 +8350,9 @@
       <c r="K21" s="74"/>
       <c r="L21" s="74"/>
       <c r="M21" s="74"/>
-      <c r="N21" s="33">
+      <c r="N21" s="33" t="n">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O21" s="92"/>
       <c r="P21" s="74">
@@ -8372,13 +8378,13 @@
       <c r="E22" s="90">
         <v>22</v>
       </c>
-      <c r="F22" s="102">
+      <c r="F22" s="102" t="n">
         <f t="shared" si="0"/>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="G22" s="18">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="G22" s="18" t="n">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="H22" s="70">
         <v>1</v>
@@ -8390,9 +8396,9 @@
       <c r="M22" s="71">
         <v>1</v>
       </c>
-      <c r="N22" s="28">
+      <c r="N22" s="28" t="n">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="O22" s="90">
         <v>2</v>
@@ -8439,13 +8445,13 @@
       <c r="E23" s="92">
         <v>18</v>
       </c>
-      <c r="F23" s="103">
+      <c r="F23" s="103" t="n">
         <f t="shared" si="0"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="H23" s="91"/>
       <c r="I23" s="74">
@@ -8457,9 +8463,9 @@
       </c>
       <c r="L23" s="74"/>
       <c r="M23" s="74"/>
-      <c r="N23" s="33">
+      <c r="N23" s="33" t="n">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="O23" s="92">
         <v>2</v>
@@ -8504,13 +8510,13 @@
       <c r="E24" s="92">
         <v>9</v>
       </c>
-      <c r="F24" s="103">
+      <c r="F24" s="103" t="n">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H24" s="91"/>
       <c r="I24" s="74">
@@ -8520,9 +8526,9 @@
       <c r="K24" s="74"/>
       <c r="L24" s="74"/>
       <c r="M24" s="74"/>
-      <c r="N24" s="33">
+      <c r="N24" s="33" t="n">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O24" s="92">
         <v>1</v>
@@ -8567,13 +8573,13 @@
       <c r="E25" s="92">
         <v>5</v>
       </c>
-      <c r="F25" s="103">
+      <c r="F25" s="103" t="n">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="H25" s="91"/>
       <c r="I25" s="74"/>
@@ -8581,9 +8587,9 @@
       <c r="K25" s="74"/>
       <c r="L25" s="74"/>
       <c r="M25" s="74"/>
-      <c r="N25" s="33">
+      <c r="N25" s="33" t="n">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O25" s="92"/>
       <c r="P25" s="74">
@@ -8628,13 +8634,13 @@
       <c r="E26" s="92">
         <v>1</v>
       </c>
-      <c r="F26" s="103">
+      <c r="F26" s="103" t="n">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G26" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="G26" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H26" s="91">
         <v>1</v>
@@ -8644,9 +8650,9 @@
       <c r="K26" s="74"/>
       <c r="L26" s="74"/>
       <c r="M26" s="74"/>
-      <c r="N26" s="33">
+      <c r="N26" s="33" t="n">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O26" s="92"/>
       <c r="P26" s="74"/>
@@ -8687,13 +8693,13 @@
       <c r="E27" s="92">
         <v>16</v>
       </c>
-      <c r="F27" s="103">
+      <c r="F27" s="103" t="n">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="H27" s="91"/>
       <c r="I27" s="74">
@@ -8705,9 +8711,9 @@
       </c>
       <c r="L27" s="74"/>
       <c r="M27" s="74"/>
-      <c r="N27" s="33">
+      <c r="N27" s="33" t="n">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="O27" s="92">
         <v>2</v>
@@ -8752,13 +8758,13 @@
       <c r="E28" s="95">
         <v>56</v>
       </c>
-      <c r="F28" s="104">
+      <c r="F28" s="104" t="n">
         <f>E28/D28</f>
         <v>0.7567567567567568</v>
       </c>
-      <c r="G28" s="65">
+      <c r="G28" s="65" t="n">
         <f>D28-E28</f>
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="H28" s="94">
         <v>2</v>
@@ -8772,9 +8778,9 @@
       </c>
       <c r="L28" s="93"/>
       <c r="M28" s="93"/>
-      <c r="N28" s="33">
+      <c r="N28" s="33" t="n">
         <f>SUM(H28:M28)</f>
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="O28" s="92">
         <v>4</v>
@@ -8820,13 +8826,13 @@
       <c r="E29" s="92">
         <v>15</v>
       </c>
-      <c r="F29" s="103">
+      <c r="F29" s="103" t="n">
         <f t="shared" si="0"/>
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="G29" s="20">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="G29" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="H29" s="91">
         <v>1</v>
@@ -8840,9 +8846,9 @@
       </c>
       <c r="L29" s="74"/>
       <c r="M29" s="74"/>
-      <c r="N29" s="28">
+      <c r="N29" s="28" t="n">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="O29" s="90">
         <v>3</v>
@@ -8886,13 +8892,13 @@
       <c r="E30" s="92">
         <v>15</v>
       </c>
-      <c r="F30" s="103">
+      <c r="F30" s="103" t="n">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G30" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="G30" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H30" s="91">
         <v>1</v>
@@ -8904,9 +8910,9 @@
       </c>
       <c r="L30" s="74"/>
       <c r="M30" s="74"/>
-      <c r="N30" s="33">
+      <c r="N30" s="33" t="n">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="O30" s="92">
         <v>1</v>
@@ -8950,13 +8956,13 @@
       <c r="E31" s="92">
         <v>2</v>
       </c>
-      <c r="F31" s="103">
+      <c r="F31" s="103" t="n">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G31" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="G31" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H31" s="91"/>
       <c r="I31" s="74"/>
@@ -8964,9 +8970,9 @@
       <c r="K31" s="74"/>
       <c r="L31" s="74"/>
       <c r="M31" s="74"/>
-      <c r="N31" s="33">
+      <c r="N31" s="33" t="n">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O31" s="92"/>
       <c r="P31" s="74"/>
@@ -9006,13 +9012,13 @@
       <c r="E32" s="92">
         <v>17</v>
       </c>
-      <c r="F32" s="103">
+      <c r="F32" s="103" t="n">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G32" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="G32" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H32" s="91">
         <v>4</v>
@@ -9022,9 +9028,9 @@
       <c r="K32" s="74"/>
       <c r="L32" s="74"/>
       <c r="M32" s="74"/>
-      <c r="N32" s="33">
+      <c r="N32" s="33" t="n">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="O32" s="92"/>
       <c r="P32" s="74"/>
@@ -9064,13 +9070,13 @@
       <c r="E33" s="92">
         <v>8</v>
       </c>
-      <c r="F33" s="103">
+      <c r="F33" s="103" t="n">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G33" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="G33" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H33" s="91"/>
       <c r="I33" s="74"/>
@@ -9078,9 +9084,9 @@
       <c r="K33" s="74"/>
       <c r="L33" s="74"/>
       <c r="M33" s="74"/>
-      <c r="N33" s="33">
+      <c r="N33" s="33" t="n">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O33" s="92"/>
       <c r="P33" s="74"/>
@@ -9114,61 +9120,61 @@
         <v>28</v>
       </c>
       <c r="C34" s="106"/>
-      <c r="D34" s="47">
+      <c r="D34" s="47" t="n">
         <f>SUM(D6:D33)</f>
-        <v>542</v>
-      </c>
-      <c r="E34" s="47">
+        <v>542.0</v>
+      </c>
+      <c r="E34" s="47" t="n">
         <f>SUM(E6:E33)</f>
-        <v>441</v>
-      </c>
-      <c r="F34" s="69">
+        <v>448.0</v>
+      </c>
+      <c r="F34" s="69" t="n">
         <f t="shared" si="0"/>
-        <v>0.81365313653136528</v>
-      </c>
-      <c r="G34" s="47">
+        <v>0.8265682656826568</v>
+      </c>
+      <c r="G34" s="47" t="n">
         <f t="shared" ref="G34:Q34" si="3">SUM(G6:G33)</f>
-        <v>101</v>
-      </c>
-      <c r="H34" s="47">
+        <v>94.0</v>
+      </c>
+      <c r="H34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="I34" s="47">
+        <v>20.0</v>
+      </c>
+      <c r="I34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="J34" s="47">
+        <v>10.0</v>
+      </c>
+      <c r="J34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="K34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="L34" s="47">
+        <v>17.0</v>
+      </c>
+      <c r="L34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="M34" s="47">
+        <v>2.0</v>
+      </c>
+      <c r="M34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="N34" s="47">
+        <v>9.0</v>
+      </c>
+      <c r="N34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-      <c r="O34" s="47">
+        <v>58.0</v>
+      </c>
+      <c r="O34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="P34" s="47">
+        <v>44.0</v>
+      </c>
+      <c r="P34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="Q34" s="47">
+        <v>32.0</v>
+      </c>
+      <c r="Q34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -9334,13 +9340,13 @@
       <c r="E41" s="90">
         <v>16</v>
       </c>
-      <c r="F41" s="131">
+      <c r="F41" s="131" t="n">
         <f>E41/D41</f>
-        <v>1</v>
-      </c>
-      <c r="G41" s="122">
+        <v>1.0</v>
+      </c>
+      <c r="G41" s="122" t="n">
         <f t="shared" ref="G41:G53" si="4">D41-E41</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H41" s="90"/>
       <c r="I41" s="71">
@@ -9352,9 +9358,9 @@
       <c r="M41" s="70">
         <v>1</v>
       </c>
-      <c r="N41" s="132">
+      <c r="N41" s="132" t="n">
         <f t="shared" ref="N41:N53" si="5">SUM(H41:M41)</f>
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="O41" s="96">
         <v>1</v>
@@ -9382,13 +9388,13 @@
       <c r="E42" s="92">
         <v>2</v>
       </c>
-      <c r="F42" s="134">
+      <c r="F42" s="134" t="n">
         <f t="shared" ref="F42:F54" si="6">E42/D42</f>
-        <v>1</v>
-      </c>
-      <c r="G42" s="133">
+        <v>1.0</v>
+      </c>
+      <c r="G42" s="133" t="n">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H42" s="92"/>
       <c r="I42" s="135"/>
@@ -9396,9 +9402,9 @@
       <c r="K42" s="92"/>
       <c r="L42" s="135"/>
       <c r="M42" s="91"/>
-      <c r="N42" s="136">
+      <c r="N42" s="136" t="n">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O42" s="109"/>
       <c r="P42" s="135"/>
@@ -9420,13 +9426,13 @@
       <c r="E43" s="92">
         <v>2</v>
       </c>
-      <c r="F43" s="134">
+      <c r="F43" s="134" t="n">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G43" s="133">
+        <v>1.0</v>
+      </c>
+      <c r="G43" s="133" t="n">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H43" s="92"/>
       <c r="I43" s="135">
@@ -9436,9 +9442,9 @@
       <c r="K43" s="92"/>
       <c r="L43" s="135"/>
       <c r="M43" s="91"/>
-      <c r="N43" s="136">
+      <c r="N43" s="136" t="n">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="O43" s="109"/>
       <c r="P43" s="135"/>
@@ -9462,13 +9468,13 @@
       <c r="E44" s="135">
         <v>1</v>
       </c>
-      <c r="F44" s="134">
+      <c r="F44" s="134" t="n">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G44" s="133">
+        <v>1.0</v>
+      </c>
+      <c r="G44" s="133" t="n">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H44" s="92"/>
       <c r="I44" s="135"/>
@@ -9476,9 +9482,9 @@
       <c r="K44" s="92"/>
       <c r="L44" s="135"/>
       <c r="M44" s="91"/>
-      <c r="N44" s="136">
+      <c r="N44" s="136" t="n">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O44" s="109"/>
       <c r="P44" s="135"/>
@@ -9502,13 +9508,13 @@
       <c r="E45" s="135">
         <v>49</v>
       </c>
-      <c r="F45" s="134">
+      <c r="F45" s="134" t="n">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G45" s="133">
+        <v>1.0</v>
+      </c>
+      <c r="G45" s="133" t="n">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H45" s="92">
         <v>1</v>
@@ -9522,9 +9528,9 @@
       </c>
       <c r="L45" s="135"/>
       <c r="M45" s="91"/>
-      <c r="N45" s="136">
+      <c r="N45" s="136" t="n">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="O45" s="109">
         <v>1</v>
@@ -9548,13 +9554,13 @@
       <c r="E46" s="135">
         <v>1</v>
       </c>
-      <c r="F46" s="134">
+      <c r="F46" s="134" t="n">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G46" s="133">
+        <v>1.0</v>
+      </c>
+      <c r="G46" s="133" t="n">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H46" s="92"/>
       <c r="I46" s="135"/>
@@ -9562,9 +9568,9 @@
       <c r="K46" s="92"/>
       <c r="L46" s="135"/>
       <c r="M46" s="91"/>
-      <c r="N46" s="136">
+      <c r="N46" s="136" t="n">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O46" s="109"/>
       <c r="P46" s="135"/>
@@ -9588,13 +9594,13 @@
       <c r="E47" s="135">
         <v>1</v>
       </c>
-      <c r="F47" s="134">
+      <c r="F47" s="134" t="n">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G47" s="133">
+        <v>1.0</v>
+      </c>
+      <c r="G47" s="133" t="n">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H47" s="92"/>
       <c r="I47" s="135"/>
@@ -9602,9 +9608,9 @@
       <c r="K47" s="92"/>
       <c r="L47" s="135"/>
       <c r="M47" s="91"/>
-      <c r="N47" s="136">
+      <c r="N47" s="136" t="n">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O47" s="109"/>
       <c r="P47" s="135"/>
@@ -9626,13 +9632,13 @@
       <c r="E48" s="135">
         <v>11</v>
       </c>
-      <c r="F48" s="134">
+      <c r="F48" s="134" t="n">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G48" s="133">
+        <v>1.0</v>
+      </c>
+      <c r="G48" s="133" t="n">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H48" s="92"/>
       <c r="I48" s="135"/>
@@ -9642,9 +9648,9 @@
       </c>
       <c r="L48" s="135"/>
       <c r="M48" s="91"/>
-      <c r="N48" s="136">
+      <c r="N48" s="136" t="n">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="O48" s="109">
         <v>1</v>
@@ -9670,13 +9676,13 @@
       <c r="E49" s="135">
         <v>17</v>
       </c>
-      <c r="F49" s="134">
+      <c r="F49" s="134" t="n">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G49" s="133">
+        <v>1.0</v>
+      </c>
+      <c r="G49" s="133" t="n">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H49" s="92"/>
       <c r="I49" s="135">
@@ -9686,9 +9692,9 @@
       <c r="K49" s="92"/>
       <c r="L49" s="135"/>
       <c r="M49" s="91"/>
-      <c r="N49" s="136">
+      <c r="N49" s="136" t="n">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="O49" s="109"/>
       <c r="P49" s="135"/>
@@ -9712,13 +9718,13 @@
       <c r="E50" s="135">
         <v>4</v>
       </c>
-      <c r="F50" s="134">
+      <c r="F50" s="134" t="n">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G50" s="133">
+        <v>1.0</v>
+      </c>
+      <c r="G50" s="133" t="n">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H50" s="92"/>
       <c r="I50" s="135"/>
@@ -9726,9 +9732,9 @@
       <c r="K50" s="92"/>
       <c r="L50" s="135"/>
       <c r="M50" s="91"/>
-      <c r="N50" s="136">
+      <c r="N50" s="136" t="n">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O50" s="109"/>
       <c r="P50" s="135"/>
@@ -9750,13 +9756,13 @@
       <c r="E51" s="135">
         <v>1</v>
       </c>
-      <c r="F51" s="134">
+      <c r="F51" s="134" t="n">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G51" s="133">
+        <v>1.0</v>
+      </c>
+      <c r="G51" s="133" t="n">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H51" s="92"/>
       <c r="I51" s="135"/>
@@ -9764,9 +9770,9 @@
       <c r="K51" s="92"/>
       <c r="L51" s="135"/>
       <c r="M51" s="91"/>
-      <c r="N51" s="136">
+      <c r="N51" s="136" t="n">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O51" s="109"/>
       <c r="P51" s="141"/>
@@ -9788,13 +9794,13 @@
       <c r="E52" s="135">
         <v>1</v>
       </c>
-      <c r="F52" s="134">
+      <c r="F52" s="134" t="n">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G52" s="133">
+        <v>1.0</v>
+      </c>
+      <c r="G52" s="133" t="n">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H52" s="92"/>
       <c r="I52" s="135"/>
@@ -9802,9 +9808,9 @@
       <c r="K52" s="92"/>
       <c r="L52" s="135"/>
       <c r="M52" s="91"/>
-      <c r="N52" s="136">
+      <c r="N52" s="136" t="n">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O52" s="109"/>
       <c r="P52" s="135"/>
@@ -9828,13 +9834,13 @@
       <c r="E53" s="93">
         <v>20</v>
       </c>
-      <c r="F53" s="143">
+      <c r="F53" s="143" t="n">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G53" s="126">
+        <v>1.0</v>
+      </c>
+      <c r="G53" s="126" t="n">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H53" s="95"/>
       <c r="I53" s="93"/>
@@ -9842,9 +9848,9 @@
       <c r="K53" s="95"/>
       <c r="L53" s="93"/>
       <c r="M53" s="94"/>
-      <c r="N53" s="144">
+      <c r="N53" s="144" t="n">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O53" s="110"/>
       <c r="P53" s="93"/>
@@ -9860,58 +9866,58 @@
         <v>28</v>
       </c>
       <c r="C54" s="146"/>
-      <c r="D54" s="146">
+      <c r="D54" s="146" t="n">
         <f>SUM(D41:D53)</f>
-        <v>126</v>
-      </c>
-      <c r="E54" s="146">
+        <v>126.0</v>
+      </c>
+      <c r="E54" s="146" t="n">
         <f>SUM(E41:E53)</f>
-        <v>126</v>
-      </c>
-      <c r="F54" s="147">
+        <v>126.0</v>
+      </c>
+      <c r="F54" s="147" t="n">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G54" s="146">
+        <v>1.0</v>
+      </c>
+      <c r="G54" s="146" t="n">
         <f t="shared" ref="G54:Q54" si="7">SUM(G41:G53)</f>
-        <v>0</v>
-      </c>
-      <c r="H54" s="146">
+        <v>0.0</v>
+      </c>
+      <c r="H54" s="146" t="n">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I54" s="187">
+        <v>1.0</v>
+      </c>
+      <c r="I54" s="187" t="n">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="J54" s="146"/>
-      <c r="K54" s="146">
+      <c r="K54" s="146" t="n">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="L54" s="146">
+        <v>3.0</v>
+      </c>
+      <c r="L54" s="146" t="n">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M54" s="148">
+        <v>0.0</v>
+      </c>
+      <c r="M54" s="148" t="n">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N54" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="N54" s="148" t="n">
         <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="O54" s="148">
+        <v>18.0</v>
+      </c>
+      <c r="O54" s="148" t="n">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="P54" s="148">
+        <v>3.0</v>
+      </c>
+      <c r="P54" s="148" t="n">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Q54" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="Q54" s="148" t="n">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>13.0</v>
       </c>
     </row>
   </sheetData>

--- a/datafiles/21-11 Demand Sheet Puyallup.xlsx
+++ b/datafiles/21-11 Demand Sheet Puyallup.xlsx
@@ -1915,11 +1915,11 @@
       </c>
       <c r="E6" s="22" t="n">
         <f>+'Input Tab'!E6</f>
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F6" s="31" t="n">
         <f t="shared" ref="F6:F29" si="0">E6/D6</f>
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="G6" s="21" t="n">
         <f>'Input Tab'!H6</f>
@@ -2414,11 +2414,11 @@
       </c>
       <c r="E13" s="30" t="n">
         <f>+'Input Tab'!E18</f>
-        <v>114.0</v>
+        <v>115.0</v>
       </c>
       <c r="F13" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>0.8382352941176471</v>
+        <v>0.8455882352941176</v>
       </c>
       <c r="G13" s="30" t="n">
         <f>'Input Tab'!H18</f>
@@ -3801,15 +3801,15 @@
       </c>
       <c r="D33" s="16" t="n">
         <f>E6+E7</f>
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="E33" s="31" t="n">
         <f t="shared" ref="E33:E38" si="3">D33/C33</f>
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="F33" s="7" t="n">
         <f>C33-D33</f>
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G33" s="16" t="n">
         <f>G6+G7</f>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="Q33" s="44" t="n">
         <f t="shared" ref="Q33:Q38" si="5">L33/F33</f>
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -3931,15 +3931,15 @@
       </c>
       <c r="D35" s="16" t="n">
         <f>E12+E13+E14+E15+E16</f>
-        <v>128.0</v>
+        <v>129.0</v>
       </c>
       <c r="E35" s="31" t="n">
         <f t="shared" si="3"/>
-        <v>0.8205128205128205</v>
+        <v>0.8269230769230769</v>
       </c>
       <c r="F35" s="7" t="n">
         <f>C35-D35</f>
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="G35" s="16" t="n">
         <f>G12+G13+G14+G15+G16</f>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="Q35" s="34" t="n">
         <f t="shared" si="5"/>
-        <v>0.6071428571428571</v>
+        <v>0.6296296296296297</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
@@ -7566,16 +7566,16 @@
       <c r="D6" s="14">
         <v>2</v>
       </c>
-      <c r="E6" s="71">
-        <v>2</v>
+      <c r="E6" s="71" t="n">
+        <v>1.0</v>
       </c>
       <c r="F6" s="26" t="n">
         <f t="shared" ref="F6:F34" si="0">E6/D6</f>
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="G6" s="14" t="n">
         <f t="shared" ref="G6:G33" si="1">D6-E6</f>
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H6" s="70"/>
       <c r="I6" s="71"/>
@@ -8202,15 +8202,15 @@
         <v>136</v>
       </c>
       <c r="E18" s="91" t="n">
-        <v>114.0</v>
+        <v>115.0</v>
       </c>
       <c r="F18" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>0.8382352941176471</v>
+        <v>0.8455882352941176</v>
       </c>
       <c r="G18" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="H18" s="91" t="n">
         <v>9.0</v>

--- a/datafiles/21-11 Demand Sheet Puyallup.xlsx
+++ b/datafiles/21-11 Demand Sheet Puyallup.xlsx
@@ -2265,7 +2265,7 @@
       <c r="I11" s="30"/>
       <c r="J11" s="30" t="n">
         <f>'Input Tab'!K12+'Input Tab'!K13+'Input Tab'!K14+'Input Tab'!K15+'Input Tab'!K16</f>
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K11" s="30" t="n">
         <f>'Input Tab'!L12+'Input Tab'!L13+'Input Tab'!L14+'Input Tab'!L15+'Input Tab'!L16</f>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="M11" s="42" t="n">
         <f t="shared" si="1"/>
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="N11" s="23" t="n">
         <f>'Input Tab'!O12+'Input Tab'!O13+'Input Tab'!O14+'Input Tab'!O15+'Input Tab'!O16</f>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="Q11" s="34" t="n">
         <f t="shared" si="2"/>
-        <v>1.0</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -3658,7 +3658,7 @@
       <c r="I29" s="42"/>
       <c r="J29" s="42" t="n">
         <f>SUM(J6:J28)</f>
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="K29" s="50" t="n">
         <f>SUM(K6:K28)</f>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="M29" s="42" t="n">
         <f>SUM(G29:L29)</f>
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="N29" s="42" t="n">
         <f>SUM(N6:N28)</f>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="Q29" s="55" t="n">
         <f t="shared" si="2"/>
-        <v>0.7586206896551724</v>
+        <v>0.7457627118644068</v>
       </c>
     </row>
     <row r="30" spans="1:36" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="I34" s="16" t="n">
         <f>+J8+J9+J10+J11</f>
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="J34" s="16" t="n">
         <f>K8+K9+K10+K11</f>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="L34" s="15" t="n">
         <f>SUM(G34:K34)</f>
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="M34" s="16" t="n">
         <f>N8+N9+N10+N11</f>
@@ -3913,11 +3913,11 @@
       </c>
       <c r="P34" s="64" t="n">
         <f t="shared" si="4"/>
-        <v>0.9444444444444444</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="Q34" s="34" t="n">
         <f t="shared" si="5"/>
-        <v>0.8571428571428571</v>
+        <v>0.9047619047619048</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="I38" s="12" t="n">
         <f t="shared" si="7"/>
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="J38" s="12" t="n">
         <f t="shared" si="7"/>
@@ -4158,7 +4158,7 @@
       </c>
       <c r="L38" s="36" t="n">
         <f t="shared" si="7"/>
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="M38" s="12" t="n">
         <f t="shared" si="6"/>
@@ -4174,11 +4174,11 @@
       </c>
       <c r="P38" s="55" t="n">
         <f t="shared" si="4"/>
-        <v>0.7586206896551724</v>
+        <v>0.7457627118644068</v>
       </c>
       <c r="Q38" s="55" t="n">
         <f t="shared" si="5"/>
-        <v>0.6170212765957447</v>
+        <v>0.6276595744680851</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -4190,23 +4190,23 @@
       <c r="F39" s="7"/>
       <c r="G39" s="59" t="n">
         <f>G38/L38</f>
-        <v>0.3448275862068966</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="H39" s="59" t="n">
         <f>H38/L38</f>
-        <v>0.1724137931034483</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="I39" s="59" t="n">
         <f>I38/L38</f>
-        <v>0.29310344827586204</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="J39" s="59" t="n">
         <f>J38/L38</f>
-        <v>0.034482758620689655</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="K39" s="59" t="n">
         <f>K38/L38</f>
-        <v>0.15517241379310345</v>
+        <v>0.15254237288135594</v>
       </c>
       <c r="L39" s="67" t="n">
         <f>L38/L38</f>
@@ -8088,7 +8088,7 @@
       </c>
       <c r="J16" s="93"/>
       <c r="K16" s="93" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="L16" s="93">
         <v>1</v>
@@ -8098,7 +8098,7 @@
       </c>
       <c r="N16" s="42" t="n">
         <f t="shared" si="2"/>
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="O16" s="95" t="n">
         <v>12.0</v>
@@ -9150,7 +9150,7 @@
       </c>
       <c r="K34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="L34" s="47" t="n">
         <f t="shared" si="3"/>
@@ -9162,7 +9162,7 @@
       </c>
       <c r="N34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="O34" s="47" t="n">
         <f t="shared" si="3"/>

--- a/datafiles/21-11 Demand Sheet Puyallup.xlsx
+++ b/datafiles/21-11 Demand Sheet Puyallup.xlsx
@@ -2265,7 +2265,7 @@
       <c r="I11" s="30"/>
       <c r="J11" s="30" t="n">
         <f>'Input Tab'!K12+'Input Tab'!K13+'Input Tab'!K14+'Input Tab'!K15+'Input Tab'!K16</f>
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="K11" s="30" t="n">
         <f>'Input Tab'!L12+'Input Tab'!L13+'Input Tab'!L14+'Input Tab'!L15+'Input Tab'!L16</f>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="M11" s="42" t="n">
         <f t="shared" si="1"/>
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="N11" s="23" t="n">
         <f>'Input Tab'!O12+'Input Tab'!O13+'Input Tab'!O14+'Input Tab'!O15+'Input Tab'!O16</f>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="Q11" s="34" t="n">
         <f t="shared" si="2"/>
-        <v>0.9230769230769231</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -3658,7 +3658,7 @@
       <c r="I29" s="42"/>
       <c r="J29" s="42" t="n">
         <f>SUM(J6:J28)</f>
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="K29" s="50" t="n">
         <f>SUM(K6:K28)</f>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="M29" s="42" t="n">
         <f>SUM(G29:L29)</f>
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="N29" s="42" t="n">
         <f>SUM(N6:N28)</f>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="Q29" s="55" t="n">
         <f t="shared" si="2"/>
-        <v>0.7457627118644068</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="30" spans="1:36" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="I34" s="16" t="n">
         <f>+J8+J9+J10+J11</f>
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="J34" s="16" t="n">
         <f>K8+K9+K10+K11</f>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="L34" s="15" t="n">
         <f>SUM(G34:K34)</f>
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="M34" s="16" t="n">
         <f>N8+N9+N10+N11</f>
@@ -3913,11 +3913,11 @@
       </c>
       <c r="P34" s="64" t="n">
         <f t="shared" si="4"/>
-        <v>0.8947368421052632</v>
+        <v>0.85</v>
       </c>
       <c r="Q34" s="34" t="n">
         <f t="shared" si="5"/>
-        <v>0.9047619047619048</v>
+        <v>0.9523809523809523</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="I38" s="12" t="n">
         <f t="shared" si="7"/>
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="J38" s="12" t="n">
         <f t="shared" si="7"/>
@@ -4158,7 +4158,7 @@
       </c>
       <c r="L38" s="36" t="n">
         <f t="shared" si="7"/>
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="M38" s="12" t="n">
         <f t="shared" si="6"/>
@@ -4174,11 +4174,11 @@
       </c>
       <c r="P38" s="55" t="n">
         <f t="shared" si="4"/>
-        <v>0.7457627118644068</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="Q38" s="55" t="n">
         <f t="shared" si="5"/>
-        <v>0.6276595744680851</v>
+        <v>0.6382978723404256</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -4190,23 +4190,23 @@
       <c r="F39" s="7"/>
       <c r="G39" s="59" t="n">
         <f>G38/L38</f>
-        <v>0.3389830508474576</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H39" s="59" t="n">
         <f>H38/L38</f>
-        <v>0.1694915254237288</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I39" s="59" t="n">
         <f>I38/L38</f>
-        <v>0.3050847457627119</v>
+        <v>0.31666666666666665</v>
       </c>
       <c r="J39" s="59" t="n">
         <f>J38/L38</f>
-        <v>0.03389830508474576</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="K39" s="59" t="n">
         <f>K38/L38</f>
-        <v>0.15254237288135594</v>
+        <v>0.15</v>
       </c>
       <c r="L39" s="67" t="n">
         <f>L38/L38</f>
@@ -8088,7 +8088,7 @@
       </c>
       <c r="J16" s="93"/>
       <c r="K16" s="93" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="L16" s="93">
         <v>1</v>
@@ -8098,7 +8098,7 @@
       </c>
       <c r="N16" s="42" t="n">
         <f t="shared" si="2"/>
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="O16" s="95" t="n">
         <v>12.0</v>
@@ -9150,7 +9150,7 @@
       </c>
       <c r="K34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="L34" s="47" t="n">
         <f t="shared" si="3"/>
@@ -9162,7 +9162,7 @@
       </c>
       <c r="N34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="O34" s="47" t="n">
         <f t="shared" si="3"/>

--- a/datafiles/21-11 Demand Sheet Puyallup.xlsx
+++ b/datafiles/21-11 Demand Sheet Puyallup.xlsx
@@ -1915,11 +1915,11 @@
       </c>
       <c r="E6" s="22" t="n">
         <f>+'Input Tab'!E6</f>
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F6" s="31" t="n">
         <f t="shared" ref="F6:F29" si="0">E6/D6</f>
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="G6" s="21" t="n">
         <f>'Input Tab'!H6</f>
@@ -1927,12 +1927,12 @@
       </c>
       <c r="H6" s="27" t="n">
         <f>'Input Tab'!I6</f>
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="27" t="n">
         <f>'Input Tab'!K6</f>
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K6" s="27" t="n">
         <f>'Input Tab'!L6</f>
@@ -1944,23 +1944,23 @@
       </c>
       <c r="M6" s="28" t="n">
         <f t="shared" ref="M6:M28" si="1">H6+I6+J6+K6+L6+G6</f>
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="N6" s="22" t="n">
         <f>'Input Tab'!O6</f>
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="O6" s="22" t="n">
         <f>'Input Tab'!P6</f>
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P6" s="22" t="n">
         <f>'Input Tab'!Q6</f>
         <v>1.0</v>
       </c>
-      <c r="Q6" s="34" t="e">
+      <c r="Q6" s="34" t="n">
         <f t="shared" ref="Q6:Q29" si="2">N6/M6</f>
-        <v>#DIV/0!</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
@@ -1979,11 +1979,11 @@
       </c>
       <c r="E7" s="39" t="n">
         <f>+'Input Tab'!E7</f>
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="F7" s="40" t="n">
         <f t="shared" si="0"/>
-        <v>0.8695652173913043</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="G7" s="39" t="n">
         <f>'Input Tab'!H7</f>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="O7" s="39" t="n">
         <f>'Input Tab'!P7</f>
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="P7" s="38" t="n">
         <f>'Input Tab'!Q7</f>
@@ -2041,11 +2041,11 @@
       </c>
       <c r="E8" s="30" t="n">
         <f>'Input Tab'!E8+'Input Tab'!E9</f>
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F8" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G8" s="30" t="n">
         <f>'Input Tab'!H8+'Input Tab'!H9</f>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="E9" s="30" t="n">
         <f>+'Input Tab'!E11</f>
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="F9" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>1.0</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="G9" s="30" t="n">
         <f>'Input Tab'!H11</f>
@@ -2120,7 +2120,7 @@
       <c r="I9" s="30"/>
       <c r="J9" s="30" t="n">
         <f>'Input Tab'!K11</f>
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K9" s="30" t="n">
         <f>'Input Tab'!L11</f>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="M9" s="33" t="n">
         <f t="shared" si="1"/>
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="N9" s="23" t="n">
         <f>'Input Tab'!O11</f>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="Q9" s="34" t="n">
         <f t="shared" si="2"/>
-        <v>0.6666666666666666</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E10" s="30" t="n">
         <f>+'Input Tab'!E10</f>
-        <v>39.0</v>
+        <v>42.0</v>
       </c>
       <c r="F10" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>0.8125</v>
+        <v>0.875</v>
       </c>
       <c r="G10" s="30" t="n">
         <f>'Input Tab'!H10</f>
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H10" s="30" t="n">
         <f>'Input Tab'!I10</f>
@@ -2196,11 +2196,11 @@
       </c>
       <c r="M10" s="33" t="n">
         <f t="shared" si="1"/>
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="N10" s="23" t="n">
         <f>'Input Tab'!O10</f>
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="O10" s="30" t="n">
         <f>'Input Tab'!P10</f>
@@ -2248,11 +2248,11 @@
       </c>
       <c r="E11" s="30" t="n">
         <f>+'Input Tab'!E12+'Input Tab'!E13+'Input Tab'!E14+'Input Tab'!E15+'Input Tab'!E16</f>
-        <v>49.0</v>
+        <v>45.0</v>
       </c>
       <c r="F11" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>0.8166666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="G11" s="30" t="n">
         <f>'Input Tab'!H12+'Input Tab'!H13+'Input Tab'!H14+'Input Tab'!H15+'Input Tab'!H16</f>
@@ -2265,7 +2265,7 @@
       <c r="I11" s="30"/>
       <c r="J11" s="30" t="n">
         <f>'Input Tab'!K12+'Input Tab'!K13+'Input Tab'!K14+'Input Tab'!K15+'Input Tab'!K16</f>
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="K11" s="30" t="n">
         <f>'Input Tab'!L12+'Input Tab'!L13+'Input Tab'!L14+'Input Tab'!L15+'Input Tab'!L16</f>
@@ -2277,15 +2277,15 @@
       </c>
       <c r="M11" s="42" t="n">
         <f t="shared" si="1"/>
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="N11" s="23" t="n">
         <f>'Input Tab'!O12+'Input Tab'!O13+'Input Tab'!O14+'Input Tab'!O15+'Input Tab'!O16</f>
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="O11" s="30" t="n">
         <f>'Input Tab'!P12+'Input Tab'!P13+'Input Tab'!P14+'Input Tab'!P15+'Input Tab'!P16</f>
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="P11" s="38" t="n">
         <f>'Input Tab'!Q12+'Input Tab'!Q13+'Input Tab'!Q14+'Input Tab'!Q15+'Input Tab'!Q16</f>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="Q11" s="34" t="n">
         <f t="shared" si="2"/>
-        <v>0.8571428571428571</v>
+        <v>1.0</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -2414,40 +2414,40 @@
       </c>
       <c r="E13" s="30" t="n">
         <f>+'Input Tab'!E18</f>
-        <v>115.0</v>
+        <v>129.0</v>
       </c>
       <c r="F13" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>0.8455882352941176</v>
+        <v>0.9485294117647058</v>
       </c>
       <c r="G13" s="30" t="n">
         <f>'Input Tab'!H18</f>
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="H13" s="30" t="n">
         <f>'Input Tab'!I18</f>
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I13" s="30"/>
       <c r="J13" s="30" t="n">
         <f>'Input Tab'!K18</f>
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="K13" s="30" t="n">
         <f>'Input Tab'!L18</f>
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="L13" s="32" t="n">
         <f>+'Input Tab'!M18</f>
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M13" s="33" t="n">
         <f t="shared" si="1"/>
-        <v>17.0</v>
+        <v>24.0</v>
       </c>
       <c r="N13" s="23" t="n">
         <f>'Input Tab'!O18</f>
-        <v>12.0</v>
+        <v>22.0</v>
       </c>
       <c r="O13" s="30" t="n">
         <f>'Input Tab'!P18</f>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="Q13" s="34" t="n">
         <f t="shared" si="2"/>
-        <v>0.7058823529411765</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.2">
@@ -2478,11 +2478,11 @@
       </c>
       <c r="E14" s="30" t="n">
         <f>'Input Tab'!E19</f>
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F14" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="G14" s="30" t="n">
         <f>'Input Tab'!H19</f>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="O14" s="30" t="n">
         <f>'Input Tab'!P19</f>
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P14" s="23" t="n">
         <f>'Input Tab'!Q19</f>
@@ -2770,11 +2770,11 @@
       </c>
       <c r="E18" s="30" t="n">
         <f>'Input Tab'!E23</f>
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="F18" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>0.6428571428571429</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="G18" s="30" t="n">
         <f>'Input Tab'!H23</f>
@@ -2787,7 +2787,7 @@
       <c r="I18" s="30"/>
       <c r="J18" s="30" t="n">
         <f>'Input Tab'!K23</f>
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K18" s="30" t="n">
         <f>'Input Tab'!L23</f>
@@ -2799,11 +2799,11 @@
       </c>
       <c r="M18" s="33" t="n">
         <f t="shared" si="1"/>
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="N18" s="23" t="n">
         <f>'Input Tab'!O23</f>
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="O18" s="30" t="n">
         <f>'Input Tab'!P23</f>
@@ -3515,7 +3515,7 @@
       <c r="I27" s="30"/>
       <c r="J27" s="30" t="n">
         <f>'Input Tab'!K32</f>
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K27" s="30" t="n">
         <f>'Input Tab'!L32</f>
@@ -3527,15 +3527,15 @@
       </c>
       <c r="M27" s="33" t="n">
         <f t="shared" si="1"/>
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="N27" s="23" t="n">
         <f>'Input Tab'!O32</f>
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O27" s="30" t="n">
         <f>'Input Tab'!P32</f>
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P27" s="23" t="n">
         <f>'Input Tab'!Q32</f>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="Q27" s="34" t="n">
         <f t="shared" si="2"/>
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -3579,11 +3579,11 @@
       </c>
       <c r="E28" s="39" t="n">
         <f>'Input Tab'!E33</f>
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="F28" s="40" t="n">
         <f t="shared" si="0"/>
-        <v>1.0</v>
+        <v>0.875</v>
       </c>
       <c r="G28" s="39" t="n">
         <f>'Input Tab'!H33</f>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="O28" s="39" t="n">
         <f>'Input Tab'!P33</f>
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P28" s="23" t="n">
         <f>'Input Tab'!Q33</f>
@@ -3641,52 +3641,52 @@
       </c>
       <c r="E29" s="50" t="n">
         <f>SUM(E6:E28)</f>
-        <v>448.0</v>
+        <v>455.0</v>
       </c>
       <c r="F29" s="54" t="n">
         <f t="shared" si="0"/>
-        <v>0.8265682656826568</v>
+        <v>0.8394833948339483</v>
       </c>
       <c r="G29" s="42" t="n">
         <f>SUM(G6:G28)</f>
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="H29" s="42" t="n">
         <f>SUM(H6:H28)</f>
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="I29" s="42"/>
       <c r="J29" s="42" t="n">
         <f>SUM(J6:J28)</f>
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="K29" s="50" t="n">
         <f>SUM(K6:K28)</f>
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="L29" s="42" t="n">
         <f>SUM(L6:L28)</f>
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M29" s="42" t="n">
         <f>SUM(G29:L29)</f>
-        <v>60.0</v>
+        <v>66.0</v>
       </c>
       <c r="N29" s="42" t="n">
         <f>SUM(N6:N28)</f>
-        <v>44.0</v>
+        <v>56.0</v>
       </c>
       <c r="O29" s="50" t="n">
         <f>SUM(O6:O28)</f>
-        <v>32.0</v>
+        <v>37.0</v>
       </c>
       <c r="P29" s="191" t="n">
         <f>+N29-O3:O29</f>
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="Q29" s="55" t="n">
         <f t="shared" si="2"/>
-        <v>0.7333333333333333</v>
+        <v>0.8484848484848485</v>
       </c>
     </row>
     <row r="30" spans="1:36" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3801,15 +3801,15 @@
       </c>
       <c r="D33" s="16" t="n">
         <f>E6+E7</f>
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="E33" s="31" t="n">
         <f t="shared" ref="E33:E38" si="3">D33/C33</f>
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
       <c r="F33" s="7" t="n">
         <f>C33-D33</f>
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="G33" s="16" t="n">
         <f>G6+G7</f>
@@ -3817,11 +3817,11 @@
       </c>
       <c r="H33" s="16" t="n">
         <f>H6+H7</f>
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I33" s="16" t="n">
         <f>J6+J7</f>
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J33" s="16" t="n">
         <f>K6+K7</f>
@@ -3833,26 +3833,26 @@
       </c>
       <c r="L33" s="15" t="n">
         <f>SUM(G33:K33)</f>
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="M33" s="16" t="n">
         <f>N6+N7</f>
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="N33" s="16" t="n">
         <f>O6+O7</f>
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="O33" s="16">
         <v>4</v>
       </c>
       <c r="P33" s="64" t="n">
         <f t="shared" ref="P33:P38" si="4">M33/L33</f>
-        <v>0.0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q33" s="44" t="n">
         <f t="shared" ref="Q33:Q38" si="5">L33/F33</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="D34" s="16" t="n">
         <f>E8+E9+E10+E11</f>
-        <v>114.0</v>
+        <v>110.0</v>
       </c>
       <c r="E34" s="31" t="n">
         <f t="shared" si="3"/>
-        <v>0.8444444444444444</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="F34" s="7" t="n">
         <f>C34-D34</f>
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="G34" s="16" t="n">
         <f>G8+G9+G10+G11</f>
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H34" s="16" t="n">
         <f>H8+H9+H10+H11</f>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="I34" s="16" t="n">
         <f>+J8+J9+J10+J11</f>
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="J34" s="16" t="n">
         <f>K8+K9+K10+K11</f>
@@ -3898,26 +3898,26 @@
       </c>
       <c r="L34" s="15" t="n">
         <f>SUM(G34:K34)</f>
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="M34" s="16" t="n">
         <f>N8+N9+N10+N11</f>
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="N34" s="16" t="n">
         <f>O8+O9+O10+O11</f>
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="O34" s="16">
         <v>13</v>
       </c>
       <c r="P34" s="64" t="n">
         <f t="shared" si="4"/>
-        <v>0.85</v>
+        <v>1.0</v>
       </c>
       <c r="Q34" s="34" t="n">
         <f t="shared" si="5"/>
-        <v>0.9523809523809523</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -3931,58 +3931,58 @@
       </c>
       <c r="D35" s="16" t="n">
         <f>E12+E13+E14+E15+E16</f>
-        <v>129.0</v>
+        <v>142.0</v>
       </c>
       <c r="E35" s="31" t="n">
         <f t="shared" si="3"/>
-        <v>0.8269230769230769</v>
+        <v>0.9102564102564102</v>
       </c>
       <c r="F35" s="7" t="n">
         <f>C35-D35</f>
-        <v>27.0</v>
+        <v>14.0</v>
       </c>
       <c r="G35" s="16" t="n">
         <f>G12+G13+G14+G15+G16</f>
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="H35" s="16" t="n">
         <f>H12+H13+H14+H15+H16</f>
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I35" s="16" t="n">
         <f>+J12+J13+J14+J16+J15</f>
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="J35" s="16" t="n">
         <f>K12+K13+K14+K15+K16</f>
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K35" s="16" t="n">
         <f>L12+L13+L14+L15+L16</f>
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L35" s="15" t="n">
         <f>SUM(G35:K35)</f>
-        <v>17.0</v>
+        <v>24.0</v>
       </c>
       <c r="M35" s="16" t="n">
         <f>N12+N13+N14+N15+N16</f>
-        <v>12.0</v>
+        <v>22.0</v>
       </c>
       <c r="N35" s="16" t="n">
         <f>O12+O13+O14+O15+O16</f>
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="O35" s="16">
         <v>9</v>
       </c>
       <c r="P35" s="64" t="n">
         <f t="shared" si="4"/>
-        <v>0.7058823529411765</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="Q35" s="34" t="n">
         <f t="shared" si="5"/>
-        <v>0.6296296296296297</v>
+        <v>1.7142857142857142</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
@@ -3996,15 +3996,15 @@
       </c>
       <c r="D36" s="16" t="n">
         <f>E17+E18+E19+E20+E21+E22+E23</f>
-        <v>127.0</v>
+        <v>128.0</v>
       </c>
       <c r="E36" s="31" t="n">
         <f t="shared" si="3"/>
-        <v>0.7604790419161677</v>
+        <v>0.7664670658682635</v>
       </c>
       <c r="F36" s="7" t="n">
         <f>C36-D36</f>
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="G36" s="16" t="n">
         <f>+G17+G18+G19+G20+G21+G22+G23</f>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="I36" s="116" t="n">
         <f>+J17+J18+J19+J20+J21+J22+J23</f>
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="J36" s="116" t="n">
         <f>+K17+K18+K19+K20+K21+K22+K23</f>
@@ -4028,11 +4028,11 @@
       </c>
       <c r="L36" s="15" t="n">
         <f>SUM(G36:K36)</f>
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="M36" s="16" t="n">
         <f>N17+N18+N19+N20+N21+N22+N23</f>
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="N36" s="16" t="n">
         <f>O17+O18+O19+O20+O21+O22+O23</f>
@@ -4043,11 +4043,11 @@
       </c>
       <c r="P36" s="64" t="n">
         <f t="shared" si="4"/>
-        <v>0.8461538461538461</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="Q36" s="34" t="n">
         <f t="shared" si="5"/>
-        <v>0.325</v>
+        <v>0.358974358974359</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
@@ -4061,15 +4061,15 @@
       </c>
       <c r="D37" s="43" t="n">
         <f>E24+E25+E26+E27+E28</f>
-        <v>57.0</v>
+        <v>56.0</v>
       </c>
       <c r="E37" s="31" t="n">
         <f t="shared" si="3"/>
-        <v>0.9661016949152542</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="F37" s="7" t="n">
         <f>C37-D37</f>
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G37" s="43" t="n">
         <f>G24+G25+G26+G27+G28</f>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="I37" s="117" t="n">
         <f>J24+J25+J26+J27+J28</f>
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J37" s="117" t="n">
         <f>K24+K25+K26+K27+K28</f>
@@ -4093,26 +4093,26 @@
       </c>
       <c r="L37" s="36" t="n">
         <f>SUM(G37:K37)</f>
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M37" s="43" t="n">
         <f>N24+N25+N26+N27+N28</f>
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="N37" s="43" t="n">
         <f>O24+O25+O26+O27+O28</f>
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="O37" s="43">
         <v>6</v>
       </c>
       <c r="P37" s="64" t="n">
         <f t="shared" si="4"/>
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="Q37" s="51" t="n">
         <f t="shared" si="5"/>
-        <v>4.5</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -4126,47 +4126,47 @@
       </c>
       <c r="D38" s="12" t="n">
         <f>SUM(D33:D37)</f>
-        <v>448.0</v>
+        <v>455.0</v>
       </c>
       <c r="E38" s="49" t="n">
         <f t="shared" si="3"/>
-        <v>0.8265682656826568</v>
+        <v>0.8394833948339483</v>
       </c>
       <c r="F38" s="12" t="n">
         <f t="shared" ref="F38:O38" si="6">SUM(F33:F37)</f>
-        <v>94.0</v>
+        <v>87.0</v>
       </c>
       <c r="G38" s="65" t="n">
         <f t="shared" ref="G38:L38" si="7">SUM(G33:G37)</f>
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="H38" s="65" t="n">
         <f t="shared" si="7"/>
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="I38" s="12" t="n">
         <f t="shared" si="7"/>
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="J38" s="12" t="n">
         <f t="shared" si="7"/>
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="K38" s="37" t="n">
         <f t="shared" si="7"/>
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="L38" s="36" t="n">
         <f t="shared" si="7"/>
-        <v>60.0</v>
+        <v>66.0</v>
       </c>
       <c r="M38" s="12" t="n">
         <f t="shared" si="6"/>
-        <v>44.0</v>
+        <v>56.0</v>
       </c>
       <c r="N38" s="12" t="n">
         <f t="shared" si="6"/>
-        <v>32.0</v>
+        <v>37.0</v>
       </c>
       <c r="O38" s="12" t="n">
         <f t="shared" si="6"/>
@@ -4174,11 +4174,11 @@
       </c>
       <c r="P38" s="55" t="n">
         <f t="shared" si="4"/>
-        <v>0.7333333333333333</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="Q38" s="55" t="n">
         <f t="shared" si="5"/>
-        <v>0.6382978723404256</v>
+        <v>0.7586206896551724</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -4194,19 +4194,19 @@
       </c>
       <c r="H39" s="59" t="n">
         <f>H38/L38</f>
-        <v>0.16666666666666666</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="I39" s="59" t="n">
         <f>I38/L38</f>
-        <v>0.31666666666666665</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="J39" s="59" t="n">
         <f>J38/L38</f>
-        <v>0.03333333333333333</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="K39" s="59" t="n">
         <f>K38/L38</f>
-        <v>0.15</v>
+        <v>0.15151515151515152</v>
       </c>
       <c r="L39" s="67" t="n">
         <f>L38/L38</f>
@@ -7567,28 +7567,36 @@
         <v>2</v>
       </c>
       <c r="E6" s="71" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F6" s="26" t="n">
         <f t="shared" ref="F6:F34" si="0">E6/D6</f>
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="G6" s="14" t="n">
         <f t="shared" ref="G6:G33" si="1">D6-E6</f>
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H6" s="70"/>
-      <c r="I6" s="71"/>
+      <c r="I6" s="71" t="n">
+        <v>1.0</v>
+      </c>
       <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="K6" s="71" t="n">
+        <v>1.0</v>
+      </c>
       <c r="L6" s="71"/>
       <c r="M6" s="71"/>
       <c r="N6" s="28" t="n">
         <f t="shared" ref="N6:N33" si="2">SUM(H6:M6)</f>
-        <v>0.0</v>
-      </c>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
+        <v>2.0</v>
+      </c>
+      <c r="O6" s="90" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P6" s="90" t="n">
+        <v>2.0</v>
+      </c>
       <c r="Q6" s="111">
         <v>1</v>
       </c>
@@ -7606,16 +7614,16 @@
       <c r="D7" s="38">
         <v>23</v>
       </c>
-      <c r="E7" s="93">
-        <v>20</v>
+      <c r="E7" s="93" t="n">
+        <v>19.0</v>
       </c>
       <c r="F7" s="40" t="n">
         <f t="shared" si="0"/>
-        <v>0.8695652173913043</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="G7" s="36" t="n">
         <f t="shared" si="1"/>
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H7" s="94"/>
       <c r="I7" s="93"/>
@@ -7630,8 +7638,8 @@
         <v>1.0</v>
       </c>
       <c r="O7" s="92"/>
-      <c r="P7" s="95">
-        <v>2</v>
+      <c r="P7" s="95" t="n">
+        <v>3.0</v>
       </c>
       <c r="Q7" s="113">
         <v>3</v>
@@ -7690,16 +7698,16 @@
       <c r="D9" s="15">
         <v>2</v>
       </c>
-      <c r="E9" s="74">
-        <v>2</v>
+      <c r="E9" s="74" t="n">
+        <v>1.0</v>
       </c>
       <c r="F9" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="G9" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H9" s="91"/>
       <c r="I9" s="74"/>
@@ -7728,18 +7736,20 @@
       <c r="D10" s="15">
         <v>48</v>
       </c>
-      <c r="E10" s="74">
-        <v>39</v>
+      <c r="E10" s="74" t="n">
+        <v>42.0</v>
       </c>
       <c r="F10" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>0.8125</v>
+        <v>0.875</v>
       </c>
       <c r="G10" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>9.0</v>
-      </c>
-      <c r="H10" s="91"/>
+        <v>6.0</v>
+      </c>
+      <c r="H10" s="91" t="n">
+        <v>3.0</v>
+      </c>
       <c r="I10" s="74"/>
       <c r="J10" s="74"/>
       <c r="K10" s="74">
@@ -7751,10 +7761,10 @@
       </c>
       <c r="N10" s="33" t="n">
         <f t="shared" si="2"/>
-        <v>3.0</v>
-      </c>
-      <c r="O10" s="92">
-        <v>3</v>
+        <v>6.0</v>
+      </c>
+      <c r="O10" s="92" t="n">
+        <v>6.0</v>
       </c>
       <c r="P10" s="92">
         <v>2</v>
@@ -7776,30 +7786,28 @@
       <c r="D11" s="23">
         <v>23</v>
       </c>
-      <c r="E11" s="74">
-        <v>23</v>
+      <c r="E11" s="74" t="n">
+        <v>21.0</v>
       </c>
       <c r="F11" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>1.0</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="G11" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H11" s="91"/>
       <c r="I11" s="74"/>
       <c r="J11" s="74"/>
-      <c r="K11" s="74" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="K11" s="74"/>
       <c r="L11" s="74"/>
       <c r="M11" s="74">
         <v>2</v>
       </c>
       <c r="N11" s="33" t="n">
         <f t="shared" si="2"/>
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="O11" s="92">
         <v>2</v>
@@ -7896,16 +7904,16 @@
       <c r="D13" s="15">
         <v>2</v>
       </c>
-      <c r="E13" s="74" t="n">
-        <v>0.0</v>
+      <c r="E13" s="74">
+        <v>1</v>
       </c>
       <c r="F13" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="G13" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H13" s="91"/>
       <c r="I13" s="74"/>
@@ -7918,9 +7926,7 @@
         <v>0.0</v>
       </c>
       <c r="O13" s="92"/>
-      <c r="P13" s="92" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="P13" s="92"/>
       <c r="Q13" s="112">
         <v>1</v>
       </c>
@@ -8069,16 +8075,16 @@
       <c r="D16" s="36">
         <v>48</v>
       </c>
-      <c r="E16" s="93" t="n">
-        <v>41.0</v>
+      <c r="E16" s="93">
+        <v>36</v>
       </c>
       <c r="F16" s="40" t="n">
         <f t="shared" si="0"/>
-        <v>0.8541666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="G16" s="36" t="n">
         <f t="shared" si="1"/>
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="H16" s="94">
         <v>1</v>
@@ -8087,9 +8093,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="93"/>
-      <c r="K16" s="93" t="n">
-        <v>7.0</v>
-      </c>
+      <c r="K16" s="93"/>
       <c r="L16" s="93">
         <v>1</v>
       </c>
@@ -8098,10 +8102,10 @@
       </c>
       <c r="N16" s="42" t="n">
         <f t="shared" si="2"/>
-        <v>14.0</v>
-      </c>
-      <c r="O16" s="95" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="O16" s="95">
+        <v>7</v>
       </c>
       <c r="P16" s="95">
         <v>3</v>
@@ -8202,38 +8206,38 @@
         <v>136</v>
       </c>
       <c r="E18" s="91" t="n">
-        <v>115.0</v>
+        <v>129.0</v>
       </c>
       <c r="F18" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>0.8455882352941176</v>
+        <v>0.9485294117647058</v>
       </c>
       <c r="G18" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="H18" s="91" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="I18" s="74">
-        <v>2</v>
+        <v>8.0</v>
+      </c>
+      <c r="I18" s="74" t="n">
+        <v>3.0</v>
       </c>
       <c r="J18" s="74"/>
       <c r="K18" s="74" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="L18" s="74">
-        <v>1</v>
-      </c>
-      <c r="M18" s="74">
-        <v>1</v>
+        <v>8.0</v>
+      </c>
+      <c r="L18" s="74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M18" s="74" t="n">
+        <v>2.0</v>
       </c>
       <c r="N18" s="33" t="n">
         <f t="shared" si="2"/>
-        <v>17.0</v>
-      </c>
-      <c r="O18" s="92">
-        <v>12</v>
+        <v>24.0</v>
+      </c>
+      <c r="O18" s="92" t="n">
+        <v>22.0</v>
       </c>
       <c r="P18" s="74">
         <v>5</v>
@@ -8255,16 +8259,16 @@
       <c r="D19" s="16">
         <v>2</v>
       </c>
-      <c r="E19" s="91">
-        <v>2</v>
+      <c r="E19" s="91" t="n">
+        <v>1.0</v>
       </c>
       <c r="F19" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="G19" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H19" s="91"/>
       <c r="I19" s="74"/>
@@ -8277,7 +8281,9 @@
         <v>0.0</v>
       </c>
       <c r="O19" s="92"/>
-      <c r="P19" s="74"/>
+      <c r="P19" s="74" t="n">
+        <v>1.0</v>
+      </c>
       <c r="Q19" s="112">
         <v>1</v>
       </c>
@@ -8442,33 +8448,33 @@
       <c r="D23" s="16">
         <v>28</v>
       </c>
-      <c r="E23" s="92">
-        <v>18</v>
+      <c r="E23" s="92" t="n">
+        <v>19.0</v>
       </c>
       <c r="F23" s="103" t="n">
         <f t="shared" si="0"/>
-        <v>0.6428571428571429</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="G23" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="H23" s="91"/>
       <c r="I23" s="74">
         <v>1</v>
       </c>
       <c r="J23" s="74"/>
-      <c r="K23" s="74">
-        <v>1</v>
+      <c r="K23" s="74" t="n">
+        <v>2.0</v>
       </c>
       <c r="L23" s="74"/>
       <c r="M23" s="74"/>
       <c r="N23" s="33" t="n">
         <f t="shared" si="2"/>
-        <v>2.0</v>
-      </c>
-      <c r="O23" s="92">
-        <v>2</v>
+        <v>3.0</v>
+      </c>
+      <c r="O23" s="92" t="n">
+        <v>3.0</v>
       </c>
       <c r="P23" s="74">
         <v>5</v>
@@ -9009,8 +9015,8 @@
       <c r="D32" s="16">
         <v>17</v>
       </c>
-      <c r="E32" s="92">
-        <v>17</v>
+      <c r="E32" s="92" t="n">
+        <v>17.0</v>
       </c>
       <c r="F32" s="103" t="n">
         <f t="shared" si="0"/>
@@ -9025,15 +9031,21 @@
       </c>
       <c r="I32" s="74"/>
       <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
+      <c r="K32" s="74" t="n">
+        <v>1.0</v>
+      </c>
       <c r="L32" s="74"/>
       <c r="M32" s="74"/>
       <c r="N32" s="33" t="n">
         <f t="shared" si="2"/>
-        <v>4.0</v>
-      </c>
-      <c r="O32" s="92"/>
-      <c r="P32" s="74"/>
+        <v>5.0</v>
+      </c>
+      <c r="O32" s="92" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P32" s="74" t="n">
+        <v>1.0</v>
+      </c>
       <c r="Q32" s="112">
         <v>1</v>
       </c>
@@ -9067,16 +9079,16 @@
       <c r="D33" s="16">
         <v>8</v>
       </c>
-      <c r="E33" s="92">
-        <v>8</v>
+      <c r="E33" s="92" t="n">
+        <v>7.0</v>
       </c>
       <c r="F33" s="103" t="n">
         <f t="shared" si="0"/>
-        <v>1.0</v>
+        <v>0.875</v>
       </c>
       <c r="G33" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H33" s="91"/>
       <c r="I33" s="74"/>
@@ -9089,7 +9101,9 @@
         <v>0.0</v>
       </c>
       <c r="O33" s="92"/>
-      <c r="P33" s="74"/>
+      <c r="P33" s="74" t="n">
+        <v>1.0</v>
+      </c>
       <c r="Q33" s="112">
         <v>1</v>
       </c>
@@ -9126,23 +9140,23 @@
       </c>
       <c r="E34" s="47" t="n">
         <f>SUM(E6:E33)</f>
-        <v>448.0</v>
+        <v>455.0</v>
       </c>
       <c r="F34" s="69" t="n">
         <f t="shared" si="0"/>
-        <v>0.8265682656826568</v>
+        <v>0.8394833948339483</v>
       </c>
       <c r="G34" s="47" t="n">
         <f t="shared" ref="G34:Q34" si="3">SUM(G6:G33)</f>
-        <v>94.0</v>
+        <v>87.0</v>
       </c>
       <c r="H34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="I34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="J34" s="47" t="n">
         <f t="shared" si="3"/>
@@ -9150,27 +9164,27 @@
       </c>
       <c r="K34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="L34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="M34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="N34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>60.0</v>
+        <v>66.0</v>
       </c>
       <c r="O34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>44.0</v>
+        <v>56.0</v>
       </c>
       <c r="P34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>32.0</v>
+        <v>37.0</v>
       </c>
       <c r="Q34" s="47" t="n">
         <f t="shared" si="3"/>

--- a/datafiles/21-11 Demand Sheet Puyallup.xlsx
+++ b/datafiles/21-11 Demand Sheet Puyallup.xlsx
@@ -1940,11 +1940,11 @@
       </c>
       <c r="L6" s="85" t="n">
         <f>+'Input Tab'!M6</f>
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M6" s="28" t="n">
         <f t="shared" ref="M6:M28" si="1">H6+I6+J6+K6+L6+G6</f>
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="N6" s="22" t="n">
         <f>'Input Tab'!O6</f>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="Q6" s="34" t="n">
         <f t="shared" ref="Q6:Q29" si="2">N6/M6</f>
-        <v>1.0</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
@@ -2041,11 +2041,11 @@
       </c>
       <c r="E8" s="30" t="n">
         <f>'Input Tab'!E8+'Input Tab'!E9</f>
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F8" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G8" s="30" t="n">
         <f>'Input Tab'!H8+'Input Tab'!H9</f>
@@ -2058,7 +2058,7 @@
       <c r="I8" s="30"/>
       <c r="J8" s="30" t="n">
         <f>'Input Tab'!K8+'Input Tab'!K9</f>
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K8" s="30" t="n">
         <f>'Input Tab'!L8+'Input Tab'!L9</f>
@@ -2070,23 +2070,23 @@
       </c>
       <c r="M8" s="28" t="n">
         <f t="shared" si="1"/>
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N8" s="23" t="n">
         <f>'Input Tab'!O8+'Input Tab'!O9</f>
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O8" s="30" t="n">
         <f>'Input Tab'!P8+'Input Tab'!P9</f>
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P8" s="22" t="n">
         <f>'Input Tab'!Q8+'Input Tab'!Q9</f>
         <v>2.0</v>
       </c>
-      <c r="Q8" s="44" t="e">
+      <c r="Q8" s="44" t="n">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
@@ -2248,11 +2248,11 @@
       </c>
       <c r="E11" s="30" t="n">
         <f>+'Input Tab'!E12+'Input Tab'!E13+'Input Tab'!E14+'Input Tab'!E15+'Input Tab'!E16</f>
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="F11" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="G11" s="30" t="n">
         <f>'Input Tab'!H12+'Input Tab'!H13+'Input Tab'!H14+'Input Tab'!H15+'Input Tab'!H16</f>
@@ -2265,7 +2265,7 @@
       <c r="I11" s="30"/>
       <c r="J11" s="30" t="n">
         <f>'Input Tab'!K12+'Input Tab'!K13+'Input Tab'!K14+'Input Tab'!K15+'Input Tab'!K16</f>
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K11" s="30" t="n">
         <f>'Input Tab'!L12+'Input Tab'!L13+'Input Tab'!L14+'Input Tab'!L15+'Input Tab'!L16</f>
@@ -2277,11 +2277,11 @@
       </c>
       <c r="M11" s="42" t="n">
         <f t="shared" si="1"/>
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="N11" s="23" t="n">
         <f>'Input Tab'!O12+'Input Tab'!O13+'Input Tab'!O14+'Input Tab'!O15+'Input Tab'!O16</f>
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="O11" s="30" t="n">
         <f>'Input Tab'!P12+'Input Tab'!P13+'Input Tab'!P14+'Input Tab'!P15+'Input Tab'!P16</f>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="O13" s="30" t="n">
         <f>'Input Tab'!P18</f>
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="P13" s="23" t="n">
         <f>'Input Tab'!Q18</f>
@@ -2478,11 +2478,11 @@
       </c>
       <c r="E14" s="30" t="n">
         <f>'Input Tab'!E19</f>
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F14" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="G14" s="30" t="n">
         <f>'Input Tab'!H19</f>
@@ -2495,7 +2495,7 @@
       <c r="I14" s="30"/>
       <c r="J14" s="30" t="n">
         <f>'Input Tab'!K19</f>
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K14" s="30" t="n">
         <f>'Input Tab'!L19</f>
@@ -2507,11 +2507,11 @@
       </c>
       <c r="M14" s="33" t="n">
         <f t="shared" si="1"/>
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N14" s="23" t="n">
         <f>'Input Tab'!O19</f>
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O14" s="30" t="n">
         <f>'Input Tab'!P19</f>
@@ -2521,9 +2521,9 @@
         <f>'Input Tab'!Q19</f>
         <v>1.0</v>
       </c>
-      <c r="Q14" s="34" t="e">
+      <c r="Q14" s="34" t="n">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
@@ -2540,11 +2540,11 @@
       </c>
       <c r="E15" s="30" t="n">
         <f>'Input Tab'!E20</f>
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F15" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G15" s="30" t="n">
         <f>'Input Tab'!H20</f>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="K25" s="30" t="n">
         <f>'Input Tab'!L30</f>
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L25" s="32" t="n">
         <f>+'Input Tab'!M30</f>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="M25" s="33" t="n">
         <f t="shared" si="1"/>
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="N25" s="23" t="n">
         <f>'Input Tab'!O30</f>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="Q25" s="34" t="n">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -3658,27 +3658,27 @@
       <c r="I29" s="42"/>
       <c r="J29" s="42" t="n">
         <f>SUM(J6:J28)</f>
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="K29" s="50" t="n">
         <f>SUM(K6:K28)</f>
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L29" s="42" t="n">
         <f>SUM(L6:L28)</f>
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M29" s="42" t="n">
         <f>SUM(G29:L29)</f>
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="N29" s="42" t="n">
         <f>SUM(N6:N28)</f>
-        <v>56.0</v>
+        <v>59.0</v>
       </c>
       <c r="O29" s="50" t="n">
         <f>SUM(O6:O28)</f>
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="P29" s="191" t="n">
         <f>+N29-O3:O29</f>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="Q29" s="55" t="n">
         <f t="shared" si="2"/>
-        <v>0.8484848484848485</v>
+        <v>0.8309859154929577</v>
       </c>
     </row>
     <row r="30" spans="1:36" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3829,11 +3829,11 @@
       </c>
       <c r="K33" s="16" t="n">
         <f>L6+L7</f>
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L33" s="15" t="n">
         <f>SUM(G33:K33)</f>
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M33" s="16" t="n">
         <f>N6+N7</f>
@@ -3848,11 +3848,11 @@
       </c>
       <c r="P33" s="64" t="n">
         <f t="shared" ref="P33:P38" si="4">M33/L33</f>
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="Q33" s="44" t="n">
         <f t="shared" ref="Q33:Q38" si="5">L33/F33</f>
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="I34" s="16" t="n">
         <f>+J8+J9+J10+J11</f>
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="J34" s="16" t="n">
         <f>K8+K9+K10+K11</f>
@@ -3898,15 +3898,15 @@
       </c>
       <c r="L34" s="15" t="n">
         <f>SUM(G34:K34)</f>
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="M34" s="16" t="n">
         <f>N8+N9+N10+N11</f>
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="N34" s="16" t="n">
         <f>O8+O9+O10+O11</f>
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="O34" s="16">
         <v>13</v>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="Q34" s="34" t="n">
         <f t="shared" si="5"/>
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="I35" s="16" t="n">
         <f>+J12+J13+J14+J16+J15</f>
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="J35" s="16" t="n">
         <f>K12+K13+K14+K15+K16</f>
@@ -3963,26 +3963,26 @@
       </c>
       <c r="L35" s="15" t="n">
         <f>SUM(G35:K35)</f>
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="M35" s="16" t="n">
         <f>N12+N13+N14+N15+N16</f>
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="N35" s="16" t="n">
         <f>O12+O13+O14+O15+O16</f>
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="O35" s="16">
         <v>9</v>
       </c>
       <c r="P35" s="64" t="n">
         <f t="shared" si="4"/>
-        <v>0.9166666666666666</v>
+        <v>0.92</v>
       </c>
       <c r="Q35" s="34" t="n">
         <f t="shared" si="5"/>
-        <v>1.7142857142857142</v>
+        <v>1.7857142857142858</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="J37" s="117" t="n">
         <f>K24+K25+K26+K27+K28</f>
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K37" s="117" t="n">
         <f>L24+L25+L26+L27+L28</f>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="L37" s="36" t="n">
         <f>SUM(G37:K37)</f>
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M37" s="43" t="n">
         <f>N24+N25+N26+N27+N28</f>
@@ -4108,11 +4108,11 @@
       </c>
       <c r="P37" s="64" t="n">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="Q37" s="51" t="n">
         <f t="shared" si="5"/>
-        <v>3.3333333333333335</v>
+        <v>3.6666666666666665</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -4146,27 +4146,27 @@
       </c>
       <c r="I38" s="12" t="n">
         <f t="shared" si="7"/>
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="J38" s="12" t="n">
         <f t="shared" si="7"/>
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K38" s="37" t="n">
         <f t="shared" si="7"/>
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L38" s="36" t="n">
         <f t="shared" si="7"/>
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="M38" s="12" t="n">
         <f t="shared" si="6"/>
-        <v>56.0</v>
+        <v>59.0</v>
       </c>
       <c r="N38" s="12" t="n">
         <f t="shared" si="6"/>
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="O38" s="12" t="n">
         <f t="shared" si="6"/>
@@ -4174,11 +4174,11 @@
       </c>
       <c r="P38" s="55" t="n">
         <f t="shared" si="4"/>
-        <v>0.8484848484848485</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="Q38" s="55" t="n">
         <f t="shared" si="5"/>
-        <v>0.7586206896551724</v>
+        <v>0.8160919540229885</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -4190,23 +4190,23 @@
       <c r="F39" s="7"/>
       <c r="G39" s="59" t="n">
         <f>G38/L38</f>
-        <v>0.3333333333333333</v>
+        <v>0.30985915492957744</v>
       </c>
       <c r="H39" s="59" t="n">
         <f>H38/L38</f>
-        <v>0.18181818181818182</v>
+        <v>0.16901408450704225</v>
       </c>
       <c r="I39" s="59" t="n">
         <f>I38/L38</f>
-        <v>0.2727272727272727</v>
+        <v>0.29577464788732394</v>
       </c>
       <c r="J39" s="59" t="n">
         <f>J38/L38</f>
-        <v>0.06060606060606061</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="K39" s="59" t="n">
         <f>K38/L38</f>
-        <v>0.15151515151515152</v>
+        <v>0.15492957746478872</v>
       </c>
       <c r="L39" s="67" t="n">
         <f>L38/L38</f>
@@ -4607,11 +4607,11 @@
       </c>
       <c r="E49" s="122" t="n">
         <f>'Input Tab'!E45</f>
-        <v>49.0</v>
+        <v>48.0</v>
       </c>
       <c r="F49" s="134" t="n">
         <f t="shared" si="8"/>
-        <v>1.0</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="G49" s="188" t="n">
         <f>'Input Tab'!H45</f>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="O49" s="30" t="n">
         <f>'Input Tab'!P45</f>
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P49" s="23" t="n">
         <f>'Input Tab'!Q45</f>
@@ -4863,11 +4863,11 @@
       </c>
       <c r="E53" s="122" t="n">
         <f>'Input Tab'!E49</f>
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="F53" s="134" t="n">
         <f t="shared" si="8"/>
-        <v>1.0</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="G53" s="188" t="n">
         <f>'Input Tab'!H49</f>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="O53" s="30" t="n">
         <f>'Input Tab'!P49</f>
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P53" s="23" t="n">
         <f>'Input Tab'!Q49</f>
@@ -5173,11 +5173,11 @@
       </c>
       <c r="E58" s="146" t="n">
         <f>SUM(E45:E57)</f>
-        <v>126.0</v>
+        <v>124.0</v>
       </c>
       <c r="F58" s="184" t="n">
         <f t="shared" si="8"/>
-        <v>1.0</v>
+        <v>0.9841269841269841</v>
       </c>
       <c r="G58" s="146" t="n">
         <f>SUM(G45:G57)</f>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="O58" s="146" t="n">
         <f>SUM(O45:O57)</f>
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="P58" s="148" t="n">
         <f>SUM(P45:P57)</f>
@@ -5458,15 +5458,15 @@
       </c>
       <c r="D64" s="116" t="n">
         <f>+E49+E50+E51+E52+E53+E54+E55+E56+E57</f>
-        <v>105.0</v>
+        <v>103.0</v>
       </c>
       <c r="E64" s="134" t="n">
         <f>D64/C64</f>
-        <v>1.0</v>
+        <v>0.9809523809523809</v>
       </c>
       <c r="F64" s="139" t="n">
         <f>C64-D64</f>
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G64" s="116" t="n">
         <f t="shared" ref="G64:L64" si="11">G49+G50+G51+G52+G53+G54+G55+G56+G57</f>
@@ -5498,7 +5498,7 @@
       </c>
       <c r="N64" s="116" t="n">
         <f>O49+O50+O51+O52+O53+O54+O55+O56+O57</f>
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="O64" s="36" t="n">
         <f>P49+P50+P51+P52+P53+P54+P55+P56+P57</f>
@@ -5508,9 +5508,9 @@
         <f>M64/L64</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="Q64" s="173" t="e">
+      <c r="Q64" s="173" t="n">
         <f>L64/F64</f>
-        <v>#DIV/0!</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -5526,15 +5526,15 @@
       </c>
       <c r="D65" s="146" t="n">
         <f>SUM(D62:D64)</f>
-        <v>126.0</v>
+        <v>124.0</v>
       </c>
       <c r="E65" s="147" t="n">
         <f>D65/C65</f>
-        <v>1.0</v>
+        <v>0.9841269841269841</v>
       </c>
       <c r="F65" s="174" t="n">
         <f>C65-D65</f>
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G65" s="146" t="n">
         <f t="shared" ref="G65:O65" si="12">SUM(G62:G64)</f>
@@ -5566,7 +5566,7 @@
       </c>
       <c r="N65" s="146" t="n">
         <f t="shared" si="12"/>
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="O65" s="146" t="n">
         <f t="shared" si="12"/>
@@ -5576,9 +5576,9 @@
         <f>M65/L65</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="Q65" s="167" t="e">
+      <c r="Q65" s="167" t="n">
         <f>L65/F65</f>
-        <v>#DIV/0!</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
@@ -7586,10 +7586,12 @@
         <v>1.0</v>
       </c>
       <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
+      <c r="M6" s="71" t="n">
+        <v>1.0</v>
+      </c>
       <c r="N6" s="28" t="n">
         <f t="shared" ref="N6:N33" si="2">SUM(H6:M6)</f>
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="O6" s="90" t="n">
         <v>2.0</v>
@@ -7699,28 +7701,34 @@
         <v>2</v>
       </c>
       <c r="E9" s="74" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F9" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="G9" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H9" s="91"/>
       <c r="I9" s="74"/>
       <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
+      <c r="K9" s="74" t="n">
+        <v>1.0</v>
+      </c>
       <c r="L9" s="74"/>
       <c r="M9" s="74"/>
       <c r="N9" s="33" t="n">
         <f t="shared" si="2"/>
-        <v>0.0</v>
-      </c>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
+        <v>1.0</v>
+      </c>
+      <c r="O9" s="92" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P9" s="92" t="n">
+        <v>1.0</v>
+      </c>
       <c r="Q9" s="112">
         <v>1</v>
       </c>
@@ -8075,16 +8083,16 @@
       <c r="D16" s="36">
         <v>48</v>
       </c>
-      <c r="E16" s="93">
-        <v>36</v>
+      <c r="E16" s="93" t="n">
+        <v>37.0</v>
       </c>
       <c r="F16" s="40" t="n">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="G16" s="36" t="n">
         <f t="shared" si="1"/>
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="H16" s="94">
         <v>1</v>
@@ -8093,7 +8101,9 @@
         <v>2</v>
       </c>
       <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
+      <c r="K16" s="93" t="n">
+        <v>1.0</v>
+      </c>
       <c r="L16" s="93">
         <v>1</v>
       </c>
@@ -8102,10 +8112,10 @@
       </c>
       <c r="N16" s="42" t="n">
         <f t="shared" si="2"/>
-        <v>7.0</v>
-      </c>
-      <c r="O16" s="95">
-        <v>7</v>
+        <v>8.0</v>
+      </c>
+      <c r="O16" s="95" t="n">
+        <v>8.0</v>
       </c>
       <c r="P16" s="95">
         <v>3</v>
@@ -8239,8 +8249,8 @@
       <c r="O18" s="92" t="n">
         <v>22.0</v>
       </c>
-      <c r="P18" s="74">
-        <v>5</v>
+      <c r="P18" s="74" t="n">
+        <v>7.0</v>
       </c>
       <c r="Q18" s="112">
         <v>5</v>
@@ -8260,27 +8270,31 @@
         <v>2</v>
       </c>
       <c r="E19" s="91" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F19" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="G19" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H19" s="91"/>
       <c r="I19" s="74"/>
       <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
+      <c r="K19" s="74" t="n">
+        <v>1.0</v>
+      </c>
       <c r="L19" s="74"/>
       <c r="M19" s="74"/>
       <c r="N19" s="33" t="n">
         <f t="shared" si="2"/>
-        <v>0.0</v>
-      </c>
-      <c r="O19" s="92"/>
+        <v>1.0</v>
+      </c>
+      <c r="O19" s="92" t="n">
+        <v>1.0</v>
+      </c>
       <c r="P19" s="74" t="n">
         <v>1.0</v>
       </c>
@@ -8299,16 +8313,16 @@
       <c r="D20" s="16">
         <v>4</v>
       </c>
-      <c r="E20" s="91">
-        <v>3</v>
+      <c r="E20" s="91" t="n">
+        <v>2.0</v>
       </c>
       <c r="F20" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H20" s="91"/>
       <c r="I20" s="74"/>
@@ -8914,11 +8928,13 @@
       <c r="K30" s="74">
         <v>1</v>
       </c>
-      <c r="L30" s="74"/>
+      <c r="L30" s="74" t="n">
+        <v>1.0</v>
+      </c>
       <c r="M30" s="74"/>
       <c r="N30" s="33" t="n">
         <f t="shared" si="2"/>
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="O30" s="92">
         <v>1</v>
@@ -9164,27 +9180,27 @@
       </c>
       <c r="K34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="L34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="N34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="O34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>56.0</v>
+        <v>59.0</v>
       </c>
       <c r="P34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="Q34" s="47" t="n">
         <f t="shared" si="3"/>
@@ -9519,16 +9535,16 @@
       <c r="D45" s="133">
         <v>49</v>
       </c>
-      <c r="E45" s="135">
-        <v>49</v>
+      <c r="E45" s="135" t="n">
+        <v>48.0</v>
       </c>
       <c r="F45" s="134" t="n">
         <f t="shared" si="6"/>
-        <v>1.0</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="G45" s="133" t="n">
         <f t="shared" si="4"/>
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H45" s="92">
         <v>1</v>
@@ -9549,7 +9565,9 @@
       <c r="O45" s="109">
         <v>1</v>
       </c>
-      <c r="P45" s="135"/>
+      <c r="P45" s="135" t="n">
+        <v>1.0</v>
+      </c>
       <c r="Q45" s="139">
         <v>1</v>
       </c>
@@ -9687,16 +9705,16 @@
       <c r="D49" s="133">
         <v>17</v>
       </c>
-      <c r="E49" s="135">
-        <v>17</v>
+      <c r="E49" s="135" t="n">
+        <v>16.0</v>
       </c>
       <c r="F49" s="134" t="n">
         <f t="shared" si="6"/>
-        <v>1.0</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="G49" s="133" t="n">
         <f t="shared" si="4"/>
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H49" s="92"/>
       <c r="I49" s="135">
@@ -9711,7 +9729,9 @@
         <v>4.0</v>
       </c>
       <c r="O49" s="109"/>
-      <c r="P49" s="135"/>
+      <c r="P49" s="135" t="n">
+        <v>1.0</v>
+      </c>
       <c r="Q49" s="133">
         <v>1</v>
       </c>
@@ -9886,15 +9906,15 @@
       </c>
       <c r="E54" s="146" t="n">
         <f>SUM(E41:E53)</f>
-        <v>126.0</v>
+        <v>124.0</v>
       </c>
       <c r="F54" s="147" t="n">
         <f t="shared" si="6"/>
-        <v>1.0</v>
+        <v>0.9841269841269841</v>
       </c>
       <c r="G54" s="146" t="n">
         <f t="shared" ref="G54:Q54" si="7">SUM(G41:G53)</f>
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H54" s="146" t="n">
         <f t="shared" si="7"/>
@@ -9927,7 +9947,7 @@
       </c>
       <c r="P54" s="148" t="n">
         <f t="shared" si="7"/>
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q54" s="148" t="n">
         <f t="shared" si="7"/>

--- a/datafiles/21-11 Demand Sheet Puyallup.xlsx
+++ b/datafiles/21-11 Demand Sheet Puyallup.xlsx
@@ -2248,11 +2248,11 @@
       </c>
       <c r="E11" s="30" t="n">
         <f>+'Input Tab'!E12+'Input Tab'!E13+'Input Tab'!E14+'Input Tab'!E15+'Input Tab'!E16</f>
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="F11" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>0.7666666666666667</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="G11" s="30" t="n">
         <f>'Input Tab'!H12+'Input Tab'!H13+'Input Tab'!H14+'Input Tab'!H15+'Input Tab'!H16</f>
@@ -2265,7 +2265,7 @@
       <c r="I11" s="30"/>
       <c r="J11" s="30" t="n">
         <f>'Input Tab'!K12+'Input Tab'!K13+'Input Tab'!K14+'Input Tab'!K15+'Input Tab'!K16</f>
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K11" s="30" t="n">
         <f>'Input Tab'!L12+'Input Tab'!L13+'Input Tab'!L14+'Input Tab'!L15+'Input Tab'!L16</f>
@@ -2277,11 +2277,11 @@
       </c>
       <c r="M11" s="42" t="n">
         <f t="shared" si="1"/>
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="N11" s="23" t="n">
         <f>'Input Tab'!O12+'Input Tab'!O13+'Input Tab'!O14+'Input Tab'!O15+'Input Tab'!O16</f>
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="O11" s="30" t="n">
         <f>'Input Tab'!P12+'Input Tab'!P13+'Input Tab'!P14+'Input Tab'!P15+'Input Tab'!P16</f>
@@ -3641,11 +3641,11 @@
       </c>
       <c r="E29" s="50" t="n">
         <f>SUM(E6:E28)</f>
-        <v>455.0</v>
+        <v>456.0</v>
       </c>
       <c r="F29" s="54" t="n">
         <f t="shared" si="0"/>
-        <v>0.8394833948339483</v>
+        <v>0.8413284132841329</v>
       </c>
       <c r="G29" s="42" t="n">
         <f>SUM(G6:G28)</f>
@@ -3658,7 +3658,7 @@
       <c r="I29" s="42"/>
       <c r="J29" s="42" t="n">
         <f>SUM(J6:J28)</f>
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="K29" s="50" t="n">
         <f>SUM(K6:K28)</f>
@@ -3670,11 +3670,11 @@
       </c>
       <c r="M29" s="42" t="n">
         <f>SUM(G29:L29)</f>
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="N29" s="42" t="n">
         <f>SUM(N6:N28)</f>
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="O29" s="50" t="n">
         <f>SUM(O6:O28)</f>
@@ -3682,11 +3682,11 @@
       </c>
       <c r="P29" s="191" t="n">
         <f>+N29-O3:O29</f>
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="Q29" s="55" t="n">
         <f t="shared" si="2"/>
-        <v>0.8309859154929577</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="30" spans="1:36" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3866,15 +3866,15 @@
       </c>
       <c r="D34" s="16" t="n">
         <f>E8+E9+E10+E11</f>
-        <v>110.0</v>
+        <v>111.0</v>
       </c>
       <c r="E34" s="31" t="n">
         <f t="shared" si="3"/>
-        <v>0.8148148148148148</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="F34" s="7" t="n">
         <f>C34-D34</f>
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="G34" s="16" t="n">
         <f>G8+G9+G10+G11</f>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="I34" s="16" t="n">
         <f>+J8+J9+J10+J11</f>
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="J34" s="16" t="n">
         <f>K8+K9+K10+K11</f>
@@ -3898,11 +3898,11 @@
       </c>
       <c r="L34" s="15" t="n">
         <f>SUM(G34:K34)</f>
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="M34" s="16" t="n">
         <f>N8+N9+N10+N11</f>
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="N34" s="16" t="n">
         <f>O8+O9+O10+O11</f>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="Q34" s="34" t="n">
         <f t="shared" si="5"/>
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -4126,15 +4126,15 @@
       </c>
       <c r="D38" s="12" t="n">
         <f>SUM(D33:D37)</f>
-        <v>455.0</v>
+        <v>456.0</v>
       </c>
       <c r="E38" s="49" t="n">
         <f t="shared" si="3"/>
-        <v>0.8394833948339483</v>
+        <v>0.8413284132841329</v>
       </c>
       <c r="F38" s="12" t="n">
         <f t="shared" ref="F38:O38" si="6">SUM(F33:F37)</f>
-        <v>87.0</v>
+        <v>86.0</v>
       </c>
       <c r="G38" s="65" t="n">
         <f t="shared" ref="G38:L38" si="7">SUM(G33:G37)</f>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="I38" s="12" t="n">
         <f t="shared" si="7"/>
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="J38" s="12" t="n">
         <f t="shared" si="7"/>
@@ -4158,11 +4158,11 @@
       </c>
       <c r="L38" s="36" t="n">
         <f t="shared" si="7"/>
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="M38" s="12" t="n">
         <f t="shared" si="6"/>
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="N38" s="12" t="n">
         <f t="shared" si="6"/>
@@ -4174,11 +4174,11 @@
       </c>
       <c r="P38" s="55" t="n">
         <f t="shared" si="4"/>
-        <v>0.8309859154929577</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Q38" s="55" t="n">
         <f t="shared" si="5"/>
-        <v>0.8160919540229885</v>
+        <v>0.8372093023255814</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -4190,23 +4190,23 @@
       <c r="F39" s="7"/>
       <c r="G39" s="59" t="n">
         <f>G38/L38</f>
-        <v>0.30985915492957744</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="H39" s="59" t="n">
         <f>H38/L38</f>
-        <v>0.16901408450704225</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I39" s="59" t="n">
         <f>I38/L38</f>
-        <v>0.29577464788732394</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="J39" s="59" t="n">
         <f>J38/L38</f>
-        <v>0.07042253521126761</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="K39" s="59" t="n">
         <f>K38/L38</f>
-        <v>0.15492957746478872</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="L39" s="67" t="n">
         <f>L38/L38</f>
@@ -8026,28 +8026,32 @@
       <c r="D15" s="15">
         <v>8</v>
       </c>
-      <c r="E15" s="74">
-        <v>6</v>
+      <c r="E15" s="74" t="n">
+        <v>7.0</v>
       </c>
       <c r="F15" s="31" t="n">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="G15" s="15" t="n">
         <f t="shared" si="1"/>
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H15" s="91"/>
       <c r="I15" s="74"/>
       <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
+      <c r="K15" s="74" t="n">
+        <v>1.0</v>
+      </c>
       <c r="L15" s="74"/>
       <c r="M15" s="74"/>
       <c r="N15" s="33" t="n">
         <f>SUM(H15:M15)</f>
-        <v>0.0</v>
-      </c>
-      <c r="O15" s="92"/>
+        <v>1.0</v>
+      </c>
+      <c r="O15" s="92" t="n">
+        <v>1.0</v>
+      </c>
       <c r="P15" s="92"/>
       <c r="Q15" s="112">
         <v>1</v>
@@ -9156,15 +9160,15 @@
       </c>
       <c r="E34" s="47" t="n">
         <f>SUM(E6:E33)</f>
-        <v>455.0</v>
+        <v>456.0</v>
       </c>
       <c r="F34" s="69" t="n">
         <f t="shared" si="0"/>
-        <v>0.8394833948339483</v>
+        <v>0.8413284132841329</v>
       </c>
       <c r="G34" s="47" t="n">
         <f t="shared" ref="G34:Q34" si="3">SUM(G6:G33)</f>
-        <v>87.0</v>
+        <v>86.0</v>
       </c>
       <c r="H34" s="47" t="n">
         <f t="shared" si="3"/>
@@ -9180,7 +9184,7 @@
       </c>
       <c r="K34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="L34" s="47" t="n">
         <f t="shared" si="3"/>
@@ -9192,11 +9196,11 @@
       </c>
       <c r="N34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="O34" s="47" t="n">
         <f t="shared" si="3"/>
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="P34" s="47" t="n">
         <f t="shared" si="3"/>
